--- a/templates/management/Balance Scorecard (BSC).xlsx
+++ b/templates/management/Balance Scorecard (BSC).xlsx
@@ -413,8 +413,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
       <border/>
@@ -423,8 +423,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
       <border/>
@@ -663,6 +663,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF9900FF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -688,211 +689,211 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4">
         <f t="shared" ref="F1:BE1" si="1">AVERAGEIFS(F9:F1013,$E9:$E1013,"% Target")</f>
-        <v>0.4201954451</v>
+        <v>0.4452685879</v>
       </c>
       <c r="G1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4443596264</v>
+        <v>0.4422457692</v>
       </c>
       <c r="H1" s="4">
         <f t="shared" si="1"/>
-        <v>0.3648119286</v>
+        <v>0.3023463571</v>
       </c>
       <c r="I1" s="4">
         <f t="shared" si="1"/>
-        <v>0.569029989</v>
+        <v>0.5258767033</v>
       </c>
       <c r="J1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5740620275</v>
+        <v>0.643591456</v>
       </c>
       <c r="K1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4436682088</v>
+        <v>0.4728619231</v>
       </c>
       <c r="L1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4879322473</v>
+        <v>0.521355533</v>
       </c>
       <c r="M1" s="4">
         <f t="shared" si="1"/>
-        <v>0.539232</v>
+        <v>0.5647217143</v>
       </c>
       <c r="N1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4853046099</v>
+        <v>0.5485270385</v>
       </c>
       <c r="O1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5330096484</v>
+        <v>0.5968060769</v>
       </c>
       <c r="P1" s="4">
         <f t="shared" si="1"/>
-        <v>0.567304544</v>
+        <v>0.519619544</v>
       </c>
       <c r="Q1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5308415824</v>
+        <v>0.4830432967</v>
       </c>
       <c r="R1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4769997637</v>
+        <v>0.4530146209</v>
       </c>
       <c r="S1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6080312308</v>
+        <v>0.4581923736</v>
       </c>
       <c r="T1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5427012692</v>
+        <v>0.5480889835</v>
       </c>
       <c r="U1" s="4">
         <f t="shared" si="1"/>
-        <v>0.656211022</v>
+        <v>0.5566083077</v>
       </c>
       <c r="V1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6759320604</v>
+        <v>0.6282593462</v>
       </c>
       <c r="W1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6583080989</v>
+        <v>0.5705382418</v>
       </c>
       <c r="X1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6139065659</v>
+        <v>0.6166417088</v>
       </c>
       <c r="Y1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5754547473</v>
+        <v>0.6716047473</v>
       </c>
       <c r="Z1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6700359286</v>
+        <v>0.6892907857</v>
       </c>
       <c r="AA1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7526726813</v>
+        <v>0.6739615385</v>
       </c>
       <c r="AB1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7969724341</v>
+        <v>0.7963160055</v>
       </c>
       <c r="AC1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6992796154</v>
+        <v>0.6544556154</v>
       </c>
       <c r="AD1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6736079396</v>
+        <v>0.7866706538</v>
       </c>
       <c r="AE1" s="4">
         <f t="shared" si="1"/>
-        <v>0.716287978</v>
+        <v>0.7877746923</v>
       </c>
       <c r="AF1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6926508736</v>
+        <v>0.6972191593</v>
       </c>
       <c r="AG1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7809494835</v>
+        <v>0.7612441978</v>
       </c>
       <c r="AH1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7869022363</v>
+        <v>0.8846829505</v>
       </c>
       <c r="AI1" s="4">
         <f t="shared" si="1"/>
-        <v>0.853170989</v>
+        <v>0.8387987033</v>
       </c>
       <c r="AJ1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7099380275</v>
+        <v>0.806668456</v>
       </c>
       <c r="AK1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7372789231</v>
+        <v>0.7493352088</v>
       </c>
       <c r="AL1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8966981044</v>
+        <v>0.8758983901</v>
       </c>
       <c r="AM1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9056475714</v>
+        <v>0.8759904286</v>
       </c>
       <c r="AN1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8745450385</v>
+        <v>0.8141698956</v>
       </c>
       <c r="AO1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8999780769</v>
+        <v>0.8164377912</v>
       </c>
       <c r="AP1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7991861154</v>
+        <v>0.8841892582</v>
       </c>
       <c r="AQ1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9137921538</v>
+        <v>0.8923211538</v>
       </c>
       <c r="AR1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9112330495</v>
+        <v>0.8003207637</v>
       </c>
       <c r="AS1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9237236593</v>
+        <v>0.9983748022</v>
       </c>
       <c r="AT1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9959638407</v>
+        <v>0.9738076978</v>
       </c>
       <c r="AU1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8785238791</v>
+        <v>0.8872597363</v>
       </c>
       <c r="AV1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9648100604</v>
+        <v>0.9456257747</v>
       </c>
       <c r="AW1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9524203846</v>
+        <v>0.9609923846</v>
       </c>
       <c r="AX1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9558717088</v>
+        <v>0.9905724231</v>
       </c>
       <c r="AY1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9191433187</v>
+        <v>1.03586789</v>
       </c>
       <c r="AZ1" s="4">
         <f t="shared" si="1"/>
-        <v>1.176788643</v>
+        <v>1.093406214</v>
       </c>
       <c r="BA1" s="4">
         <f t="shared" si="1"/>
-        <v>1.01241011</v>
+        <v>0.9525403956</v>
       </c>
       <c r="BB1" s="4">
         <f t="shared" si="1"/>
-        <v>1.006098863</v>
+        <v>0.9689434341</v>
       </c>
       <c r="BC1" s="4">
         <f t="shared" si="1"/>
-        <v>1.049173758</v>
+        <v>1.081434187</v>
       </c>
       <c r="BD1" s="4">
         <f t="shared" si="1"/>
-        <v>1.112331654</v>
+        <v>1.00382794</v>
       </c>
       <c r="BE1" s="4">
         <f t="shared" si="1"/>
-        <v>1.152550407</v>
+        <v>1.069283407</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -1348,7 +1349,7 @@
       <c r="B9" s="19"/>
       <c r="C9" s="20">
         <f>SUMIFS(C10:C1013,A10:A1013,A10)</f>
-        <v>0.904098967</v>
+        <v>0.885016633</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
@@ -1414,7 +1415,7 @@
       </c>
       <c r="C10" s="25">
         <f t="array" ref="C10">IF( B11="Short-Term", AVERAGE(F12:BE12)*B12, INDEX(F12:BE12, 1, COUNTA(F12:BE12))*B12 )</f>
-        <v>0.3058352308</v>
+        <v>0.3030303692</v>
       </c>
       <c r="D10" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B11=""Short-Term"", SPARKLINE(F12:BE12,IF(B10=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F12:BE12, 1, COUNTA(F12:BE12)) ,IF(B10=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -1425,211 +1426,211 @@
       </c>
       <c r="F10" s="26">
         <f t="shared" ref="F10:BE10" si="2">RANDBETWEEN(100000,150000)</f>
-        <v>149078</v>
+        <v>127419</v>
       </c>
       <c r="G10" s="26">
         <f t="shared" si="2"/>
-        <v>108111</v>
+        <v>104640</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="2"/>
-        <v>139053</v>
+        <v>113891</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="2"/>
-        <v>137894</v>
+        <v>133580</v>
       </c>
       <c r="J10" s="26">
         <f t="shared" si="2"/>
-        <v>141402</v>
+        <v>149485</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="2"/>
-        <v>100127</v>
+        <v>149285</v>
       </c>
       <c r="L10" s="26">
         <f t="shared" si="2"/>
-        <v>131867</v>
+        <v>115951</v>
       </c>
       <c r="M10" s="26">
         <f t="shared" si="2"/>
-        <v>146607</v>
+        <v>136436</v>
       </c>
       <c r="N10" s="26">
         <f t="shared" si="2"/>
-        <v>125102</v>
+        <v>129128</v>
       </c>
       <c r="O10" s="26">
         <f t="shared" si="2"/>
-        <v>119783</v>
+        <v>116758</v>
       </c>
       <c r="P10" s="26">
         <f t="shared" si="2"/>
-        <v>146036</v>
+        <v>116476</v>
       </c>
       <c r="Q10" s="26">
         <f t="shared" si="2"/>
-        <v>100799</v>
+        <v>102465</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="2"/>
-        <v>133326</v>
+        <v>125698</v>
       </c>
       <c r="S10" s="26">
         <f t="shared" si="2"/>
-        <v>142512</v>
+        <v>111066</v>
       </c>
       <c r="T10" s="26">
         <f t="shared" si="2"/>
-        <v>102283</v>
+        <v>145260</v>
       </c>
       <c r="U10" s="26">
         <f t="shared" si="2"/>
-        <v>120983</v>
+        <v>125291</v>
       </c>
       <c r="V10" s="26">
         <f t="shared" si="2"/>
-        <v>132930</v>
+        <v>108293</v>
       </c>
       <c r="W10" s="26">
         <f t="shared" si="2"/>
-        <v>143157</v>
+        <v>106155</v>
       </c>
       <c r="X10" s="26">
         <f t="shared" si="2"/>
-        <v>129785</v>
+        <v>120913</v>
       </c>
       <c r="Y10" s="26">
         <f t="shared" si="2"/>
-        <v>116452</v>
+        <v>134727</v>
       </c>
       <c r="Z10" s="26">
         <f t="shared" si="2"/>
-        <v>134777</v>
+        <v>141139</v>
       </c>
       <c r="AA10" s="26">
         <f t="shared" si="2"/>
-        <v>137354</v>
+        <v>104625</v>
       </c>
       <c r="AB10" s="26">
         <f t="shared" si="2"/>
-        <v>144344</v>
+        <v>148134</v>
       </c>
       <c r="AC10" s="26">
         <f t="shared" si="2"/>
-        <v>111145</v>
+        <v>105196</v>
       </c>
       <c r="AD10" s="26">
         <f t="shared" si="2"/>
-        <v>149235</v>
+        <v>133887</v>
       </c>
       <c r="AE10" s="26">
         <f t="shared" si="2"/>
-        <v>107391</v>
+        <v>136967</v>
       </c>
       <c r="AF10" s="26">
         <f t="shared" si="2"/>
-        <v>138212</v>
+        <v>122691</v>
       </c>
       <c r="AG10" s="26">
         <f t="shared" si="2"/>
-        <v>144933</v>
+        <v>130442</v>
       </c>
       <c r="AH10" s="26">
         <f t="shared" si="2"/>
-        <v>149326</v>
+        <v>142446</v>
       </c>
       <c r="AI10" s="26">
         <f t="shared" si="2"/>
-        <v>133910</v>
+        <v>135377</v>
       </c>
       <c r="AJ10" s="26">
         <f t="shared" si="2"/>
-        <v>148653</v>
+        <v>126812</v>
       </c>
       <c r="AK10" s="26">
         <f t="shared" si="2"/>
-        <v>128952</v>
+        <v>106044</v>
       </c>
       <c r="AL10" s="26">
         <f t="shared" si="2"/>
-        <v>132490</v>
+        <v>147351</v>
       </c>
       <c r="AM10" s="26">
         <f t="shared" si="2"/>
-        <v>129094</v>
+        <v>144044</v>
       </c>
       <c r="AN10" s="26">
         <f t="shared" si="2"/>
-        <v>145521</v>
+        <v>139878</v>
       </c>
       <c r="AO10" s="26">
         <f t="shared" si="2"/>
-        <v>133680</v>
+        <v>121104</v>
       </c>
       <c r="AP10" s="26">
         <f t="shared" si="2"/>
-        <v>102114</v>
+        <v>142260</v>
       </c>
       <c r="AQ10" s="26">
         <f t="shared" si="2"/>
-        <v>105321</v>
+        <v>132100</v>
       </c>
       <c r="AR10" s="26">
         <f t="shared" si="2"/>
-        <v>127720</v>
+        <v>120647</v>
       </c>
       <c r="AS10" s="26">
         <f t="shared" si="2"/>
-        <v>127508</v>
+        <v>121802</v>
       </c>
       <c r="AT10" s="26">
         <f t="shared" si="2"/>
-        <v>121617</v>
+        <v>134693</v>
       </c>
       <c r="AU10" s="26">
         <f t="shared" si="2"/>
-        <v>115653</v>
+        <v>106371</v>
       </c>
       <c r="AV10" s="26">
         <f t="shared" si="2"/>
-        <v>144683</v>
+        <v>137588</v>
       </c>
       <c r="AW10" s="26">
         <f t="shared" si="2"/>
-        <v>111805</v>
+        <v>122502</v>
       </c>
       <c r="AX10" s="26">
         <f t="shared" si="2"/>
-        <v>127143</v>
+        <v>144808</v>
       </c>
       <c r="AY10" s="26">
         <f t="shared" si="2"/>
-        <v>118962</v>
+        <v>128508</v>
       </c>
       <c r="AZ10" s="26">
         <f t="shared" si="2"/>
-        <v>111744</v>
+        <v>133308</v>
       </c>
       <c r="BA10" s="26">
         <f t="shared" si="2"/>
-        <v>115645</v>
+        <v>104561</v>
       </c>
       <c r="BB10" s="26">
         <f t="shared" si="2"/>
-        <v>119774</v>
+        <v>135690</v>
       </c>
       <c r="BC10" s="26">
         <f t="shared" si="2"/>
-        <v>103057</v>
+        <v>125121</v>
       </c>
       <c r="BD10" s="26">
         <f t="shared" si="2"/>
-        <v>117673</v>
+        <v>107580</v>
       </c>
       <c r="BE10" s="26">
         <f t="shared" si="2"/>
-        <v>119707</v>
+        <v>109065</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1808,211 +1809,211 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ref="F12:BE12" si="3">IF( $B10="Maximum", F10/F11 , IF( 100%-(F10-F11)/F11 &gt; 0, 100%-(F10-F11)/F11, 0) )</f>
-        <v>1.192624</v>
+        <v>1.019352</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="3"/>
-        <v>0.864888</v>
+        <v>0.83712</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" si="3"/>
-        <v>1.112424</v>
+        <v>0.911128</v>
       </c>
       <c r="I12" s="29">
         <f t="shared" si="3"/>
-        <v>1.103152</v>
+        <v>1.06864</v>
       </c>
       <c r="J12" s="29">
         <f t="shared" si="3"/>
-        <v>1.131216</v>
+        <v>1.19588</v>
       </c>
       <c r="K12" s="29">
         <f t="shared" si="3"/>
-        <v>0.801016</v>
+        <v>1.19428</v>
       </c>
       <c r="L12" s="29">
         <f t="shared" si="3"/>
-        <v>1.054936</v>
+        <v>0.927608</v>
       </c>
       <c r="M12" s="29">
         <f t="shared" si="3"/>
-        <v>1.172856</v>
+        <v>1.091488</v>
       </c>
       <c r="N12" s="29">
         <f t="shared" si="3"/>
-        <v>1.000816</v>
+        <v>1.033024</v>
       </c>
       <c r="O12" s="29">
         <f t="shared" si="3"/>
-        <v>0.958264</v>
+        <v>0.934064</v>
       </c>
       <c r="P12" s="29">
         <f t="shared" si="3"/>
-        <v>1.168288</v>
+        <v>0.931808</v>
       </c>
       <c r="Q12" s="29">
         <f t="shared" si="3"/>
-        <v>0.806392</v>
+        <v>0.81972</v>
       </c>
       <c r="R12" s="29">
         <f t="shared" si="3"/>
-        <v>1.066608</v>
+        <v>1.005584</v>
       </c>
       <c r="S12" s="29">
         <f t="shared" si="3"/>
-        <v>1.140096</v>
+        <v>0.888528</v>
       </c>
       <c r="T12" s="29">
         <f t="shared" si="3"/>
-        <v>0.818264</v>
+        <v>1.16208</v>
       </c>
       <c r="U12" s="29">
         <f t="shared" si="3"/>
-        <v>0.967864</v>
+        <v>1.002328</v>
       </c>
       <c r="V12" s="29">
         <f t="shared" si="3"/>
-        <v>1.06344</v>
+        <v>0.866344</v>
       </c>
       <c r="W12" s="29">
         <f t="shared" si="3"/>
-        <v>1.145256</v>
+        <v>0.84924</v>
       </c>
       <c r="X12" s="29">
         <f t="shared" si="3"/>
-        <v>1.03828</v>
+        <v>0.967304</v>
       </c>
       <c r="Y12" s="29">
         <f t="shared" si="3"/>
-        <v>0.931616</v>
+        <v>1.077816</v>
       </c>
       <c r="Z12" s="29">
         <f t="shared" si="3"/>
-        <v>1.078216</v>
+        <v>1.129112</v>
       </c>
       <c r="AA12" s="29">
         <f t="shared" si="3"/>
-        <v>1.098832</v>
+        <v>0.837</v>
       </c>
       <c r="AB12" s="29">
         <f t="shared" si="3"/>
-        <v>1.154752</v>
+        <v>1.185072</v>
       </c>
       <c r="AC12" s="29">
         <f t="shared" si="3"/>
-        <v>0.88916</v>
+        <v>0.841568</v>
       </c>
       <c r="AD12" s="29">
         <f t="shared" si="3"/>
-        <v>1.19388</v>
+        <v>1.071096</v>
       </c>
       <c r="AE12" s="29">
         <f t="shared" si="3"/>
-        <v>0.859128</v>
+        <v>1.095736</v>
       </c>
       <c r="AF12" s="29">
         <f t="shared" si="3"/>
-        <v>1.105696</v>
+        <v>0.981528</v>
       </c>
       <c r="AG12" s="29">
         <f t="shared" si="3"/>
-        <v>1.159464</v>
+        <v>1.043536</v>
       </c>
       <c r="AH12" s="29">
         <f t="shared" si="3"/>
-        <v>1.194608</v>
+        <v>1.139568</v>
       </c>
       <c r="AI12" s="29">
         <f t="shared" si="3"/>
-        <v>1.07128</v>
+        <v>1.083016</v>
       </c>
       <c r="AJ12" s="29">
         <f t="shared" si="3"/>
-        <v>1.189224</v>
+        <v>1.014496</v>
       </c>
       <c r="AK12" s="29">
         <f t="shared" si="3"/>
-        <v>1.031616</v>
+        <v>0.848352</v>
       </c>
       <c r="AL12" s="29">
         <f t="shared" si="3"/>
-        <v>1.05992</v>
+        <v>1.178808</v>
       </c>
       <c r="AM12" s="29">
         <f t="shared" si="3"/>
-        <v>1.032752</v>
+        <v>1.152352</v>
       </c>
       <c r="AN12" s="29">
         <f t="shared" si="3"/>
-        <v>1.164168</v>
+        <v>1.119024</v>
       </c>
       <c r="AO12" s="29">
         <f t="shared" si="3"/>
-        <v>1.06944</v>
+        <v>0.968832</v>
       </c>
       <c r="AP12" s="29">
         <f t="shared" si="3"/>
-        <v>0.816912</v>
+        <v>1.13808</v>
       </c>
       <c r="AQ12" s="29">
         <f t="shared" si="3"/>
-        <v>0.842568</v>
+        <v>1.0568</v>
       </c>
       <c r="AR12" s="29">
         <f t="shared" si="3"/>
-        <v>1.02176</v>
+        <v>0.965176</v>
       </c>
       <c r="AS12" s="29">
         <f t="shared" si="3"/>
-        <v>1.020064</v>
+        <v>0.974416</v>
       </c>
       <c r="AT12" s="29">
         <f t="shared" si="3"/>
-        <v>0.972936</v>
+        <v>1.077544</v>
       </c>
       <c r="AU12" s="29">
         <f t="shared" si="3"/>
-        <v>0.925224</v>
+        <v>0.850968</v>
       </c>
       <c r="AV12" s="29">
         <f t="shared" si="3"/>
-        <v>1.157464</v>
+        <v>1.100704</v>
       </c>
       <c r="AW12" s="29">
         <f t="shared" si="3"/>
-        <v>0.89444</v>
+        <v>0.980016</v>
       </c>
       <c r="AX12" s="29">
         <f t="shared" si="3"/>
-        <v>1.017144</v>
+        <v>1.158464</v>
       </c>
       <c r="AY12" s="29">
         <f t="shared" si="3"/>
-        <v>0.951696</v>
+        <v>1.028064</v>
       </c>
       <c r="AZ12" s="29">
         <f t="shared" si="3"/>
-        <v>0.893952</v>
+        <v>1.066464</v>
       </c>
       <c r="BA12" s="29">
         <f t="shared" si="3"/>
-        <v>0.92516</v>
+        <v>0.836488</v>
       </c>
       <c r="BB12" s="29">
         <f t="shared" si="3"/>
-        <v>0.958192</v>
+        <v>1.08552</v>
       </c>
       <c r="BC12" s="29">
         <f t="shared" si="3"/>
-        <v>0.824456</v>
+        <v>1.000968</v>
       </c>
       <c r="BD12" s="29">
         <f t="shared" si="3"/>
-        <v>0.941384</v>
+        <v>0.86064</v>
       </c>
       <c r="BE12" s="29">
         <f t="shared" si="3"/>
-        <v>0.957656</v>
+        <v>0.87252</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -2024,7 +2025,7 @@
       </c>
       <c r="C13" s="25">
         <f t="array" ref="C13">IF( B14="Short-Term", AVERAGE(F15:BE15)*B15, INDEX(F15:BE15, 1, COUNTA(F15:BE15))*B15 )</f>
-        <v>0.1884175824</v>
+        <v>0.1721401099</v>
       </c>
       <c r="D13" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B14=""Short-Term"", SPARKLINE(F15:BE15,IF(B13=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F15:BE15, 1, COUNTA(F15:BE15)) ,IF(B13=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -2035,211 +2036,211 @@
       </c>
       <c r="F13" s="26">
         <f t="shared" ref="F13:BE13" si="4">RANDBETWEEN(5000,10000)</f>
-        <v>9448</v>
+        <v>7041</v>
       </c>
       <c r="G13" s="26">
         <f t="shared" si="4"/>
-        <v>9372</v>
+        <v>9016</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="4"/>
-        <v>7850</v>
+        <v>9099</v>
       </c>
       <c r="I13" s="26">
         <f t="shared" si="4"/>
-        <v>7421</v>
+        <v>9736</v>
       </c>
       <c r="J13" s="26">
         <f t="shared" si="4"/>
-        <v>5097</v>
+        <v>6696</v>
       </c>
       <c r="K13" s="26">
         <f t="shared" si="4"/>
-        <v>8619</v>
+        <v>6587</v>
       </c>
       <c r="L13" s="26">
         <f t="shared" si="4"/>
-        <v>7429</v>
+        <v>5786</v>
       </c>
       <c r="M13" s="26">
         <f t="shared" si="4"/>
-        <v>6013</v>
+        <v>7236</v>
       </c>
       <c r="N13" s="26">
         <f t="shared" si="4"/>
-        <v>7130</v>
+        <v>6195</v>
       </c>
       <c r="O13" s="26">
         <f t="shared" si="4"/>
-        <v>5842</v>
+        <v>5250</v>
       </c>
       <c r="P13" s="26">
         <f t="shared" si="4"/>
-        <v>6443</v>
+        <v>9278</v>
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="4"/>
-        <v>6653</v>
+        <v>7463</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="4"/>
-        <v>8971</v>
+        <v>9817</v>
       </c>
       <c r="S13" s="26">
         <f t="shared" si="4"/>
-        <v>6209</v>
+        <v>8709</v>
       </c>
       <c r="T13" s="26">
         <f t="shared" si="4"/>
-        <v>6286</v>
+        <v>7971</v>
       </c>
       <c r="U13" s="26">
         <f t="shared" si="4"/>
-        <v>6928</v>
+        <v>8897</v>
       </c>
       <c r="V13" s="26">
         <f t="shared" si="4"/>
-        <v>7334</v>
+        <v>6874</v>
       </c>
       <c r="W13" s="26">
         <f t="shared" si="4"/>
-        <v>8825</v>
+        <v>9848</v>
       </c>
       <c r="X13" s="26">
         <f t="shared" si="4"/>
-        <v>6644</v>
+        <v>7674</v>
       </c>
       <c r="Y13" s="26">
         <f t="shared" si="4"/>
-        <v>9802</v>
+        <v>7191</v>
       </c>
       <c r="Z13" s="26">
         <f t="shared" si="4"/>
-        <v>7633</v>
+        <v>8311</v>
       </c>
       <c r="AA13" s="26">
         <f t="shared" si="4"/>
-        <v>6931</v>
+        <v>8946</v>
       </c>
       <c r="AB13" s="26">
         <f t="shared" si="4"/>
-        <v>6873</v>
+        <v>7192</v>
       </c>
       <c r="AC13" s="26">
         <f t="shared" si="4"/>
-        <v>6916</v>
+        <v>8533</v>
       </c>
       <c r="AD13" s="26">
         <f t="shared" si="4"/>
-        <v>7548</v>
+        <v>6587</v>
       </c>
       <c r="AE13" s="26">
         <f t="shared" si="4"/>
-        <v>5826</v>
+        <v>6629</v>
       </c>
       <c r="AF13" s="26">
         <f t="shared" si="4"/>
-        <v>5657</v>
+        <v>8802</v>
       </c>
       <c r="AG13" s="26">
         <f t="shared" si="4"/>
-        <v>9210</v>
+        <v>9852</v>
       </c>
       <c r="AH13" s="26">
         <f t="shared" si="4"/>
-        <v>9334</v>
+        <v>5993</v>
       </c>
       <c r="AI13" s="26">
         <f t="shared" si="4"/>
-        <v>6861</v>
+        <v>8308</v>
       </c>
       <c r="AJ13" s="26">
         <f t="shared" si="4"/>
-        <v>7869</v>
+        <v>6479</v>
       </c>
       <c r="AK13" s="26">
         <f t="shared" si="4"/>
-        <v>7476</v>
+        <v>9998</v>
       </c>
       <c r="AL13" s="26">
         <f t="shared" si="4"/>
-        <v>6308</v>
+        <v>7955</v>
       </c>
       <c r="AM13" s="26">
         <f t="shared" si="4"/>
-        <v>6598</v>
+        <v>9096</v>
       </c>
       <c r="AN13" s="26">
         <f t="shared" si="4"/>
-        <v>9401</v>
+        <v>9736</v>
       </c>
       <c r="AO13" s="26">
         <f t="shared" si="4"/>
-        <v>6265</v>
+        <v>8979</v>
       </c>
       <c r="AP13" s="26">
         <f t="shared" si="4"/>
-        <v>9023</v>
+        <v>9731</v>
       </c>
       <c r="AQ13" s="26">
         <f t="shared" si="4"/>
-        <v>7336</v>
+        <v>8218</v>
       </c>
       <c r="AR13" s="26">
         <f t="shared" si="4"/>
-        <v>5235</v>
+        <v>9860</v>
       </c>
       <c r="AS13" s="26">
         <f t="shared" si="4"/>
-        <v>9215</v>
+        <v>5555</v>
       </c>
       <c r="AT13" s="26">
         <f t="shared" si="4"/>
-        <v>6801</v>
+        <v>5134</v>
       </c>
       <c r="AU13" s="26">
         <f t="shared" si="4"/>
-        <v>8705</v>
+        <v>9516</v>
       </c>
       <c r="AV13" s="26">
         <f t="shared" si="4"/>
-        <v>8160</v>
+        <v>8137</v>
       </c>
       <c r="AW13" s="26">
         <f t="shared" si="4"/>
-        <v>7504</v>
+        <v>6783</v>
       </c>
       <c r="AX13" s="26">
         <f t="shared" si="4"/>
-        <v>5721</v>
+        <v>7567</v>
       </c>
       <c r="AY13" s="26">
         <f t="shared" si="4"/>
-        <v>9981</v>
+        <v>9929</v>
       </c>
       <c r="AZ13" s="26">
         <f t="shared" si="4"/>
-        <v>5370</v>
+        <v>7397</v>
       </c>
       <c r="BA13" s="26">
         <f t="shared" si="4"/>
-        <v>5625</v>
+        <v>6607</v>
       </c>
       <c r="BB13" s="26">
         <f t="shared" si="4"/>
-        <v>9571</v>
+        <v>8693</v>
       </c>
       <c r="BC13" s="26">
         <f t="shared" si="4"/>
-        <v>9094</v>
+        <v>5793</v>
       </c>
       <c r="BD13" s="26">
         <f t="shared" si="4"/>
-        <v>7637</v>
+        <v>8808</v>
       </c>
       <c r="BE13" s="26">
         <f t="shared" si="4"/>
-        <v>5080</v>
+        <v>9217</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -2418,211 +2419,211 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ref="F15:BE15" si="5">IF( $B13="Maximum", F13/F14 , IF( 100%-(F13-F14)/F14 &gt; 0, 100%-(F13-F14)/F14, 0) )</f>
-        <v>0.6502857143</v>
+        <v>0.9941428571</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6611428571</v>
+        <v>0.712</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8785714286</v>
+        <v>0.7001428571</v>
       </c>
       <c r="I15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9398571429</v>
+        <v>0.6091428571</v>
       </c>
       <c r="J15" s="29">
         <f t="shared" si="5"/>
-        <v>1.271857143</v>
+        <v>1.043428571</v>
       </c>
       <c r="K15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7687142857</v>
+        <v>1.059</v>
       </c>
       <c r="L15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9387142857</v>
+        <v>1.173428571</v>
       </c>
       <c r="M15" s="29">
         <f t="shared" si="5"/>
-        <v>1.141</v>
+        <v>0.9662857143</v>
       </c>
       <c r="N15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9814285714</v>
+        <v>1.115</v>
       </c>
       <c r="O15" s="29">
         <f t="shared" si="5"/>
-        <v>1.165428571</v>
+        <v>1.25</v>
       </c>
       <c r="P15" s="29">
         <f t="shared" si="5"/>
-        <v>1.079571429</v>
+        <v>0.6745714286</v>
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="5"/>
-        <v>1.049571429</v>
+        <v>0.9338571429</v>
       </c>
       <c r="R15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7184285714</v>
+        <v>0.5975714286</v>
       </c>
       <c r="S15" s="29">
         <f t="shared" si="5"/>
-        <v>1.113</v>
+        <v>0.7558571429</v>
       </c>
       <c r="T15" s="29">
         <f t="shared" si="5"/>
-        <v>1.102</v>
+        <v>0.8612857143</v>
       </c>
       <c r="U15" s="29">
         <f t="shared" si="5"/>
-        <v>1.010285714</v>
+        <v>0.729</v>
       </c>
       <c r="V15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9522857143</v>
+        <v>1.018</v>
       </c>
       <c r="W15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7392857143</v>
+        <v>0.5931428571</v>
       </c>
       <c r="X15" s="29">
         <f t="shared" si="5"/>
-        <v>1.050857143</v>
+        <v>0.9037142857</v>
       </c>
       <c r="Y15" s="29">
         <f t="shared" si="5"/>
-        <v>0.5997142857</v>
+        <v>0.9727142857</v>
       </c>
       <c r="Z15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9095714286</v>
+        <v>0.8127142857</v>
       </c>
       <c r="AA15" s="29">
         <f t="shared" si="5"/>
-        <v>1.009857143</v>
+        <v>0.722</v>
       </c>
       <c r="AB15" s="29">
         <f t="shared" si="5"/>
-        <v>1.018142857</v>
+        <v>0.9725714286</v>
       </c>
       <c r="AC15" s="29">
         <f t="shared" si="5"/>
-        <v>1.012</v>
+        <v>0.781</v>
       </c>
       <c r="AD15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9217142857</v>
+        <v>1.059</v>
       </c>
       <c r="AE15" s="29">
         <f t="shared" si="5"/>
-        <v>1.167714286</v>
+        <v>1.053</v>
       </c>
       <c r="AF15" s="29">
         <f t="shared" si="5"/>
-        <v>1.191857143</v>
+        <v>0.7425714286</v>
       </c>
       <c r="AG15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6842857143</v>
+        <v>0.5925714286</v>
       </c>
       <c r="AH15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6665714286</v>
+        <v>1.143857143</v>
       </c>
       <c r="AI15" s="29">
         <f t="shared" si="5"/>
-        <v>1.019857143</v>
+        <v>0.8131428571</v>
       </c>
       <c r="AJ15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8758571429</v>
+        <v>1.074428571</v>
       </c>
       <c r="AK15" s="29">
         <f t="shared" si="5"/>
-        <v>0.932</v>
+        <v>0.5717142857</v>
       </c>
       <c r="AL15" s="29">
         <f t="shared" si="5"/>
-        <v>1.098857143</v>
+        <v>0.8635714286</v>
       </c>
       <c r="AM15" s="29">
         <f t="shared" si="5"/>
-        <v>1.057428571</v>
+        <v>0.7005714286</v>
       </c>
       <c r="AN15" s="29">
         <f t="shared" si="5"/>
-        <v>0.657</v>
+        <v>0.6091428571</v>
       </c>
       <c r="AO15" s="29">
         <f t="shared" si="5"/>
-        <v>1.105</v>
+        <v>0.7172857143</v>
       </c>
       <c r="AP15" s="29">
         <f t="shared" si="5"/>
-        <v>0.711</v>
+        <v>0.6098571429</v>
       </c>
       <c r="AQ15" s="29">
         <f t="shared" si="5"/>
-        <v>0.952</v>
+        <v>0.826</v>
       </c>
       <c r="AR15" s="29">
         <f t="shared" si="5"/>
-        <v>1.252142857</v>
+        <v>0.5914285714</v>
       </c>
       <c r="AS15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6835714286</v>
+        <v>1.206428571</v>
       </c>
       <c r="AT15" s="29">
         <f t="shared" si="5"/>
-        <v>1.028428571</v>
+        <v>1.266571429</v>
       </c>
       <c r="AU15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7564285714</v>
+        <v>0.6405714286</v>
       </c>
       <c r="AV15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8342857143</v>
+        <v>0.8375714286</v>
       </c>
       <c r="AW15" s="29">
         <f t="shared" si="5"/>
-        <v>0.928</v>
+        <v>1.031</v>
       </c>
       <c r="AX15" s="29">
         <f t="shared" si="5"/>
-        <v>1.182714286</v>
+        <v>0.919</v>
       </c>
       <c r="AY15" s="29">
         <f t="shared" si="5"/>
-        <v>0.5741428571</v>
+        <v>0.5815714286</v>
       </c>
       <c r="AZ15" s="29">
         <f t="shared" si="5"/>
-        <v>1.232857143</v>
+        <v>0.9432857143</v>
       </c>
       <c r="BA15" s="29">
         <f t="shared" si="5"/>
-        <v>1.196428571</v>
+        <v>1.056142857</v>
       </c>
       <c r="BB15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6327142857</v>
+        <v>0.7581428571</v>
       </c>
       <c r="BC15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7008571429</v>
+        <v>1.172428571</v>
       </c>
       <c r="BD15" s="29">
         <f t="shared" si="5"/>
-        <v>0.909</v>
+        <v>0.7417142857</v>
       </c>
       <c r="BE15" s="29">
         <f t="shared" si="5"/>
-        <v>1.274285714</v>
+        <v>0.6832857143</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -4398,7 +4399,7 @@
       <c r="B30" s="19"/>
       <c r="C30" s="20">
         <f>SUMIFS(C31:C1013,A31:A1013,A31)</f>
-        <v>0.6844230769</v>
+        <v>0.7033269231</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="22"/>
@@ -4464,7 +4465,7 @@
       </c>
       <c r="C31" s="25">
         <f t="array" ref="C31">IF( B32="Short-Term", AVERAGE(F33:BE33)*B33, INDEX(F33:BE33, 1, COUNTA(F33:BE33))*B33 )</f>
-        <v>0.3298076923</v>
+        <v>0.3470384615</v>
       </c>
       <c r="D31" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B32=""Short-Term"", SPARKLINE(F33:BE33,IF(B31=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F33:BE33, 1, COUNTA(F33:BE33)) ,IF(B31=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -4475,95 +4476,95 @@
       </c>
       <c r="F31" s="26">
         <f t="shared" ref="F31:BE31" si="9">RANDBETWEEN(1,50)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G31" s="26">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H31" s="26">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J31" s="26">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="K31" s="26">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L31" s="26">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M31" s="26">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N31" s="26">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O31" s="26">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="P31" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q31" s="26">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="R31" s="26">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="S31" s="26">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="T31" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="U31" s="26">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="V31" s="26">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="W31" s="26">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X31" s="26">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Y31" s="26">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="Z31" s="26">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA31" s="26">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB31" s="26">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC31" s="26">
         <f t="shared" si="9"/>
@@ -4571,79 +4572,79 @@
       </c>
       <c r="AD31" s="26">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AE31" s="26">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="AF31" s="26">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AG31" s="26">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH31" s="26">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI31" s="26">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AJ31" s="26">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="AK31" s="26">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AL31" s="26">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AM31" s="26">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="AN31" s="26">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AO31" s="26">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AP31" s="26">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="AQ31" s="26">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR31" s="26">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AS31" s="26">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="AT31" s="26">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="AU31" s="26">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AV31" s="26">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="AW31" s="26">
         <f t="shared" si="9"/>
@@ -4651,15 +4652,15 @@
       </c>
       <c r="AX31" s="26">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="AY31" s="26">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="AZ31" s="26">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="BA31" s="26">
         <f t="shared" si="9"/>
@@ -4667,19 +4668,19 @@
       </c>
       <c r="BB31" s="26">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="BC31" s="26">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="BD31" s="26">
         <f t="shared" si="9"/>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="BE31" s="26">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -4858,95 +4859,95 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ref="F33:BE33" si="10">IF( $B31="Maximum", F31/F32 , IF( 100%-(F31-F32)/F32 &gt; 0, 100%-(F31-F32)/F32, 0) )</f>
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" si="10"/>
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="H33" s="29">
         <f t="shared" si="10"/>
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I33" s="29">
         <f t="shared" si="10"/>
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="J33" s="29">
         <f t="shared" si="10"/>
-        <v>0.26</v>
+        <v>0.96</v>
       </c>
       <c r="K33" s="29">
         <f t="shared" si="10"/>
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="L33" s="29">
         <f t="shared" si="10"/>
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="M33" s="29">
         <f t="shared" si="10"/>
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="N33" s="29">
         <f t="shared" si="10"/>
-        <v>0.28</v>
+        <v>0.94</v>
       </c>
       <c r="O33" s="29">
         <f t="shared" si="10"/>
-        <v>0.32</v>
+        <v>0.62</v>
       </c>
       <c r="P33" s="29">
         <f t="shared" si="10"/>
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="Q33" s="29">
         <f t="shared" si="10"/>
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="R33" s="29">
         <f t="shared" si="10"/>
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="S33" s="29">
         <f t="shared" si="10"/>
-        <v>0.7</v>
+        <v>0.06</v>
       </c>
       <c r="T33" s="29">
         <f t="shared" si="10"/>
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="U33" s="29">
         <f t="shared" si="10"/>
-        <v>0.9</v>
+        <v>0.06</v>
       </c>
       <c r="V33" s="29">
         <f t="shared" si="10"/>
-        <v>0.52</v>
+        <v>0.12</v>
       </c>
       <c r="W33" s="29">
         <f t="shared" si="10"/>
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="X33" s="29">
         <f t="shared" si="10"/>
-        <v>0.18</v>
+        <v>0.46</v>
       </c>
       <c r="Y33" s="29">
         <f t="shared" si="10"/>
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="Z33" s="29">
         <f t="shared" si="10"/>
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AA33" s="29">
         <f t="shared" si="10"/>
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="AB33" s="29">
         <f t="shared" si="10"/>
-        <v>0.56</v>
+        <v>0.5</v>
       </c>
       <c r="AC33" s="29">
         <f t="shared" si="10"/>
@@ -4954,79 +4955,79 @@
       </c>
       <c r="AD33" s="29">
         <f t="shared" si="10"/>
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AE33" s="29">
         <f t="shared" si="10"/>
-        <v>0.46</v>
+        <v>0.78</v>
       </c>
       <c r="AF33" s="29">
         <f t="shared" si="10"/>
-        <v>0.02</v>
+        <v>0.64</v>
       </c>
       <c r="AG33" s="29">
         <f t="shared" si="10"/>
-        <v>0.54</v>
+        <v>0.56</v>
       </c>
       <c r="AH33" s="29">
         <f t="shared" si="10"/>
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AI33" s="29">
         <f t="shared" si="10"/>
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="AJ33" s="29">
         <f t="shared" si="10"/>
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="AK33" s="29">
         <f t="shared" si="10"/>
-        <v>0.18</v>
+        <v>0.56</v>
       </c>
       <c r="AL33" s="29">
         <f t="shared" si="10"/>
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="AM33" s="29">
         <f t="shared" si="10"/>
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="AN33" s="29">
         <f t="shared" si="10"/>
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="AO33" s="29">
         <f t="shared" si="10"/>
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="AP33" s="29">
         <f t="shared" si="10"/>
-        <v>0.42</v>
+        <v>0.94</v>
       </c>
       <c r="AQ33" s="29">
         <f t="shared" si="10"/>
-        <v>0.82</v>
+        <v>0.58</v>
       </c>
       <c r="AR33" s="29">
         <f t="shared" si="10"/>
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="AS33" s="29">
         <f t="shared" si="10"/>
-        <v>0.28</v>
+        <v>0.78</v>
       </c>
       <c r="AT33" s="29">
         <f t="shared" si="10"/>
-        <v>0.54</v>
+        <v>0.14</v>
       </c>
       <c r="AU33" s="29">
         <f t="shared" si="10"/>
-        <v>0.06</v>
+        <v>0.4</v>
       </c>
       <c r="AV33" s="29">
         <f t="shared" si="10"/>
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="AW33" s="29">
         <f t="shared" si="10"/>
@@ -5034,15 +5035,15 @@
       </c>
       <c r="AX33" s="29">
         <f t="shared" si="10"/>
-        <v>0.28</v>
+        <v>0.62</v>
       </c>
       <c r="AY33" s="29">
         <f t="shared" si="10"/>
-        <v>0.1</v>
+        <v>0.86</v>
       </c>
       <c r="AZ33" s="29">
         <f t="shared" si="10"/>
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="BA33" s="29">
         <f t="shared" si="10"/>
@@ -5050,19 +5051,19 @@
       </c>
       <c r="BB33" s="29">
         <f t="shared" si="10"/>
-        <v>0.74</v>
+        <v>0.08</v>
       </c>
       <c r="BC33" s="29">
         <f t="shared" si="10"/>
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
       <c r="BD33" s="29">
         <f t="shared" si="10"/>
-        <v>0.84</v>
+        <v>0.44</v>
       </c>
       <c r="BE33" s="29">
         <f t="shared" si="10"/>
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -5074,7 +5075,7 @@
       </c>
       <c r="C34" s="25">
         <f t="array" ref="C34">IF( B35="Short-Term", AVERAGE(F36:BE36)*B36, INDEX(F36:BE36, 1, COUNTA(F36:BE36))*B36 )</f>
-        <v>0.02346153846</v>
+        <v>0.02513461538</v>
       </c>
       <c r="D34" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B35=""Short-Term"", SPARKLINE(F36:BE36,IF(B34=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F36:BE36, 1, COUNTA(F36:BE36)) ,IF(B34=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -5085,211 +5086,211 @@
       </c>
       <c r="F34" s="26">
         <f t="shared" ref="F34:BE34" si="11">RANDBETWEEN(1,50)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G34" s="26">
         <f t="shared" si="11"/>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H34" s="26">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J34" s="26">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K34" s="26">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="L34" s="26">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M34" s="26">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N34" s="26">
         <f t="shared" si="11"/>
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="O34" s="26">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P34" s="26">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="Q34" s="26">
         <f t="shared" si="11"/>
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="R34" s="26">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="S34" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="T34" s="26">
         <f t="shared" si="11"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="U34" s="26">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="V34" s="26">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="W34" s="26">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="X34" s="26">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y34" s="26">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Z34" s="26">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AA34" s="26">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AB34" s="26">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AC34" s="26">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AD34" s="26">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="AE34" s="26">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AF34" s="26">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG34" s="26">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH34" s="26">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AI34" s="26">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AJ34" s="26">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AK34" s="26">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="AL34" s="26">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AM34" s="26">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AN34" s="26">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AO34" s="26">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP34" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AQ34" s="26">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AR34" s="26">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="AS34" s="26">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AT34" s="26">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AU34" s="26">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AV34" s="26">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW34" s="26">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="AX34" s="26">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AY34" s="26">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AZ34" s="26">
         <f t="shared" si="11"/>
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="BA34" s="26">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="BB34" s="26">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="BC34" s="26">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="BD34" s="26">
         <f t="shared" si="11"/>
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="BE34" s="26">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -5468,211 +5469,211 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ref="F36:BE36" si="12">IF( $B34="Maximum", F34/F35 , IF( 100%-(F34-F35)/F35 &gt; 0, 100%-(F34-F35)/F35, 0) )</f>
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" si="12"/>
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="H36" s="29">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I36" s="29">
         <f t="shared" si="12"/>
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="J36" s="29">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="K36" s="29">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.03</v>
       </c>
       <c r="L36" s="29">
         <f t="shared" si="12"/>
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="M36" s="29">
         <f t="shared" si="12"/>
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
       <c r="N36" s="29">
         <f t="shared" si="12"/>
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="O36" s="29">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="P36" s="29">
         <f t="shared" si="12"/>
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="Q36" s="29">
         <f t="shared" si="12"/>
-        <v>0.49</v>
+        <v>0.11</v>
       </c>
       <c r="R36" s="29">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>0.41</v>
       </c>
       <c r="S36" s="29">
         <f t="shared" si="12"/>
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="T36" s="29">
         <f t="shared" si="12"/>
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="U36" s="29">
         <f t="shared" si="12"/>
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="V36" s="29">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="W36" s="29">
         <f t="shared" si="12"/>
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="X36" s="29">
         <f t="shared" si="12"/>
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="Y36" s="29">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="Z36" s="29">
         <f t="shared" si="12"/>
-        <v>0.22</v>
+        <v>0.46</v>
       </c>
       <c r="AA36" s="29">
         <f t="shared" si="12"/>
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="AB36" s="29">
         <f t="shared" si="12"/>
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="AC36" s="29">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="AD36" s="29">
         <f t="shared" si="12"/>
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="AE36" s="29">
         <f t="shared" si="12"/>
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="AF36" s="29">
         <f t="shared" si="12"/>
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AG36" s="29">
         <f t="shared" si="12"/>
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="AH36" s="29">
         <f t="shared" si="12"/>
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AI36" s="29">
         <f t="shared" si="12"/>
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
       <c r="AJ36" s="29">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="AK36" s="29">
         <f t="shared" si="12"/>
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="AL36" s="29">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="AM36" s="29">
         <f t="shared" si="12"/>
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="AN36" s="29">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="AO36" s="29">
         <f t="shared" si="12"/>
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AP36" s="29">
         <f t="shared" si="12"/>
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="AQ36" s="29">
         <f t="shared" si="12"/>
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR36" s="29">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="AS36" s="29">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="AT36" s="29">
         <f t="shared" si="12"/>
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="AU36" s="29">
         <f t="shared" si="12"/>
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="AV36" s="29">
         <f t="shared" si="12"/>
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AW36" s="29">
         <f t="shared" si="12"/>
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="AX36" s="29">
         <f t="shared" si="12"/>
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="AY36" s="29">
         <f t="shared" si="12"/>
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="AZ36" s="29">
         <f t="shared" si="12"/>
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
       <c r="BA36" s="29">
         <f t="shared" si="12"/>
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="BB36" s="29">
         <f t="shared" si="12"/>
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="BC36" s="29">
         <f t="shared" si="12"/>
-        <v>0.28</v>
+        <v>0.05</v>
       </c>
       <c r="BD36" s="29">
         <f t="shared" si="12"/>
-        <v>0.49</v>
+        <v>0.27</v>
       </c>
       <c r="BE36" s="29">
         <f t="shared" si="12"/>
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -11206,18 +11207,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:BE10 F13:BE13 F16:BE16 F19:BE19 F25:BE25 F31:BE31 F34:BE34 F37:BE37">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>F11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:BE10 F13:BE13 F16:BE16 F19:BE19 F25:BE25 F31:BE31 F34:BE34 F37:BE37">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND($B10="Maximum",F10&gt;=F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:BE10 F13:BE13 F16:BE16 F19:BE19 F25:BE25 F31:BE31 F34:BE34 F37:BE37">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND($B10="Minimum",F10&gt;=F11)</formula>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND($B10="Minimum",50%&gt;F12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:BE10 F13:BE13 F16:BE16 F19:BE19 F25:BE25 F31:BE31 F34:BE34 F37:BE37">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+      <formula>LEN(TRIM(F10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/templates/management/Balance Scorecard (BSC).xlsx
+++ b/templates/management/Balance Scorecard (BSC).xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Scorecard" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Divison" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Team" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="7f5DcVcPC6Ga8VqTnW/j4wrR4nIQDBf/IhJ8OgW0YJ4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="BERvaqtXSPBSGqlfiskO/Ggi+SOyyx2+IACiiYtFpsU="/>
     </ext>
   </extLst>
 </workbook>
@@ -121,8 +122,36 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B12">
+      <text>
+        <t xml:space="preserve">Weight
+======</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A14">
+      <text>
+        <t xml:space="preserve">The number of paper, note, or ideas brought by the team member.
+======</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B15">
+      <text>
+        <t xml:space="preserve">Weight
+======</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
   <si>
     <t>PT. Telkom Indonesia (Persero) Tbk., atau Telkom, adalah Badan Usaha Milik Negara (BUMN) yang bergerak di bidang jasa layanan teknologi informasi dan komunikasi (TIK) dan jaringan telekomunikasi di Indonesia.</t>
   </si>
@@ -230,6 +259,15 @@
   </si>
   <si>
     <t>Total bugs in backlog</t>
+  </si>
+  <si>
+    <t>William Tanuwijaya</t>
+  </si>
+  <si>
+    <t>Working Hours</t>
+  </si>
+  <si>
+    <t>Research Contributions</t>
   </si>
 </sst>
 </file>
@@ -434,6 +472,39 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2143125" cy="523875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -689,211 +760,211 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4">
         <f t="shared" ref="F1:BE1" si="1">AVERAGEIFS(F9:F1013,$E9:$E1013,"% Target")</f>
-        <v>0.4452685879</v>
+        <v>0.4638648736</v>
       </c>
       <c r="G1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4422457692</v>
+        <v>0.4212501978</v>
       </c>
       <c r="H1" s="4">
         <f t="shared" si="1"/>
-        <v>0.3023463571</v>
+        <v>0.4243593571</v>
       </c>
       <c r="I1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5258767033</v>
+        <v>0.5773431319</v>
       </c>
       <c r="J1" s="4">
         <f t="shared" si="1"/>
-        <v>0.643591456</v>
+        <v>0.5991617418</v>
       </c>
       <c r="K1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4728619231</v>
+        <v>0.5606149231</v>
       </c>
       <c r="L1" s="4">
         <f t="shared" si="1"/>
-        <v>0.521355533</v>
+        <v>0.4173091044</v>
       </c>
       <c r="M1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5647217143</v>
+        <v>0.497349</v>
       </c>
       <c r="N1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5485270385</v>
+        <v>0.4693921813</v>
       </c>
       <c r="O1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5968060769</v>
+        <v>0.5918385055</v>
       </c>
       <c r="P1" s="4">
         <f t="shared" si="1"/>
-        <v>0.519619544</v>
+        <v>0.598028544</v>
       </c>
       <c r="Q1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4830432967</v>
+        <v>0.5604934396</v>
       </c>
       <c r="R1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4530146209</v>
+        <v>0.6210129066</v>
       </c>
       <c r="S1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4581923736</v>
+        <v>0.5318173736</v>
       </c>
       <c r="T1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5480889835</v>
+        <v>0.5642386978</v>
       </c>
       <c r="U1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5566083077</v>
+        <v>0.6157094505</v>
       </c>
       <c r="V1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6282593462</v>
+        <v>0.6886800604</v>
       </c>
       <c r="W1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5705382418</v>
+        <v>0.6462400989</v>
       </c>
       <c r="X1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6166417088</v>
+        <v>0.5834614231</v>
       </c>
       <c r="Y1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6716047473</v>
+        <v>0.5786341758</v>
       </c>
       <c r="Z1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6892907857</v>
+        <v>0.7124637857</v>
       </c>
       <c r="AA1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6739615385</v>
+        <v>0.6957811099</v>
       </c>
       <c r="AB1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7963160055</v>
+        <v>0.6757025769</v>
       </c>
       <c r="AC1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6544556154</v>
+        <v>0.717163044</v>
       </c>
       <c r="AD1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7866706538</v>
+        <v>0.6517257967</v>
       </c>
       <c r="AE1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7877746923</v>
+        <v>0.7998044066</v>
       </c>
       <c r="AF1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6972191593</v>
+        <v>0.8329143022</v>
       </c>
       <c r="AG1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7612441978</v>
+        <v>0.7211344835</v>
       </c>
       <c r="AH1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8846829505</v>
+        <v>0.8532269505</v>
       </c>
       <c r="AI1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8387987033</v>
+        <v>0.8721604176</v>
       </c>
       <c r="AJ1" s="4">
         <f t="shared" si="1"/>
-        <v>0.806668456</v>
+        <v>0.8413643132</v>
       </c>
       <c r="AK1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7493352088</v>
+        <v>0.6858274945</v>
       </c>
       <c r="AL1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8758983901</v>
+        <v>0.8837183901</v>
       </c>
       <c r="AM1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8759904286</v>
+        <v>0.8655228571</v>
       </c>
       <c r="AN1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8141698956</v>
+        <v>0.9152473242</v>
       </c>
       <c r="AO1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8164377912</v>
+        <v>0.8816346484</v>
       </c>
       <c r="AP1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8841892582</v>
+        <v>0.914159544</v>
       </c>
       <c r="AQ1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8923211538</v>
+        <v>0.817694011</v>
       </c>
       <c r="AR1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8003207637</v>
+        <v>0.9022257637</v>
       </c>
       <c r="AS1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9983748022</v>
+        <v>0.9331478022</v>
       </c>
       <c r="AT1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9738076978</v>
+        <v>0.9258779835</v>
       </c>
       <c r="AU1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8872597363</v>
+        <v>0.9565327363</v>
       </c>
       <c r="AV1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9456257747</v>
+        <v>0.9854900604</v>
       </c>
       <c r="AW1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9609923846</v>
+        <v>0.9118253846</v>
       </c>
       <c r="AX1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9905724231</v>
+        <v>0.8783738516</v>
       </c>
       <c r="AY1" s="4">
         <f t="shared" si="1"/>
-        <v>1.03586789</v>
+        <v>0.988050033</v>
       </c>
       <c r="AZ1" s="4">
         <f t="shared" si="1"/>
-        <v>1.093406214</v>
+        <v>1.109258357</v>
       </c>
       <c r="BA1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9525403956</v>
+        <v>0.9573701099</v>
       </c>
       <c r="BB1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9689434341</v>
+        <v>1.048797005</v>
       </c>
       <c r="BC1" s="4">
         <f t="shared" si="1"/>
-        <v>1.081434187</v>
+        <v>1.078631901</v>
       </c>
       <c r="BD1" s="4">
         <f t="shared" si="1"/>
-        <v>1.00382794</v>
+        <v>1.044837082</v>
       </c>
       <c r="BE1" s="4">
         <f t="shared" si="1"/>
-        <v>1.069283407</v>
+        <v>1.079387407</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -1349,7 +1420,7 @@
       <c r="B9" s="19"/>
       <c r="C9" s="20">
         <f>SUMIFS(C10:C1013,A10:A1013,A10)</f>
-        <v>0.885016633</v>
+        <v>0.8890123978</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
@@ -1415,7 +1486,7 @@
       </c>
       <c r="C10" s="25">
         <f t="array" ref="C10">IF( B11="Short-Term", AVERAGE(F12:BE12)*B12, INDEX(F12:BE12, 1, COUNTA(F12:BE12))*B12 )</f>
-        <v>0.3030303692</v>
+        <v>0.2994678923</v>
       </c>
       <c r="D10" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B11=""Short-Term"", SPARKLINE(F12:BE12,IF(B10=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F12:BE12, 1, COUNTA(F12:BE12)) ,IF(B10=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -1426,211 +1497,211 @@
       </c>
       <c r="F10" s="26">
         <f t="shared" ref="F10:BE10" si="2">RANDBETWEEN(100000,150000)</f>
-        <v>127419</v>
+        <v>148176</v>
       </c>
       <c r="G10" s="26">
         <f t="shared" si="2"/>
-        <v>104640</v>
+        <v>100948</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="2"/>
-        <v>113891</v>
+        <v>100404</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="2"/>
-        <v>133580</v>
+        <v>147475</v>
       </c>
       <c r="J10" s="26">
         <f t="shared" si="2"/>
-        <v>149485</v>
+        <v>127591</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="2"/>
-        <v>149285</v>
+        <v>129538</v>
       </c>
       <c r="L10" s="26">
         <f t="shared" si="2"/>
-        <v>115951</v>
+        <v>105976</v>
       </c>
       <c r="M10" s="26">
         <f t="shared" si="2"/>
-        <v>136436</v>
+        <v>149974</v>
       </c>
       <c r="N10" s="26">
         <f t="shared" si="2"/>
-        <v>129128</v>
+        <v>119761</v>
       </c>
       <c r="O10" s="26">
         <f t="shared" si="2"/>
-        <v>116758</v>
+        <v>113969</v>
       </c>
       <c r="P10" s="26">
         <f t="shared" si="2"/>
-        <v>116476</v>
+        <v>134260</v>
       </c>
       <c r="Q10" s="26">
         <f t="shared" si="2"/>
-        <v>102465</v>
+        <v>113433</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="2"/>
-        <v>125698</v>
+        <v>139107</v>
       </c>
       <c r="S10" s="26">
         <f t="shared" si="2"/>
-        <v>111066</v>
+        <v>113941</v>
       </c>
       <c r="T10" s="26">
         <f t="shared" si="2"/>
-        <v>145260</v>
+        <v>121249</v>
       </c>
       <c r="U10" s="26">
         <f t="shared" si="2"/>
-        <v>125291</v>
+        <v>121410</v>
       </c>
       <c r="V10" s="26">
         <f t="shared" si="2"/>
-        <v>108293</v>
+        <v>143553</v>
       </c>
       <c r="W10" s="26">
         <f t="shared" si="2"/>
-        <v>106155</v>
+        <v>145589</v>
       </c>
       <c r="X10" s="26">
         <f t="shared" si="2"/>
-        <v>120913</v>
+        <v>115822</v>
       </c>
       <c r="Y10" s="26">
         <f t="shared" si="2"/>
-        <v>134727</v>
+        <v>124810</v>
       </c>
       <c r="Z10" s="26">
         <f t="shared" si="2"/>
-        <v>141139</v>
+        <v>141062</v>
       </c>
       <c r="AA10" s="26">
         <f t="shared" si="2"/>
-        <v>104625</v>
+        <v>115516</v>
       </c>
       <c r="AB10" s="26">
         <f t="shared" si="2"/>
-        <v>148134</v>
+        <v>119842</v>
       </c>
       <c r="AC10" s="26">
         <f t="shared" si="2"/>
-        <v>105196</v>
+        <v>100207</v>
       </c>
       <c r="AD10" s="26">
         <f t="shared" si="2"/>
-        <v>133887</v>
+        <v>110085</v>
       </c>
       <c r="AE10" s="26">
         <f t="shared" si="2"/>
-        <v>136967</v>
+        <v>145711</v>
       </c>
       <c r="AF10" s="26">
         <f t="shared" si="2"/>
-        <v>122691</v>
+        <v>132779</v>
       </c>
       <c r="AG10" s="26">
         <f t="shared" si="2"/>
-        <v>130442</v>
+        <v>127243</v>
       </c>
       <c r="AH10" s="26">
         <f t="shared" si="2"/>
-        <v>142446</v>
+        <v>116740</v>
       </c>
       <c r="AI10" s="26">
         <f t="shared" si="2"/>
-        <v>135377</v>
+        <v>122453</v>
       </c>
       <c r="AJ10" s="26">
         <f t="shared" si="2"/>
-        <v>126812</v>
+        <v>147240</v>
       </c>
       <c r="AK10" s="26">
         <f t="shared" si="2"/>
-        <v>106044</v>
+        <v>108572</v>
       </c>
       <c r="AL10" s="26">
         <f t="shared" si="2"/>
-        <v>147351</v>
+        <v>125046</v>
       </c>
       <c r="AM10" s="26">
         <f t="shared" si="2"/>
-        <v>144044</v>
+        <v>147505</v>
       </c>
       <c r="AN10" s="26">
         <f t="shared" si="2"/>
-        <v>139878</v>
+        <v>109259</v>
       </c>
       <c r="AO10" s="26">
         <f t="shared" si="2"/>
-        <v>121104</v>
+        <v>111158</v>
       </c>
       <c r="AP10" s="26">
         <f t="shared" si="2"/>
-        <v>142260</v>
+        <v>130391</v>
       </c>
       <c r="AQ10" s="26">
         <f t="shared" si="2"/>
-        <v>132100</v>
+        <v>147830</v>
       </c>
       <c r="AR10" s="26">
         <f t="shared" si="2"/>
-        <v>120647</v>
+        <v>119927</v>
       </c>
       <c r="AS10" s="26">
         <f t="shared" si="2"/>
-        <v>121802</v>
+        <v>120825</v>
       </c>
       <c r="AT10" s="26">
         <f t="shared" si="2"/>
-        <v>134693</v>
+        <v>100549</v>
       </c>
       <c r="AU10" s="26">
         <f t="shared" si="2"/>
-        <v>106371</v>
+        <v>110894</v>
       </c>
       <c r="AV10" s="26">
         <f t="shared" si="2"/>
-        <v>137588</v>
+        <v>112988</v>
       </c>
       <c r="AW10" s="26">
         <f t="shared" si="2"/>
-        <v>122502</v>
+        <v>122960</v>
       </c>
       <c r="AX10" s="26">
         <f t="shared" si="2"/>
-        <v>144808</v>
+        <v>133038</v>
       </c>
       <c r="AY10" s="26">
         <f t="shared" si="2"/>
-        <v>128508</v>
+        <v>106208</v>
       </c>
       <c r="AZ10" s="26">
         <f t="shared" si="2"/>
-        <v>133308</v>
+        <v>146428</v>
       </c>
       <c r="BA10" s="26">
         <f t="shared" si="2"/>
-        <v>104561</v>
+        <v>100980</v>
       </c>
       <c r="BB10" s="26">
         <f t="shared" si="2"/>
-        <v>135690</v>
+        <v>132365</v>
       </c>
       <c r="BC10" s="26">
         <f t="shared" si="2"/>
-        <v>125121</v>
+        <v>130158</v>
       </c>
       <c r="BD10" s="26">
         <f t="shared" si="2"/>
-        <v>107580</v>
+        <v>144732</v>
       </c>
       <c r="BE10" s="26">
         <f t="shared" si="2"/>
-        <v>109065</v>
+        <v>130794</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1809,211 +1880,211 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ref="F12:BE12" si="3">IF( $B10="Maximum", F10/F11 , IF( 100%-(F10-F11)/F11 &gt; 0, 100%-(F10-F11)/F11, 0) )</f>
-        <v>1.019352</v>
+        <v>1.185408</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="3"/>
-        <v>0.83712</v>
+        <v>0.807584</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" si="3"/>
-        <v>0.911128</v>
+        <v>0.803232</v>
       </c>
       <c r="I12" s="29">
         <f t="shared" si="3"/>
-        <v>1.06864</v>
+        <v>1.1798</v>
       </c>
       <c r="J12" s="29">
         <f t="shared" si="3"/>
-        <v>1.19588</v>
+        <v>1.020728</v>
       </c>
       <c r="K12" s="29">
         <f t="shared" si="3"/>
-        <v>1.19428</v>
+        <v>1.036304</v>
       </c>
       <c r="L12" s="29">
         <f t="shared" si="3"/>
-        <v>0.927608</v>
+        <v>0.847808</v>
       </c>
       <c r="M12" s="29">
         <f t="shared" si="3"/>
-        <v>1.091488</v>
+        <v>1.199792</v>
       </c>
       <c r="N12" s="29">
         <f t="shared" si="3"/>
-        <v>1.033024</v>
+        <v>0.958088</v>
       </c>
       <c r="O12" s="29">
         <f t="shared" si="3"/>
-        <v>0.934064</v>
+        <v>0.911752</v>
       </c>
       <c r="P12" s="29">
         <f t="shared" si="3"/>
-        <v>0.931808</v>
+        <v>1.07408</v>
       </c>
       <c r="Q12" s="29">
         <f t="shared" si="3"/>
-        <v>0.81972</v>
+        <v>0.907464</v>
       </c>
       <c r="R12" s="29">
         <f t="shared" si="3"/>
-        <v>1.005584</v>
+        <v>1.112856</v>
       </c>
       <c r="S12" s="29">
         <f t="shared" si="3"/>
-        <v>0.888528</v>
+        <v>0.911528</v>
       </c>
       <c r="T12" s="29">
         <f t="shared" si="3"/>
-        <v>1.16208</v>
+        <v>0.969992</v>
       </c>
       <c r="U12" s="29">
         <f t="shared" si="3"/>
-        <v>1.002328</v>
+        <v>0.97128</v>
       </c>
       <c r="V12" s="29">
         <f t="shared" si="3"/>
-        <v>0.866344</v>
+        <v>1.148424</v>
       </c>
       <c r="W12" s="29">
         <f t="shared" si="3"/>
-        <v>0.84924</v>
+        <v>1.164712</v>
       </c>
       <c r="X12" s="29">
         <f t="shared" si="3"/>
-        <v>0.967304</v>
+        <v>0.926576</v>
       </c>
       <c r="Y12" s="29">
         <f t="shared" si="3"/>
-        <v>1.077816</v>
+        <v>0.99848</v>
       </c>
       <c r="Z12" s="29">
         <f t="shared" si="3"/>
-        <v>1.129112</v>
+        <v>1.128496</v>
       </c>
       <c r="AA12" s="29">
         <f t="shared" si="3"/>
-        <v>0.837</v>
+        <v>0.924128</v>
       </c>
       <c r="AB12" s="29">
         <f t="shared" si="3"/>
-        <v>1.185072</v>
+        <v>0.958736</v>
       </c>
       <c r="AC12" s="29">
         <f t="shared" si="3"/>
-        <v>0.841568</v>
+        <v>0.801656</v>
       </c>
       <c r="AD12" s="29">
         <f t="shared" si="3"/>
-        <v>1.071096</v>
+        <v>0.88068</v>
       </c>
       <c r="AE12" s="29">
         <f t="shared" si="3"/>
-        <v>1.095736</v>
+        <v>1.165688</v>
       </c>
       <c r="AF12" s="29">
         <f t="shared" si="3"/>
-        <v>0.981528</v>
+        <v>1.062232</v>
       </c>
       <c r="AG12" s="29">
         <f t="shared" si="3"/>
-        <v>1.043536</v>
+        <v>1.017944</v>
       </c>
       <c r="AH12" s="29">
         <f t="shared" si="3"/>
-        <v>1.139568</v>
+        <v>0.93392</v>
       </c>
       <c r="AI12" s="29">
         <f t="shared" si="3"/>
-        <v>1.083016</v>
+        <v>0.979624</v>
       </c>
       <c r="AJ12" s="29">
         <f t="shared" si="3"/>
-        <v>1.014496</v>
+        <v>1.17792</v>
       </c>
       <c r="AK12" s="29">
         <f t="shared" si="3"/>
-        <v>0.848352</v>
+        <v>0.868576</v>
       </c>
       <c r="AL12" s="29">
         <f t="shared" si="3"/>
-        <v>1.178808</v>
+        <v>1.000368</v>
       </c>
       <c r="AM12" s="29">
         <f t="shared" si="3"/>
-        <v>1.152352</v>
+        <v>1.18004</v>
       </c>
       <c r="AN12" s="29">
         <f t="shared" si="3"/>
-        <v>1.119024</v>
+        <v>0.874072</v>
       </c>
       <c r="AO12" s="29">
         <f t="shared" si="3"/>
-        <v>0.968832</v>
+        <v>0.889264</v>
       </c>
       <c r="AP12" s="29">
         <f t="shared" si="3"/>
-        <v>1.13808</v>
+        <v>1.043128</v>
       </c>
       <c r="AQ12" s="29">
         <f t="shared" si="3"/>
-        <v>1.0568</v>
+        <v>1.18264</v>
       </c>
       <c r="AR12" s="29">
         <f t="shared" si="3"/>
-        <v>0.965176</v>
+        <v>0.959416</v>
       </c>
       <c r="AS12" s="29">
         <f t="shared" si="3"/>
-        <v>0.974416</v>
+        <v>0.9666</v>
       </c>
       <c r="AT12" s="29">
         <f t="shared" si="3"/>
-        <v>1.077544</v>
+        <v>0.804392</v>
       </c>
       <c r="AU12" s="29">
         <f t="shared" si="3"/>
-        <v>0.850968</v>
+        <v>0.887152</v>
       </c>
       <c r="AV12" s="29">
         <f t="shared" si="3"/>
-        <v>1.100704</v>
+        <v>0.903904</v>
       </c>
       <c r="AW12" s="29">
         <f t="shared" si="3"/>
-        <v>0.980016</v>
+        <v>0.98368</v>
       </c>
       <c r="AX12" s="29">
         <f t="shared" si="3"/>
-        <v>1.158464</v>
+        <v>1.064304</v>
       </c>
       <c r="AY12" s="29">
         <f t="shared" si="3"/>
-        <v>1.028064</v>
+        <v>0.849664</v>
       </c>
       <c r="AZ12" s="29">
         <f t="shared" si="3"/>
-        <v>1.066464</v>
+        <v>1.171424</v>
       </c>
       <c r="BA12" s="29">
         <f t="shared" si="3"/>
-        <v>0.836488</v>
+        <v>0.80784</v>
       </c>
       <c r="BB12" s="29">
         <f t="shared" si="3"/>
-        <v>1.08552</v>
+        <v>1.05892</v>
       </c>
       <c r="BC12" s="29">
         <f t="shared" si="3"/>
-        <v>1.000968</v>
+        <v>1.041264</v>
       </c>
       <c r="BD12" s="29">
         <f t="shared" si="3"/>
-        <v>0.86064</v>
+        <v>1.157856</v>
       </c>
       <c r="BE12" s="29">
         <f t="shared" si="3"/>
-        <v>0.87252</v>
+        <v>1.046352</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -2025,7 +2096,7 @@
       </c>
       <c r="C13" s="25">
         <f t="array" ref="C13">IF( B14="Short-Term", AVERAGE(F15:BE15)*B15, INDEX(F15:BE15, 1, COUNTA(F15:BE15))*B15 )</f>
-        <v>0.1721401099</v>
+        <v>0.1796983516</v>
       </c>
       <c r="D13" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B14=""Short-Term"", SPARKLINE(F15:BE15,IF(B13=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F15:BE15, 1, COUNTA(F15:BE15)) ,IF(B13=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -2036,211 +2107,211 @@
       </c>
       <c r="F13" s="26">
         <f t="shared" ref="F13:BE13" si="4">RANDBETWEEN(5000,10000)</f>
-        <v>7041</v>
+        <v>7582</v>
       </c>
       <c r="G13" s="26">
         <f t="shared" si="4"/>
-        <v>9016</v>
+        <v>7045</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="4"/>
-        <v>9099</v>
+        <v>7251</v>
       </c>
       <c r="I13" s="26">
         <f t="shared" si="4"/>
-        <v>9736</v>
+        <v>9382</v>
       </c>
       <c r="J13" s="26">
         <f t="shared" si="4"/>
-        <v>6696</v>
+        <v>7188</v>
       </c>
       <c r="K13" s="26">
         <f t="shared" si="4"/>
-        <v>6587</v>
+        <v>7847</v>
       </c>
       <c r="L13" s="26">
         <f t="shared" si="4"/>
-        <v>5786</v>
+        <v>5944</v>
       </c>
       <c r="M13" s="26">
         <f t="shared" si="4"/>
-        <v>7236</v>
+        <v>8337</v>
       </c>
       <c r="N13" s="26">
         <f t="shared" si="4"/>
-        <v>6195</v>
+        <v>7092</v>
       </c>
       <c r="O13" s="26">
         <f t="shared" si="4"/>
-        <v>5250</v>
+        <v>6282</v>
       </c>
       <c r="P13" s="26">
         <f t="shared" si="4"/>
-        <v>9278</v>
+        <v>8123</v>
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="4"/>
-        <v>7463</v>
+        <v>8920</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="4"/>
-        <v>9817</v>
+        <v>6410</v>
       </c>
       <c r="S13" s="26">
         <f t="shared" si="4"/>
-        <v>8709</v>
+        <v>7477</v>
       </c>
       <c r="T13" s="26">
         <f t="shared" si="4"/>
-        <v>7971</v>
+        <v>8102</v>
       </c>
       <c r="U13" s="26">
         <f t="shared" si="4"/>
-        <v>8897</v>
+        <v>6280</v>
       </c>
       <c r="V13" s="26">
         <f t="shared" si="4"/>
-        <v>6874</v>
+        <v>5255</v>
       </c>
       <c r="W13" s="26">
         <f t="shared" si="4"/>
-        <v>9848</v>
+        <v>9707</v>
       </c>
       <c r="X13" s="26">
         <f t="shared" si="4"/>
-        <v>7674</v>
+        <v>9107</v>
       </c>
       <c r="Y13" s="26">
         <f t="shared" si="4"/>
-        <v>7191</v>
+        <v>9182</v>
       </c>
       <c r="Z13" s="26">
         <f t="shared" si="4"/>
-        <v>8311</v>
+        <v>8549</v>
       </c>
       <c r="AA13" s="26">
         <f t="shared" si="4"/>
-        <v>8946</v>
+        <v>7074</v>
       </c>
       <c r="AB13" s="26">
         <f t="shared" si="4"/>
-        <v>7192</v>
+        <v>8512</v>
       </c>
       <c r="AC13" s="26">
         <f t="shared" si="4"/>
-        <v>8533</v>
+        <v>9502</v>
       </c>
       <c r="AD13" s="26">
         <f t="shared" si="4"/>
-        <v>6587</v>
+        <v>5321</v>
       </c>
       <c r="AE13" s="26">
         <f t="shared" si="4"/>
-        <v>6629</v>
+        <v>5045</v>
       </c>
       <c r="AF13" s="26">
         <f t="shared" si="4"/>
-        <v>8802</v>
+        <v>5758</v>
       </c>
       <c r="AG13" s="26">
         <f t="shared" si="4"/>
-        <v>9852</v>
+        <v>9119</v>
       </c>
       <c r="AH13" s="26">
         <f t="shared" si="4"/>
-        <v>5993</v>
+        <v>7785</v>
       </c>
       <c r="AI13" s="26">
         <f t="shared" si="4"/>
-        <v>8308</v>
+        <v>6836</v>
       </c>
       <c r="AJ13" s="26">
         <f t="shared" si="4"/>
-        <v>6479</v>
+        <v>8690</v>
       </c>
       <c r="AK13" s="26">
         <f t="shared" si="4"/>
-        <v>9998</v>
+        <v>9356</v>
       </c>
       <c r="AL13" s="26">
         <f t="shared" si="4"/>
-        <v>7955</v>
+        <v>7248</v>
       </c>
       <c r="AM13" s="26">
         <f t="shared" si="4"/>
-        <v>9096</v>
+        <v>5746</v>
       </c>
       <c r="AN13" s="26">
         <f t="shared" si="4"/>
-        <v>9736</v>
+        <v>9711</v>
       </c>
       <c r="AO13" s="26">
         <f t="shared" si="4"/>
-        <v>8979</v>
+        <v>8901</v>
       </c>
       <c r="AP13" s="26">
         <f t="shared" si="4"/>
-        <v>9731</v>
+        <v>8718</v>
       </c>
       <c r="AQ13" s="26">
         <f t="shared" si="4"/>
-        <v>8218</v>
+        <v>9078</v>
       </c>
       <c r="AR13" s="26">
         <f t="shared" si="4"/>
-        <v>9860</v>
+        <v>8313</v>
       </c>
       <c r="AS13" s="26">
         <f t="shared" si="4"/>
-        <v>5555</v>
+        <v>7543</v>
       </c>
       <c r="AT13" s="26">
         <f t="shared" si="4"/>
-        <v>5134</v>
+        <v>7866</v>
       </c>
       <c r="AU13" s="26">
         <f t="shared" si="4"/>
-        <v>9516</v>
+        <v>7920</v>
       </c>
       <c r="AV13" s="26">
         <f t="shared" si="4"/>
-        <v>8137</v>
+        <v>6277</v>
       </c>
       <c r="AW13" s="26">
         <f t="shared" si="4"/>
-        <v>6783</v>
+        <v>5362</v>
       </c>
       <c r="AX13" s="26">
         <f t="shared" si="4"/>
-        <v>7567</v>
+        <v>7871</v>
       </c>
       <c r="AY13" s="26">
         <f t="shared" si="4"/>
-        <v>9929</v>
+        <v>9188</v>
       </c>
       <c r="AZ13" s="26">
         <f t="shared" si="4"/>
-        <v>7397</v>
+        <v>6054</v>
       </c>
       <c r="BA13" s="26">
         <f t="shared" si="4"/>
-        <v>6607</v>
+        <v>9986</v>
       </c>
       <c r="BB13" s="26">
         <f t="shared" si="4"/>
-        <v>8693</v>
+        <v>9565</v>
       </c>
       <c r="BC13" s="26">
         <f t="shared" si="4"/>
-        <v>5793</v>
+        <v>6512</v>
       </c>
       <c r="BD13" s="26">
         <f t="shared" si="4"/>
-        <v>8808</v>
+        <v>6632</v>
       </c>
       <c r="BE13" s="26">
         <f t="shared" si="4"/>
-        <v>9217</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -2419,211 +2490,211 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ref="F15:BE15" si="5">IF( $B13="Maximum", F13/F14 , IF( 100%-(F13-F14)/F14 &gt; 0, 100%-(F13-F14)/F14, 0) )</f>
-        <v>0.9941428571</v>
+        <v>0.9168571429</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="5"/>
-        <v>0.712</v>
+        <v>0.9935714286</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7001428571</v>
+        <v>0.9641428571</v>
       </c>
       <c r="I15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6091428571</v>
+        <v>0.6597142857</v>
       </c>
       <c r="J15" s="29">
         <f t="shared" si="5"/>
-        <v>1.043428571</v>
+        <v>0.9731428571</v>
       </c>
       <c r="K15" s="29">
         <f t="shared" si="5"/>
-        <v>1.059</v>
+        <v>0.879</v>
       </c>
       <c r="L15" s="29">
         <f t="shared" si="5"/>
-        <v>1.173428571</v>
+        <v>1.150857143</v>
       </c>
       <c r="M15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9662857143</v>
+        <v>0.809</v>
       </c>
       <c r="N15" s="29">
         <f t="shared" si="5"/>
-        <v>1.115</v>
+        <v>0.9868571429</v>
       </c>
       <c r="O15" s="29">
         <f t="shared" si="5"/>
-        <v>1.25</v>
+        <v>1.102571429</v>
       </c>
       <c r="P15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6745714286</v>
+        <v>0.8395714286</v>
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9338571429</v>
+        <v>0.7257142857</v>
       </c>
       <c r="R15" s="29">
         <f t="shared" si="5"/>
-        <v>0.5975714286</v>
+        <v>1.084285714</v>
       </c>
       <c r="S15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7558571429</v>
+        <v>0.9318571429</v>
       </c>
       <c r="T15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8612857143</v>
+        <v>0.8425714286</v>
       </c>
       <c r="U15" s="29">
         <f t="shared" si="5"/>
-        <v>0.729</v>
+        <v>1.102857143</v>
       </c>
       <c r="V15" s="29">
         <f t="shared" si="5"/>
-        <v>1.018</v>
+        <v>1.249285714</v>
       </c>
       <c r="W15" s="29">
         <f t="shared" si="5"/>
-        <v>0.5931428571</v>
+        <v>0.6132857143</v>
       </c>
       <c r="X15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9037142857</v>
+        <v>0.699</v>
       </c>
       <c r="Y15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9727142857</v>
+        <v>0.6882857143</v>
       </c>
       <c r="Z15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8127142857</v>
+        <v>0.7787142857</v>
       </c>
       <c r="AA15" s="29">
         <f t="shared" si="5"/>
-        <v>0.722</v>
+        <v>0.9894285714</v>
       </c>
       <c r="AB15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9725714286</v>
+        <v>0.784</v>
       </c>
       <c r="AC15" s="29">
         <f t="shared" si="5"/>
-        <v>0.781</v>
+        <v>0.6425714286</v>
       </c>
       <c r="AD15" s="29">
         <f t="shared" si="5"/>
-        <v>1.059</v>
+        <v>1.239857143</v>
       </c>
       <c r="AE15" s="29">
         <f t="shared" si="5"/>
-        <v>1.053</v>
+        <v>1.279285714</v>
       </c>
       <c r="AF15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7425714286</v>
+        <v>1.177428571</v>
       </c>
       <c r="AG15" s="29">
         <f t="shared" si="5"/>
-        <v>0.5925714286</v>
+        <v>0.6972857143</v>
       </c>
       <c r="AH15" s="29">
         <f t="shared" si="5"/>
-        <v>1.143857143</v>
+        <v>0.8878571429</v>
       </c>
       <c r="AI15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8131428571</v>
+        <v>1.023428571</v>
       </c>
       <c r="AJ15" s="29">
         <f t="shared" si="5"/>
-        <v>1.074428571</v>
+        <v>0.7585714286</v>
       </c>
       <c r="AK15" s="29">
         <f t="shared" si="5"/>
-        <v>0.5717142857</v>
+        <v>0.6634285714</v>
       </c>
       <c r="AL15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8635714286</v>
+        <v>0.9645714286</v>
       </c>
       <c r="AM15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7005714286</v>
+        <v>1.179142857</v>
       </c>
       <c r="AN15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6091428571</v>
+        <v>0.6127142857</v>
       </c>
       <c r="AO15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7172857143</v>
+        <v>0.7284285714</v>
       </c>
       <c r="AP15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6098571429</v>
+        <v>0.7545714286</v>
       </c>
       <c r="AQ15" s="29">
         <f t="shared" si="5"/>
-        <v>0.826</v>
+        <v>0.7031428571</v>
       </c>
       <c r="AR15" s="29">
         <f t="shared" si="5"/>
-        <v>0.5914285714</v>
+        <v>0.8124285714</v>
       </c>
       <c r="AS15" s="29">
         <f t="shared" si="5"/>
-        <v>1.206428571</v>
+        <v>0.9224285714</v>
       </c>
       <c r="AT15" s="29">
         <f t="shared" si="5"/>
-        <v>1.266571429</v>
+        <v>0.8762857143</v>
       </c>
       <c r="AU15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6405714286</v>
+        <v>0.8685714286</v>
       </c>
       <c r="AV15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8375714286</v>
+        <v>1.103285714</v>
       </c>
       <c r="AW15" s="29">
         <f t="shared" si="5"/>
-        <v>1.031</v>
+        <v>1.234</v>
       </c>
       <c r="AX15" s="29">
         <f t="shared" si="5"/>
-        <v>0.919</v>
+        <v>0.8755714286</v>
       </c>
       <c r="AY15" s="29">
         <f t="shared" si="5"/>
-        <v>0.5815714286</v>
+        <v>0.6874285714</v>
       </c>
       <c r="AZ15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9432857143</v>
+        <v>1.135142857</v>
       </c>
       <c r="BA15" s="29">
         <f t="shared" si="5"/>
-        <v>1.056142857</v>
+        <v>0.5734285714</v>
       </c>
       <c r="BB15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7581428571</v>
+        <v>0.6335714286</v>
       </c>
       <c r="BC15" s="29">
         <f t="shared" si="5"/>
-        <v>1.172428571</v>
+        <v>1.069714286</v>
       </c>
       <c r="BD15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7417142857</v>
+        <v>1.052571429</v>
       </c>
       <c r="BE15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6832857143</v>
+        <v>0.8002857143</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -4399,7 +4470,7 @@
       <c r="B30" s="19"/>
       <c r="C30" s="20">
         <f>SUMIFS(C31:C1013,A31:A1013,A31)</f>
-        <v>0.7033269231</v>
+        <v>0.7252884615</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="22"/>
@@ -4465,7 +4536,7 @@
       </c>
       <c r="C31" s="25">
         <f t="array" ref="C31">IF( B32="Short-Term", AVERAGE(F33:BE33)*B33, INDEX(F33:BE33, 1, COUNTA(F33:BE33))*B33 )</f>
-        <v>0.3470384615</v>
+        <v>0.3661538462</v>
       </c>
       <c r="D31" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B32=""Short-Term"", SPARKLINE(F33:BE33,IF(B31=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F33:BE33, 1, COUNTA(F33:BE33)) ,IF(B31=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -4476,211 +4547,211 @@
       </c>
       <c r="F31" s="26">
         <f t="shared" ref="F31:BE31" si="9">RANDBETWEEN(1,50)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G31" s="26">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H31" s="26">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J31" s="26">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K31" s="26">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="L31" s="26">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M31" s="26">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N31" s="26">
         <f t="shared" si="9"/>
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="O31" s="26">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="P31" s="26">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q31" s="26">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="R31" s="26">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="S31" s="26">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="T31" s="26">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="U31" s="26">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V31" s="26">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="W31" s="26">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X31" s="26">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y31" s="26">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="Z31" s="26">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AA31" s="26">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AB31" s="26">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AC31" s="26">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AD31" s="26">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="AE31" s="26">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AF31" s="26">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AG31" s="26">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AH31" s="26">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AI31" s="26">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AJ31" s="26">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK31" s="26">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AL31" s="26">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AM31" s="26">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AN31" s="26">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="AO31" s="26">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="AP31" s="26">
         <f t="shared" si="9"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AQ31" s="26">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AR31" s="26">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AS31" s="26">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="AT31" s="26">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU31" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AV31" s="26">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AW31" s="26">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AX31" s="26">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="AY31" s="26">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="AZ31" s="26">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA31" s="26">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="BB31" s="26">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="BC31" s="26">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BD31" s="26">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="BE31" s="26">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -4859,211 +4930,211 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ref="F33:BE33" si="10">IF( $B31="Maximum", F31/F32 , IF( 100%-(F31-F32)/F32 &gt; 0, 100%-(F31-F32)/F32, 0) )</f>
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" si="10"/>
-        <v>0.48</v>
+        <v>0.06</v>
       </c>
       <c r="H33" s="29">
         <f t="shared" si="10"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="I33" s="29">
         <f t="shared" si="10"/>
-        <v>0.34</v>
+        <v>0.88</v>
       </c>
       <c r="J33" s="29">
         <f t="shared" si="10"/>
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="K33" s="29">
         <f t="shared" si="10"/>
-        <v>0.04</v>
+        <v>0.74</v>
       </c>
       <c r="L33" s="29">
         <f t="shared" si="10"/>
-        <v>0.48</v>
+        <v>0.04</v>
       </c>
       <c r="M33" s="29">
         <f t="shared" si="10"/>
-        <v>0.9</v>
+        <v>0.56</v>
       </c>
       <c r="N33" s="29">
         <f t="shared" si="10"/>
-        <v>0.94</v>
+        <v>0.44</v>
       </c>
       <c r="O33" s="29">
         <f t="shared" si="10"/>
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="P33" s="29">
         <f t="shared" si="10"/>
-        <v>0.24</v>
+        <v>0.56</v>
       </c>
       <c r="Q33" s="29">
         <f t="shared" si="10"/>
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="R33" s="29">
         <f t="shared" si="10"/>
-        <v>0.08</v>
+        <v>0.74</v>
       </c>
       <c r="S33" s="29">
         <f t="shared" si="10"/>
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="T33" s="29">
         <f t="shared" si="10"/>
-        <v>0.22</v>
+        <v>0.72</v>
       </c>
       <c r="U33" s="29">
         <f t="shared" si="10"/>
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="V33" s="29">
         <f t="shared" si="10"/>
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="W33" s="29">
         <f t="shared" si="10"/>
-        <v>0.64</v>
+        <v>0.76</v>
       </c>
       <c r="X33" s="29">
         <f t="shared" si="10"/>
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="Y33" s="29">
         <f t="shared" si="10"/>
-        <v>0.86</v>
+        <v>0.16</v>
       </c>
       <c r="Z33" s="29">
         <f t="shared" si="10"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="29">
         <f t="shared" si="10"/>
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
       <c r="AB33" s="29">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="AC33" s="29">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="AD33" s="29">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="AE33" s="29">
         <f t="shared" si="10"/>
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="AF33" s="29">
         <f t="shared" si="10"/>
-        <v>0.64</v>
+        <v>0.92</v>
       </c>
       <c r="AG33" s="29">
         <f t="shared" si="10"/>
-        <v>0.56</v>
+        <v>0.24</v>
       </c>
       <c r="AH33" s="29">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AI33" s="29">
         <f t="shared" si="10"/>
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="AJ33" s="29">
         <f t="shared" si="10"/>
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AK33" s="29">
         <f t="shared" si="10"/>
-        <v>0.56</v>
+        <v>0.08</v>
       </c>
       <c r="AL33" s="29">
         <f t="shared" si="10"/>
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="29">
         <f t="shared" si="10"/>
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
       <c r="AN33" s="29">
         <f t="shared" si="10"/>
-        <v>0.12</v>
+        <v>0.88</v>
       </c>
       <c r="AO33" s="29">
         <f t="shared" si="10"/>
-        <v>0.38</v>
+        <v>0.98</v>
       </c>
       <c r="AP33" s="29">
         <f t="shared" si="10"/>
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="AQ33" s="29">
         <f t="shared" si="10"/>
-        <v>0.58</v>
+        <v>0.14</v>
       </c>
       <c r="AR33" s="29">
         <f t="shared" si="10"/>
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="AS33" s="29">
         <f t="shared" si="10"/>
-        <v>0.78</v>
+        <v>0.22</v>
       </c>
       <c r="AT33" s="29">
         <f t="shared" si="10"/>
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="AU33" s="29">
         <f t="shared" si="10"/>
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="AV33" s="29">
         <f t="shared" si="10"/>
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AW33" s="29">
         <f t="shared" si="10"/>
-        <v>0.48</v>
+        <v>0.02</v>
       </c>
       <c r="AX33" s="29">
         <f t="shared" si="10"/>
-        <v>0.62</v>
+        <v>0.02</v>
       </c>
       <c r="AY33" s="29">
         <f t="shared" si="10"/>
-        <v>0.86</v>
+        <v>0.58</v>
       </c>
       <c r="AZ33" s="29">
         <f t="shared" si="10"/>
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="BA33" s="29">
         <f t="shared" si="10"/>
-        <v>0.08</v>
+        <v>0.42</v>
       </c>
       <c r="BB33" s="29">
         <f t="shared" si="10"/>
-        <v>0.08</v>
+        <v>0.7</v>
       </c>
       <c r="BC33" s="29">
         <f t="shared" si="10"/>
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="BD33" s="29">
         <f t="shared" si="10"/>
-        <v>0.44</v>
+        <v>0.08</v>
       </c>
       <c r="BE33" s="29">
         <f t="shared" si="10"/>
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -5075,7 +5146,7 @@
       </c>
       <c r="C34" s="25">
         <f t="array" ref="C34">IF( B35="Short-Term", AVERAGE(F36:BE36)*B36, INDEX(F36:BE36, 1, COUNTA(F36:BE36))*B36 )</f>
-        <v>0.02513461538</v>
+        <v>0.02798076923</v>
       </c>
       <c r="D34" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B35=""Short-Term"", SPARKLINE(F36:BE36,IF(B34=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F36:BE36, 1, COUNTA(F36:BE36)) ,IF(B34=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -5086,7 +5157,7 @@
       </c>
       <c r="F34" s="26">
         <f t="shared" ref="F34:BE34" si="11">RANDBETWEEN(1,50)</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G34" s="26">
         <f t="shared" si="11"/>
@@ -5094,35 +5165,35 @@
       </c>
       <c r="H34" s="26">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J34" s="26">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K34" s="26">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="L34" s="26">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="M34" s="26">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N34" s="26">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O34" s="26">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="P34" s="26">
         <f t="shared" si="11"/>
@@ -5130,87 +5201,87 @@
       </c>
       <c r="Q34" s="26">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="R34" s="26">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="S34" s="26">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="T34" s="26">
         <f t="shared" si="11"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="U34" s="26">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V34" s="26">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="W34" s="26">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X34" s="26">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Y34" s="26">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="Z34" s="26">
         <f t="shared" si="11"/>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AA34" s="26">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AB34" s="26">
         <f t="shared" si="11"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AC34" s="26">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="AD34" s="26">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AE34" s="26">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AF34" s="26">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="AG34" s="26">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AH34" s="26">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AI34" s="26">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AJ34" s="26">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AK34" s="26">
         <f t="shared" si="11"/>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="AL34" s="26">
         <f t="shared" si="11"/>
@@ -5218,79 +5289,79 @@
       </c>
       <c r="AM34" s="26">
         <f t="shared" si="11"/>
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="AN34" s="26">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AO34" s="26">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP34" s="26">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AQ34" s="26">
         <f t="shared" si="11"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="AR34" s="26">
         <f t="shared" si="11"/>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AS34" s="26">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="AT34" s="26">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="AU34" s="26">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AV34" s="26">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AW34" s="26">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AX34" s="26">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AY34" s="26">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ34" s="26">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="BA34" s="26">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="BB34" s="26">
         <f t="shared" si="11"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="BC34" s="26">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BD34" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="BE34" s="26">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -5469,7 +5540,7 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ref="F36:BE36" si="12">IF( $B34="Maximum", F34/F35 , IF( 100%-(F34-F35)/F35 &gt; 0, 100%-(F34-F35)/F35, 0) )</f>
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" si="12"/>
@@ -5477,35 +5548,35 @@
       </c>
       <c r="H36" s="29">
         <f t="shared" si="12"/>
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I36" s="29">
         <f t="shared" si="12"/>
-        <v>0.45</v>
+        <v>0.16</v>
       </c>
       <c r="J36" s="29">
         <f t="shared" si="12"/>
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="K36" s="29">
         <f t="shared" si="12"/>
-        <v>0.03</v>
+        <v>0.37</v>
       </c>
       <c r="L36" s="29">
         <f t="shared" si="12"/>
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="M36" s="29">
         <f t="shared" si="12"/>
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="N36" s="29">
         <f t="shared" si="12"/>
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="O36" s="29">
         <f t="shared" si="12"/>
-        <v>0.17</v>
+        <v>0.44</v>
       </c>
       <c r="P36" s="29">
         <f t="shared" si="12"/>
@@ -5513,87 +5584,87 @@
       </c>
       <c r="Q36" s="29">
         <f t="shared" si="12"/>
-        <v>0.11</v>
+        <v>0.47</v>
       </c>
       <c r="R36" s="29">
         <f t="shared" si="12"/>
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="S36" s="29">
         <f t="shared" si="12"/>
-        <v>0.32</v>
+        <v>0.13</v>
       </c>
       <c r="T36" s="29">
         <f t="shared" si="12"/>
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="U36" s="29">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="V36" s="29">
         <f t="shared" si="12"/>
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
       <c r="W36" s="29">
         <f t="shared" si="12"/>
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="X36" s="29">
         <f t="shared" si="12"/>
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="Y36" s="29">
         <f t="shared" si="12"/>
-        <v>0.16</v>
+        <v>0.48</v>
       </c>
       <c r="Z36" s="29">
         <f t="shared" si="12"/>
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="AA36" s="29">
         <f t="shared" si="12"/>
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="AB36" s="29">
         <f t="shared" si="12"/>
-        <v>0.48</v>
+        <v>0.37</v>
       </c>
       <c r="AC36" s="29">
         <f t="shared" si="12"/>
-        <v>0.17</v>
+        <v>0.47</v>
       </c>
       <c r="AD36" s="29">
         <f t="shared" si="12"/>
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="AE36" s="29">
         <f t="shared" si="12"/>
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="AF36" s="29">
         <f t="shared" si="12"/>
-        <v>0.14</v>
+        <v>0.43</v>
       </c>
       <c r="AG36" s="29">
         <f t="shared" si="12"/>
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="AH36" s="29">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="AI36" s="29">
         <f t="shared" si="12"/>
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="AJ36" s="29">
         <f t="shared" si="12"/>
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="AK36" s="29">
         <f t="shared" si="12"/>
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="AL36" s="29">
         <f t="shared" si="12"/>
@@ -5601,79 +5672,79 @@
       </c>
       <c r="AM36" s="29">
         <f t="shared" si="12"/>
-        <v>0.35</v>
+        <v>0.06</v>
       </c>
       <c r="AN36" s="29">
         <f t="shared" si="12"/>
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AO36" s="29">
         <f t="shared" si="12"/>
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AP36" s="29">
         <f t="shared" si="12"/>
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="AQ36" s="29">
         <f t="shared" si="12"/>
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="AR36" s="29">
         <f t="shared" si="12"/>
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="AS36" s="29">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>0.35</v>
       </c>
       <c r="AT36" s="29">
         <f t="shared" si="12"/>
-        <v>0.09</v>
+        <v>0.39</v>
       </c>
       <c r="AU36" s="29">
         <f t="shared" si="12"/>
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="AV36" s="29">
         <f t="shared" si="12"/>
-        <v>0.09</v>
+        <v>0.4</v>
       </c>
       <c r="AW36" s="29">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="AX36" s="29">
         <f t="shared" si="12"/>
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="AY36" s="29">
         <f t="shared" si="12"/>
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="AZ36" s="29">
         <f t="shared" si="12"/>
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
       <c r="BA36" s="29">
         <f t="shared" si="12"/>
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
       <c r="BB36" s="29">
         <f t="shared" si="12"/>
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="BC36" s="29">
         <f t="shared" si="12"/>
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="BD36" s="29">
         <f t="shared" si="12"/>
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="BE36" s="29">
         <f t="shared" si="12"/>
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -11111,26 +11182,83 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
     <mergeCell ref="U2:U4"/>
     <mergeCell ref="V2:V4"/>
     <mergeCell ref="W2:W4"/>
     <mergeCell ref="X2:X4"/>
     <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="BA2:BA4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="AL2:AL4"/>
+    <mergeCell ref="AM2:AM4"/>
+    <mergeCell ref="AN2:AN4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AQ4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AT2:AT4"/>
     <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
     <mergeCell ref="AU2:AU4"/>
     <mergeCell ref="AV2:AV4"/>
     <mergeCell ref="AW2:AW4"/>
     <mergeCell ref="AX2:AX4"/>
     <mergeCell ref="AY2:AY4"/>
     <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="BA2:BA4"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AR6"/>
     <mergeCell ref="AS6:AW6"/>
@@ -11138,68 +11266,11 @@
     <mergeCell ref="BB6:BE6"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AG2:AG4"/>
-    <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="AI2:AI4"/>
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AS2:AS4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="AL2:AL4"/>
-    <mergeCell ref="AM2:AM4"/>
-    <mergeCell ref="AN2:AN4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AQ4"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="S6:V6"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
   </mergeCells>
   <conditionalFormatting sqref="F13:BE13 F16:BE16 F19:BE19 F37:BE37">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
@@ -11235,4 +11306,6836 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF9900FF"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4.0" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection activeCell="F2" sqref="F2" pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="26.67"/>
+    <col customWidth="1" min="2" max="3" width="13.22"/>
+    <col customWidth="1" min="4" max="4" width="26.22"/>
+    <col customWidth="1" min="5" max="5" width="10.78"/>
+    <col customWidth="1" min="6" max="57" width="10.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4">
+        <f t="shared" ref="F1:BE1" si="1">AVERAGEIFS(F9:F987,$E9:$E987,"% Target")</f>
+        <v>0.65</v>
+      </c>
+      <c r="G1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="H1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.61</v>
+      </c>
+      <c r="I1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="J1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+      <c r="K1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.525</v>
+      </c>
+      <c r="L1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="M1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="N1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="O1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.47</v>
+      </c>
+      <c r="P1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="Q1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.555</v>
+      </c>
+      <c r="R1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+      <c r="S1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+      <c r="T1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.67</v>
+      </c>
+      <c r="U1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="V1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="W1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.585</v>
+      </c>
+      <c r="X1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.74</v>
+      </c>
+      <c r="Y1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="Z1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="AA1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
+      <c r="AB1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="AC1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.615</v>
+      </c>
+      <c r="AD1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.77</v>
+      </c>
+      <c r="AE1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="AF1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.73</v>
+      </c>
+      <c r="AG1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.56</v>
+      </c>
+      <c r="AH1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="AI1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.645</v>
+      </c>
+      <c r="AJ1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AK1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+      <c r="AL1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="AM1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.59</v>
+      </c>
+      <c r="AN1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57</v>
+      </c>
+      <c r="AO1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.675</v>
+      </c>
+      <c r="AP1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.83</v>
+      </c>
+      <c r="AQ1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
+      <c r="AR1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.79</v>
+      </c>
+      <c r="AS1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.62</v>
+      </c>
+      <c r="AT1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="AU1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.705</v>
+      </c>
+      <c r="AV1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.86</v>
+      </c>
+      <c r="AW1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.84</v>
+      </c>
+      <c r="AX1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.82</v>
+      </c>
+      <c r="AY1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="AZ1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="BA1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.735</v>
+      </c>
+      <c r="BB1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89</v>
+      </c>
+      <c r="BC1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87</v>
+      </c>
+      <c r="BD1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="BE1" s="4">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(F9:F987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(G9:G987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="H2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(H9:H987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(I9:I987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(J9:J987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="K2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(K9:K987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="L2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(L9:L987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="M2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(M9:M987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="N2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(N9:N987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="O2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(O9:O987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="P2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(P9:P987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="Q2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(Q9:Q987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="R2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(R9:R987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="S2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(S9:S987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="T2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(T9:T987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="U2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(U9:U987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="V2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(V9:V987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="W2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(W9:W987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="X2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(X9:X987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="Y2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(Y9:Y987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="Z2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(Z9:Z987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AA2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AA9:AA987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AB2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AB9:AB987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AC2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AC9:AC987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AD2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AD9:AD987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AE2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AE9:AE987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AF2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AF9:AF987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AG2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AG9:AG987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AH2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AH9:AH987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AI2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AI9:AI987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AJ2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AJ9:AJ987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AK2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AK9:AK987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AL2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AL9:AL987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AM2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AM9:AM987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AN2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AN9:AN987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AO2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AO9:AO987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AP2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AP9:AP987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AQ2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AQ9:AQ987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AR2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AR9:AR987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AS2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AS9:AS987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AT2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AT9:AT987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AU2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AU9:AU987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AV2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AV9:AV987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AW2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AW9:AW987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AX2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AX9:AX987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AY2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AY9:AY987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="AZ2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AZ9:AZ987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="BA2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BA9:BA987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="BB2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BB9:BB987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="BC2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BC9:BC987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="BD2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BD9:BD987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+      <c r="BE2" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BE9:BE987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB6" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="L7" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="N7" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="O7" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="P7" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="R7" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="S7" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="T7" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="U7" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="V7" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="W7" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="X7" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="Y7" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="AB7" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="AG7" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="AH7" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="AI7" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="AJ7" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="AK7" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="AL7" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="AM7" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="AN7" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="AO7" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="AP7" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="AQ7" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="AR7" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="AS7" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="AT7" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="AU7" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="AV7" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="AW7" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="AX7" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="AY7" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="AZ7" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="BA7" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="BB7" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="BC7" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="BD7" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="BE7" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20">
+        <f>SUMIFS(C10:C987,A10:A987,A10)</f>
+        <v>0.9112692308</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="25">
+        <f t="array" ref="C10">IF( B11="Short-Term", AVERAGE(F12:BE12)*B12, INDEX(F12:BE12, 1, COUNTA(F12:BE12))*B12 )</f>
+        <v>0.8757692308</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B11=""Short-Term"", SPARKLINE(F12:BE12,IF(B10=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F12:BE12, 1, COUNTA(F12:BE12)) ,IF(B10=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
+        <v/>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="H10" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="I10" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="K10" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="L10" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="M10" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="N10" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="O10" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="P10" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="R10" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="S10" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="T10" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="U10" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="V10" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="W10" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="X10" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="Y10" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="Z10" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="AA10" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="AB10" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="AC10" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="AD10" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AE10" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="AF10" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="AG10" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="AH10" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="AI10" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="AJ10" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AK10" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="AL10" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="AM10" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="AN10" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="AO10" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="AP10" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ10" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="AR10" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="AS10" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="AT10" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="AU10" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="AV10" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AW10" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="AX10" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="AY10" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="AZ10" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="BA10" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="BB10" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="BC10" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="BD10" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="BE10" s="33">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="K11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="N11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="O11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="P11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="R11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="T11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="U11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="V11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="W11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="X11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="Y11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="Z11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AA11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AB11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AC11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AD11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AE11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AF11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AG11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AH11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AI11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AJ11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AK11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AL11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AM11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AN11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AO11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AP11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AQ11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AR11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AS11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AT11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AU11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AV11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AW11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AX11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AY11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AZ11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="BA11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="BB11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="BC11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="BD11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="BE11" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="29">
+        <f t="shared" ref="F12:BE12" si="2">IF( $B10="Maximum", F10/F11 , IF( 100%-(F10-F11)/F11 &gt; 0, 100%-(F10-F11)/F11, 0) )</f>
+        <v>1.2</v>
+      </c>
+      <c r="G12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.15</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="I12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="J12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="K12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="L12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="M12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.15</v>
+      </c>
+      <c r="N12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="O12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="P12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="R12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="S12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.15</v>
+      </c>
+      <c r="T12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="U12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="V12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="W12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="X12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="Y12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.15</v>
+      </c>
+      <c r="Z12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="AA12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="AB12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="AC12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="AD12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="AE12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.15</v>
+      </c>
+      <c r="AF12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="AG12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="AH12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="AI12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="AJ12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="AK12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.15</v>
+      </c>
+      <c r="AL12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="AM12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="AN12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="AO12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="AP12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="AQ12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.15</v>
+      </c>
+      <c r="AR12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="AS12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="AT12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="AU12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="AV12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="AW12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.15</v>
+      </c>
+      <c r="AX12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="AY12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="AZ12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="BA12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="BB12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="BC12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.15</v>
+      </c>
+      <c r="BD12" s="29">
+        <f t="shared" si="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="BE12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="25">
+        <f t="array" ref="C13">IF( B14="Short-Term", AVERAGE(F15:BE15)*B15, INDEX(F15:BE15, 1, COUNTA(F15:BE15))*B15 )</f>
+        <v>0.0355</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B14=""Short-Term"", SPARKLINE(F15:BE15,IF(B13=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F15:BE15, 1, COUNTA(F15:BE15)) ,IF(B13=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="G13" s="26">
+        <v>110.0</v>
+      </c>
+      <c r="H13" s="26">
+        <v>120.0</v>
+      </c>
+      <c r="I13" s="26">
+        <v>130.0</v>
+      </c>
+      <c r="J13" s="26">
+        <v>140.0</v>
+      </c>
+      <c r="K13" s="26">
+        <v>150.0</v>
+      </c>
+      <c r="L13" s="26">
+        <v>160.0</v>
+      </c>
+      <c r="M13" s="26">
+        <v>170.0</v>
+      </c>
+      <c r="N13" s="26">
+        <v>180.0</v>
+      </c>
+      <c r="O13" s="26">
+        <v>190.0</v>
+      </c>
+      <c r="P13" s="26">
+        <v>200.0</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>210.0</v>
+      </c>
+      <c r="R13" s="26">
+        <v>220.0</v>
+      </c>
+      <c r="S13" s="26">
+        <v>230.0</v>
+      </c>
+      <c r="T13" s="26">
+        <v>240.0</v>
+      </c>
+      <c r="U13" s="26">
+        <v>250.0</v>
+      </c>
+      <c r="V13" s="26">
+        <v>260.0</v>
+      </c>
+      <c r="W13" s="26">
+        <v>270.0</v>
+      </c>
+      <c r="X13" s="26">
+        <v>280.0</v>
+      </c>
+      <c r="Y13" s="26">
+        <v>290.0</v>
+      </c>
+      <c r="Z13" s="26">
+        <v>300.0</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>310.0</v>
+      </c>
+      <c r="AB13" s="26">
+        <v>320.0</v>
+      </c>
+      <c r="AC13" s="26">
+        <v>330.0</v>
+      </c>
+      <c r="AD13" s="26">
+        <v>340.0</v>
+      </c>
+      <c r="AE13" s="26">
+        <v>350.0</v>
+      </c>
+      <c r="AF13" s="26">
+        <v>360.0</v>
+      </c>
+      <c r="AG13" s="26">
+        <v>370.0</v>
+      </c>
+      <c r="AH13" s="26">
+        <v>380.0</v>
+      </c>
+      <c r="AI13" s="26">
+        <v>390.0</v>
+      </c>
+      <c r="AJ13" s="26">
+        <v>400.0</v>
+      </c>
+      <c r="AK13" s="26">
+        <v>410.0</v>
+      </c>
+      <c r="AL13" s="26">
+        <v>420.0</v>
+      </c>
+      <c r="AM13" s="26">
+        <v>430.0</v>
+      </c>
+      <c r="AN13" s="26">
+        <v>440.0</v>
+      </c>
+      <c r="AO13" s="26">
+        <v>450.0</v>
+      </c>
+      <c r="AP13" s="26">
+        <v>460.0</v>
+      </c>
+      <c r="AQ13" s="26">
+        <v>470.0</v>
+      </c>
+      <c r="AR13" s="26">
+        <v>480.0</v>
+      </c>
+      <c r="AS13" s="26">
+        <v>490.0</v>
+      </c>
+      <c r="AT13" s="26">
+        <v>500.0</v>
+      </c>
+      <c r="AU13" s="26">
+        <v>510.0</v>
+      </c>
+      <c r="AV13" s="26">
+        <v>520.0</v>
+      </c>
+      <c r="AW13" s="26">
+        <v>530.0</v>
+      </c>
+      <c r="AX13" s="26">
+        <v>540.0</v>
+      </c>
+      <c r="AY13" s="26">
+        <v>550.0</v>
+      </c>
+      <c r="AZ13" s="26">
+        <v>560.0</v>
+      </c>
+      <c r="BA13" s="26">
+        <v>570.0</v>
+      </c>
+      <c r="BB13" s="26">
+        <v>580.0</v>
+      </c>
+      <c r="BC13" s="26">
+        <v>590.0</v>
+      </c>
+      <c r="BD13" s="26">
+        <v>600.0</v>
+      </c>
+      <c r="BE13" s="26">
+        <v>610.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="G14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="H14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="I14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="J14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="K14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="L14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="M14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="N14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="O14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="P14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="R14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="S14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="T14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="U14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="V14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="W14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="X14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="Y14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AB14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AC14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AD14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AE14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AF14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AG14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AH14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AI14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AJ14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AK14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AL14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AM14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AN14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AO14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AP14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AQ14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AR14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AS14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AT14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AU14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AV14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AW14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AX14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AY14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="AZ14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="BA14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="BB14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="BC14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="BD14" s="26">
+        <v>1000.0</v>
+      </c>
+      <c r="BE14" s="26">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="29">
+        <f t="shared" ref="F15:BE15" si="3">IF( $B13="Maximum", F13/F14 , IF( 100%-(F13-F14)/F14 &gt; 0, 100%-(F13-F14)/F14, 0) )</f>
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="I15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.13</v>
+      </c>
+      <c r="J15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.14</v>
+      </c>
+      <c r="K15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="L15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="M15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.17</v>
+      </c>
+      <c r="N15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
+      </c>
+      <c r="O15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.19</v>
+      </c>
+      <c r="P15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.21</v>
+      </c>
+      <c r="R15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.22</v>
+      </c>
+      <c r="S15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.23</v>
+      </c>
+      <c r="T15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
+      <c r="U15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="V15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="W15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.27</v>
+      </c>
+      <c r="X15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.28</v>
+      </c>
+      <c r="Y15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.29</v>
+      </c>
+      <c r="Z15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="AA15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="AB15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="AC15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.33</v>
+      </c>
+      <c r="AD15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.34</v>
+      </c>
+      <c r="AE15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="AF15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.36</v>
+      </c>
+      <c r="AG15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.37</v>
+      </c>
+      <c r="AH15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.38</v>
+      </c>
+      <c r="AI15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.39</v>
+      </c>
+      <c r="AJ15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="AK15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+      <c r="AL15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.42</v>
+      </c>
+      <c r="AM15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.43</v>
+      </c>
+      <c r="AN15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.44</v>
+      </c>
+      <c r="AO15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="AP15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.46</v>
+      </c>
+      <c r="AQ15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.47</v>
+      </c>
+      <c r="AR15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="AS15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.49</v>
+      </c>
+      <c r="AT15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AU15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.51</v>
+      </c>
+      <c r="AV15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.52</v>
+      </c>
+      <c r="AW15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.53</v>
+      </c>
+      <c r="AX15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.54</v>
+      </c>
+      <c r="AY15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.55</v>
+      </c>
+      <c r="AZ15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.56</v>
+      </c>
+      <c r="BA15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.57</v>
+      </c>
+      <c r="BB15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.58</v>
+      </c>
+      <c r="BC15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.59</v>
+      </c>
+      <c r="BD15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="BE15" s="29">
+        <f t="shared" si="3"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="32"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="7"/>
+      <c r="B96" s="8"/>
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="7"/>
+      <c r="B97" s="8"/>
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="E98" s="8"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="7"/>
+      <c r="B99" s="8"/>
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
+      <c r="E100" s="8"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="7"/>
+      <c r="B101" s="8"/>
+      <c r="E101" s="8"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="7"/>
+      <c r="B102" s="8"/>
+      <c r="E102" s="8"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="7"/>
+      <c r="B103" s="8"/>
+      <c r="E103" s="8"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="7"/>
+      <c r="B104" s="8"/>
+      <c r="E104" s="8"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="7"/>
+      <c r="B105" s="8"/>
+      <c r="E105" s="8"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="7"/>
+      <c r="B106" s="8"/>
+      <c r="E106" s="8"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="7"/>
+      <c r="B107" s="8"/>
+      <c r="E107" s="8"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="7"/>
+      <c r="B108" s="8"/>
+      <c r="E108" s="8"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="7"/>
+      <c r="B109" s="8"/>
+      <c r="E109" s="8"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="7"/>
+      <c r="B110" s="8"/>
+      <c r="E110" s="8"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="7"/>
+      <c r="B111" s="8"/>
+      <c r="E111" s="8"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="7"/>
+      <c r="B112" s="8"/>
+      <c r="E112" s="8"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="7"/>
+      <c r="B113" s="8"/>
+      <c r="E113" s="8"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="7"/>
+      <c r="B114" s="8"/>
+      <c r="E114" s="8"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="7"/>
+      <c r="B115" s="8"/>
+      <c r="E115" s="8"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="7"/>
+      <c r="B116" s="8"/>
+      <c r="E116" s="8"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="7"/>
+      <c r="B117" s="8"/>
+      <c r="E117" s="8"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="7"/>
+      <c r="B118" s="8"/>
+      <c r="E118" s="8"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="7"/>
+      <c r="B119" s="8"/>
+      <c r="E119" s="8"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="7"/>
+      <c r="B120" s="8"/>
+      <c r="E120" s="8"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="7"/>
+      <c r="B121" s="8"/>
+      <c r="E121" s="8"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="7"/>
+      <c r="B122" s="8"/>
+      <c r="E122" s="8"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="7"/>
+      <c r="B123" s="8"/>
+      <c r="E123" s="8"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="7"/>
+      <c r="B124" s="8"/>
+      <c r="E124" s="8"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="7"/>
+      <c r="B125" s="8"/>
+      <c r="E125" s="8"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="7"/>
+      <c r="B126" s="8"/>
+      <c r="E126" s="8"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="7"/>
+      <c r="B127" s="8"/>
+      <c r="E127" s="8"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="7"/>
+      <c r="B128" s="8"/>
+      <c r="E128" s="8"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="7"/>
+      <c r="B129" s="8"/>
+      <c r="E129" s="8"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="7"/>
+      <c r="B130" s="8"/>
+      <c r="E130" s="8"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="7"/>
+      <c r="B131" s="8"/>
+      <c r="E131" s="8"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="7"/>
+      <c r="B132" s="8"/>
+      <c r="E132" s="8"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="7"/>
+      <c r="B133" s="8"/>
+      <c r="E133" s="8"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="7"/>
+      <c r="B134" s="8"/>
+      <c r="E134" s="8"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="7"/>
+      <c r="B135" s="8"/>
+      <c r="E135" s="8"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="7"/>
+      <c r="B136" s="8"/>
+      <c r="E136" s="8"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="7"/>
+      <c r="B137" s="8"/>
+      <c r="E137" s="8"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="7"/>
+      <c r="B138" s="8"/>
+      <c r="E138" s="8"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="7"/>
+      <c r="B139" s="8"/>
+      <c r="E139" s="8"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="7"/>
+      <c r="B140" s="8"/>
+      <c r="E140" s="8"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="7"/>
+      <c r="B141" s="8"/>
+      <c r="E141" s="8"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="7"/>
+      <c r="B142" s="8"/>
+      <c r="E142" s="8"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="7"/>
+      <c r="B143" s="8"/>
+      <c r="E143" s="8"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="7"/>
+      <c r="B144" s="8"/>
+      <c r="E144" s="8"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="7"/>
+      <c r="B145" s="8"/>
+      <c r="E145" s="8"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="7"/>
+      <c r="B146" s="8"/>
+      <c r="E146" s="8"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="7"/>
+      <c r="B147" s="8"/>
+      <c r="E147" s="8"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="E148" s="8"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="7"/>
+      <c r="B149" s="8"/>
+      <c r="E149" s="8"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="7"/>
+      <c r="B150" s="8"/>
+      <c r="E150" s="8"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="7"/>
+      <c r="B151" s="8"/>
+      <c r="E151" s="8"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="7"/>
+      <c r="B152" s="8"/>
+      <c r="E152" s="8"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="7"/>
+      <c r="B153" s="8"/>
+      <c r="E153" s="8"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="7"/>
+      <c r="B154" s="8"/>
+      <c r="E154" s="8"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="7"/>
+      <c r="B155" s="8"/>
+      <c r="E155" s="8"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="7"/>
+      <c r="B156" s="8"/>
+      <c r="E156" s="8"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="7"/>
+      <c r="B157" s="8"/>
+      <c r="E157" s="8"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="7"/>
+      <c r="B158" s="8"/>
+      <c r="E158" s="8"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="7"/>
+      <c r="B159" s="8"/>
+      <c r="E159" s="8"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="7"/>
+      <c r="B160" s="8"/>
+      <c r="E160" s="8"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="7"/>
+      <c r="B161" s="8"/>
+      <c r="E161" s="8"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="7"/>
+      <c r="B162" s="8"/>
+      <c r="E162" s="8"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="7"/>
+      <c r="B163" s="8"/>
+      <c r="E163" s="8"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="7"/>
+      <c r="B164" s="8"/>
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="7"/>
+      <c r="B165" s="8"/>
+      <c r="E165" s="8"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="7"/>
+      <c r="B166" s="8"/>
+      <c r="E166" s="8"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="7"/>
+      <c r="B167" s="8"/>
+      <c r="E167" s="8"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="7"/>
+      <c r="B168" s="8"/>
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="7"/>
+      <c r="B169" s="8"/>
+      <c r="E169" s="8"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="7"/>
+      <c r="B170" s="8"/>
+      <c r="E170" s="8"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="7"/>
+      <c r="B171" s="8"/>
+      <c r="E171" s="8"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="7"/>
+      <c r="B172" s="8"/>
+      <c r="E172" s="8"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="7"/>
+      <c r="B173" s="8"/>
+      <c r="E173" s="8"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="7"/>
+      <c r="B174" s="8"/>
+      <c r="E174" s="8"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="7"/>
+      <c r="B175" s="8"/>
+      <c r="E175" s="8"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="7"/>
+      <c r="B176" s="8"/>
+      <c r="E176" s="8"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="7"/>
+      <c r="B177" s="8"/>
+      <c r="E177" s="8"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="7"/>
+      <c r="B178" s="8"/>
+      <c r="E178" s="8"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="7"/>
+      <c r="B179" s="8"/>
+      <c r="E179" s="8"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="7"/>
+      <c r="B180" s="8"/>
+      <c r="E180" s="8"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="7"/>
+      <c r="B181" s="8"/>
+      <c r="E181" s="8"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="7"/>
+      <c r="B182" s="8"/>
+      <c r="E182" s="8"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="7"/>
+      <c r="B183" s="8"/>
+      <c r="E183" s="8"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="7"/>
+      <c r="B184" s="8"/>
+      <c r="E184" s="8"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="7"/>
+      <c r="B185" s="8"/>
+      <c r="E185" s="8"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="7"/>
+      <c r="B186" s="8"/>
+      <c r="E186" s="8"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="7"/>
+      <c r="B187" s="8"/>
+      <c r="E187" s="8"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="7"/>
+      <c r="B188" s="8"/>
+      <c r="E188" s="8"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="7"/>
+      <c r="B189" s="8"/>
+      <c r="E189" s="8"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="7"/>
+      <c r="B190" s="8"/>
+      <c r="E190" s="8"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="7"/>
+      <c r="B191" s="8"/>
+      <c r="E191" s="8"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="7"/>
+      <c r="B192" s="8"/>
+      <c r="E192" s="8"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="7"/>
+      <c r="B193" s="8"/>
+      <c r="E193" s="8"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="7"/>
+      <c r="B194" s="8"/>
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="7"/>
+      <c r="B195" s="8"/>
+      <c r="E195" s="8"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="7"/>
+      <c r="B196" s="8"/>
+      <c r="E196" s="8"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="7"/>
+      <c r="B197" s="8"/>
+      <c r="E197" s="8"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="7"/>
+      <c r="B198" s="8"/>
+      <c r="E198" s="8"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="7"/>
+      <c r="B199" s="8"/>
+      <c r="E199" s="8"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="7"/>
+      <c r="B200" s="8"/>
+      <c r="E200" s="8"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="7"/>
+      <c r="B201" s="8"/>
+      <c r="E201" s="8"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="7"/>
+      <c r="B202" s="8"/>
+      <c r="E202" s="8"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="7"/>
+      <c r="B203" s="8"/>
+      <c r="E203" s="8"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="7"/>
+      <c r="B204" s="8"/>
+      <c r="E204" s="8"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="7"/>
+      <c r="B205" s="8"/>
+      <c r="E205" s="8"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="7"/>
+      <c r="B206" s="8"/>
+      <c r="E206" s="8"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="7"/>
+      <c r="B207" s="8"/>
+      <c r="E207" s="8"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="7"/>
+      <c r="B208" s="8"/>
+      <c r="E208" s="8"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="7"/>
+      <c r="B209" s="8"/>
+      <c r="E209" s="8"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="7"/>
+      <c r="B210" s="8"/>
+      <c r="E210" s="8"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="7"/>
+      <c r="B211" s="8"/>
+      <c r="E211" s="8"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="7"/>
+      <c r="B212" s="8"/>
+      <c r="E212" s="8"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="7"/>
+      <c r="B213" s="8"/>
+      <c r="E213" s="8"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="7"/>
+      <c r="B214" s="8"/>
+      <c r="E214" s="8"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="7"/>
+      <c r="B215" s="8"/>
+      <c r="E215" s="8"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="7"/>
+      <c r="B216" s="8"/>
+      <c r="E216" s="8"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="7"/>
+      <c r="B217" s="8"/>
+      <c r="E217" s="8"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="7"/>
+      <c r="B218" s="8"/>
+      <c r="E218" s="8"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="7"/>
+      <c r="B219" s="8"/>
+      <c r="E219" s="8"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="7"/>
+      <c r="B220" s="8"/>
+      <c r="E220" s="8"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="7"/>
+      <c r="B221" s="8"/>
+      <c r="E221" s="8"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="7"/>
+      <c r="B222" s="8"/>
+      <c r="E222" s="8"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="7"/>
+      <c r="B223" s="8"/>
+      <c r="E223" s="8"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="7"/>
+      <c r="B224" s="8"/>
+      <c r="E224" s="8"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="7"/>
+      <c r="B225" s="8"/>
+      <c r="E225" s="8"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="7"/>
+      <c r="B226" s="8"/>
+      <c r="E226" s="8"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="7"/>
+      <c r="B227" s="8"/>
+      <c r="E227" s="8"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="7"/>
+      <c r="B228" s="8"/>
+      <c r="E228" s="8"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="7"/>
+      <c r="B229" s="8"/>
+      <c r="E229" s="8"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="7"/>
+      <c r="B230" s="8"/>
+      <c r="E230" s="8"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="7"/>
+      <c r="B231" s="8"/>
+      <c r="E231" s="8"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="7"/>
+      <c r="B232" s="8"/>
+      <c r="E232" s="8"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="7"/>
+      <c r="B233" s="8"/>
+      <c r="E233" s="8"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="7"/>
+      <c r="B234" s="8"/>
+      <c r="E234" s="8"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="7"/>
+      <c r="B235" s="8"/>
+      <c r="E235" s="8"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="7"/>
+      <c r="B236" s="8"/>
+      <c r="E236" s="8"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="7"/>
+      <c r="B237" s="8"/>
+      <c r="E237" s="8"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="A238" s="7"/>
+      <c r="B238" s="8"/>
+      <c r="E238" s="8"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="A239" s="7"/>
+      <c r="B239" s="8"/>
+      <c r="E239" s="8"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="A240" s="7"/>
+      <c r="B240" s="8"/>
+      <c r="E240" s="8"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="A241" s="7"/>
+      <c r="B241" s="8"/>
+      <c r="E241" s="8"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="7"/>
+      <c r="B242" s="8"/>
+      <c r="E242" s="8"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="A243" s="7"/>
+      <c r="B243" s="8"/>
+      <c r="E243" s="8"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="7"/>
+      <c r="B244" s="8"/>
+      <c r="E244" s="8"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="7"/>
+      <c r="B245" s="8"/>
+      <c r="E245" s="8"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="7"/>
+      <c r="B246" s="8"/>
+      <c r="E246" s="8"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="7"/>
+      <c r="B247" s="8"/>
+      <c r="E247" s="8"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="7"/>
+      <c r="B248" s="8"/>
+      <c r="E248" s="8"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="A249" s="7"/>
+      <c r="B249" s="8"/>
+      <c r="E249" s="8"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="A250" s="7"/>
+      <c r="B250" s="8"/>
+      <c r="E250" s="8"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="A251" s="7"/>
+      <c r="B251" s="8"/>
+      <c r="E251" s="8"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="A252" s="7"/>
+      <c r="B252" s="8"/>
+      <c r="E252" s="8"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="7"/>
+      <c r="B253" s="8"/>
+      <c r="E253" s="8"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="A254" s="7"/>
+      <c r="B254" s="8"/>
+      <c r="E254" s="8"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="A255" s="7"/>
+      <c r="B255" s="8"/>
+      <c r="E255" s="8"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="A256" s="7"/>
+      <c r="B256" s="8"/>
+      <c r="E256" s="8"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="A257" s="7"/>
+      <c r="B257" s="8"/>
+      <c r="E257" s="8"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="A258" s="7"/>
+      <c r="B258" s="8"/>
+      <c r="E258" s="8"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="A259" s="7"/>
+      <c r="B259" s="8"/>
+      <c r="E259" s="8"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="A260" s="7"/>
+      <c r="B260" s="8"/>
+      <c r="E260" s="8"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="A261" s="7"/>
+      <c r="B261" s="8"/>
+      <c r="E261" s="8"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="A262" s="7"/>
+      <c r="B262" s="8"/>
+      <c r="E262" s="8"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="A263" s="7"/>
+      <c r="B263" s="8"/>
+      <c r="E263" s="8"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="A264" s="7"/>
+      <c r="B264" s="8"/>
+      <c r="E264" s="8"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="A265" s="7"/>
+      <c r="B265" s="8"/>
+      <c r="E265" s="8"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="A266" s="7"/>
+      <c r="B266" s="8"/>
+      <c r="E266" s="8"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="A267" s="7"/>
+      <c r="B267" s="8"/>
+      <c r="E267" s="8"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="A268" s="7"/>
+      <c r="B268" s="8"/>
+      <c r="E268" s="8"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="A269" s="7"/>
+      <c r="B269" s="8"/>
+      <c r="E269" s="8"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="A270" s="7"/>
+      <c r="B270" s="8"/>
+      <c r="E270" s="8"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="A271" s="7"/>
+      <c r="B271" s="8"/>
+      <c r="E271" s="8"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="A272" s="7"/>
+      <c r="B272" s="8"/>
+      <c r="E272" s="8"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="A273" s="7"/>
+      <c r="B273" s="8"/>
+      <c r="E273" s="8"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="A274" s="7"/>
+      <c r="B274" s="8"/>
+      <c r="E274" s="8"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="A275" s="7"/>
+      <c r="B275" s="8"/>
+      <c r="E275" s="8"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="A276" s="7"/>
+      <c r="B276" s="8"/>
+      <c r="E276" s="8"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="A277" s="7"/>
+      <c r="B277" s="8"/>
+      <c r="E277" s="8"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="A278" s="7"/>
+      <c r="B278" s="8"/>
+      <c r="E278" s="8"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="A279" s="7"/>
+      <c r="B279" s="8"/>
+      <c r="E279" s="8"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="A280" s="7"/>
+      <c r="B280" s="8"/>
+      <c r="E280" s="8"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="A281" s="7"/>
+      <c r="B281" s="8"/>
+      <c r="E281" s="8"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="A282" s="7"/>
+      <c r="B282" s="8"/>
+      <c r="E282" s="8"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="A283" s="7"/>
+      <c r="B283" s="8"/>
+      <c r="E283" s="8"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="A284" s="7"/>
+      <c r="B284" s="8"/>
+      <c r="E284" s="8"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="A285" s="7"/>
+      <c r="B285" s="8"/>
+      <c r="E285" s="8"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="A286" s="7"/>
+      <c r="B286" s="8"/>
+      <c r="E286" s="8"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="A287" s="7"/>
+      <c r="B287" s="8"/>
+      <c r="E287" s="8"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="A288" s="7"/>
+      <c r="B288" s="8"/>
+      <c r="E288" s="8"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="A289" s="7"/>
+      <c r="B289" s="8"/>
+      <c r="E289" s="8"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="A290" s="7"/>
+      <c r="B290" s="8"/>
+      <c r="E290" s="8"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="A291" s="7"/>
+      <c r="B291" s="8"/>
+      <c r="E291" s="8"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="A292" s="7"/>
+      <c r="B292" s="8"/>
+      <c r="E292" s="8"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="A293" s="7"/>
+      <c r="B293" s="8"/>
+      <c r="E293" s="8"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="A294" s="7"/>
+      <c r="B294" s="8"/>
+      <c r="E294" s="8"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="A295" s="7"/>
+      <c r="B295" s="8"/>
+      <c r="E295" s="8"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="A296" s="7"/>
+      <c r="B296" s="8"/>
+      <c r="E296" s="8"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="A297" s="7"/>
+      <c r="B297" s="8"/>
+      <c r="E297" s="8"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="A298" s="7"/>
+      <c r="B298" s="8"/>
+      <c r="E298" s="8"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="A299" s="7"/>
+      <c r="B299" s="8"/>
+      <c r="E299" s="8"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="A300" s="7"/>
+      <c r="B300" s="8"/>
+      <c r="E300" s="8"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="A301" s="7"/>
+      <c r="B301" s="8"/>
+      <c r="E301" s="8"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="A302" s="7"/>
+      <c r="B302" s="8"/>
+      <c r="E302" s="8"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="A303" s="7"/>
+      <c r="B303" s="8"/>
+      <c r="E303" s="8"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="A304" s="7"/>
+      <c r="B304" s="8"/>
+      <c r="E304" s="8"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="A305" s="7"/>
+      <c r="B305" s="8"/>
+      <c r="E305" s="8"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="A306" s="7"/>
+      <c r="B306" s="8"/>
+      <c r="E306" s="8"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="A307" s="7"/>
+      <c r="B307" s="8"/>
+      <c r="E307" s="8"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="A308" s="7"/>
+      <c r="B308" s="8"/>
+      <c r="E308" s="8"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="A309" s="7"/>
+      <c r="B309" s="8"/>
+      <c r="E309" s="8"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="A310" s="7"/>
+      <c r="B310" s="8"/>
+      <c r="E310" s="8"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="A311" s="7"/>
+      <c r="B311" s="8"/>
+      <c r="E311" s="8"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="A312" s="7"/>
+      <c r="B312" s="8"/>
+      <c r="E312" s="8"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="A313" s="7"/>
+      <c r="B313" s="8"/>
+      <c r="E313" s="8"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="A314" s="7"/>
+      <c r="B314" s="8"/>
+      <c r="E314" s="8"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="A315" s="7"/>
+      <c r="B315" s="8"/>
+      <c r="E315" s="8"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="A316" s="7"/>
+      <c r="B316" s="8"/>
+      <c r="E316" s="8"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="A317" s="7"/>
+      <c r="B317" s="8"/>
+      <c r="E317" s="8"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="A318" s="7"/>
+      <c r="B318" s="8"/>
+      <c r="E318" s="8"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="A319" s="7"/>
+      <c r="B319" s="8"/>
+      <c r="E319" s="8"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="A320" s="7"/>
+      <c r="B320" s="8"/>
+      <c r="E320" s="8"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="A321" s="7"/>
+      <c r="B321" s="8"/>
+      <c r="E321" s="8"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="A322" s="7"/>
+      <c r="B322" s="8"/>
+      <c r="E322" s="8"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="A323" s="7"/>
+      <c r="B323" s="8"/>
+      <c r="E323" s="8"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="A324" s="7"/>
+      <c r="B324" s="8"/>
+      <c r="E324" s="8"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="A325" s="7"/>
+      <c r="B325" s="8"/>
+      <c r="E325" s="8"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="A326" s="7"/>
+      <c r="B326" s="8"/>
+      <c r="E326" s="8"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="A327" s="7"/>
+      <c r="B327" s="8"/>
+      <c r="E327" s="8"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="A328" s="7"/>
+      <c r="B328" s="8"/>
+      <c r="E328" s="8"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="A329" s="7"/>
+      <c r="B329" s="8"/>
+      <c r="E329" s="8"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="A330" s="7"/>
+      <c r="B330" s="8"/>
+      <c r="E330" s="8"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="A331" s="7"/>
+      <c r="B331" s="8"/>
+      <c r="E331" s="8"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="A332" s="7"/>
+      <c r="B332" s="8"/>
+      <c r="E332" s="8"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="A333" s="7"/>
+      <c r="B333" s="8"/>
+      <c r="E333" s="8"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="A334" s="7"/>
+      <c r="B334" s="8"/>
+      <c r="E334" s="8"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="A335" s="7"/>
+      <c r="B335" s="8"/>
+      <c r="E335" s="8"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="A336" s="7"/>
+      <c r="B336" s="8"/>
+      <c r="E336" s="8"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="A337" s="7"/>
+      <c r="B337" s="8"/>
+      <c r="E337" s="8"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="A338" s="7"/>
+      <c r="B338" s="8"/>
+      <c r="E338" s="8"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="A339" s="7"/>
+      <c r="B339" s="8"/>
+      <c r="E339" s="8"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="A340" s="7"/>
+      <c r="B340" s="8"/>
+      <c r="E340" s="8"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="A341" s="7"/>
+      <c r="B341" s="8"/>
+      <c r="E341" s="8"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="A342" s="7"/>
+      <c r="B342" s="8"/>
+      <c r="E342" s="8"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="A343" s="7"/>
+      <c r="B343" s="8"/>
+      <c r="E343" s="8"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="A344" s="7"/>
+      <c r="B344" s="8"/>
+      <c r="E344" s="8"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="A345" s="7"/>
+      <c r="B345" s="8"/>
+      <c r="E345" s="8"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="A346" s="7"/>
+      <c r="B346" s="8"/>
+      <c r="E346" s="8"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="A347" s="7"/>
+      <c r="B347" s="8"/>
+      <c r="E347" s="8"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="A348" s="7"/>
+      <c r="B348" s="8"/>
+      <c r="E348" s="8"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="A349" s="7"/>
+      <c r="B349" s="8"/>
+      <c r="E349" s="8"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="A350" s="7"/>
+      <c r="B350" s="8"/>
+      <c r="E350" s="8"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="A351" s="7"/>
+      <c r="B351" s="8"/>
+      <c r="E351" s="8"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="A352" s="7"/>
+      <c r="B352" s="8"/>
+      <c r="E352" s="8"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="A353" s="7"/>
+      <c r="B353" s="8"/>
+      <c r="E353" s="8"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="A354" s="7"/>
+      <c r="B354" s="8"/>
+      <c r="E354" s="8"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="A355" s="7"/>
+      <c r="B355" s="8"/>
+      <c r="E355" s="8"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="A356" s="7"/>
+      <c r="B356" s="8"/>
+      <c r="E356" s="8"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="A357" s="7"/>
+      <c r="B357" s="8"/>
+      <c r="E357" s="8"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="A358" s="7"/>
+      <c r="B358" s="8"/>
+      <c r="E358" s="8"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="A359" s="7"/>
+      <c r="B359" s="8"/>
+      <c r="E359" s="8"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="A360" s="7"/>
+      <c r="B360" s="8"/>
+      <c r="E360" s="8"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="A361" s="7"/>
+      <c r="B361" s="8"/>
+      <c r="E361" s="8"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="A362" s="7"/>
+      <c r="B362" s="8"/>
+      <c r="E362" s="8"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="A363" s="7"/>
+      <c r="B363" s="8"/>
+      <c r="E363" s="8"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="A364" s="7"/>
+      <c r="B364" s="8"/>
+      <c r="E364" s="8"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="A365" s="7"/>
+      <c r="B365" s="8"/>
+      <c r="E365" s="8"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="A366" s="7"/>
+      <c r="B366" s="8"/>
+      <c r="E366" s="8"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="A367" s="7"/>
+      <c r="B367" s="8"/>
+      <c r="E367" s="8"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="A368" s="7"/>
+      <c r="B368" s="8"/>
+      <c r="E368" s="8"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="A369" s="7"/>
+      <c r="B369" s="8"/>
+      <c r="E369" s="8"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="A370" s="7"/>
+      <c r="B370" s="8"/>
+      <c r="E370" s="8"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="A371" s="7"/>
+      <c r="B371" s="8"/>
+      <c r="E371" s="8"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="A372" s="7"/>
+      <c r="B372" s="8"/>
+      <c r="E372" s="8"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="A373" s="7"/>
+      <c r="B373" s="8"/>
+      <c r="E373" s="8"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="A374" s="7"/>
+      <c r="B374" s="8"/>
+      <c r="E374" s="8"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="A375" s="7"/>
+      <c r="B375" s="8"/>
+      <c r="E375" s="8"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="A376" s="7"/>
+      <c r="B376" s="8"/>
+      <c r="E376" s="8"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="A377" s="7"/>
+      <c r="B377" s="8"/>
+      <c r="E377" s="8"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="A378" s="7"/>
+      <c r="B378" s="8"/>
+      <c r="E378" s="8"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="A379" s="7"/>
+      <c r="B379" s="8"/>
+      <c r="E379" s="8"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="A380" s="7"/>
+      <c r="B380" s="8"/>
+      <c r="E380" s="8"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="A381" s="7"/>
+      <c r="B381" s="8"/>
+      <c r="E381" s="8"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="A382" s="7"/>
+      <c r="B382" s="8"/>
+      <c r="E382" s="8"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="A383" s="7"/>
+      <c r="B383" s="8"/>
+      <c r="E383" s="8"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="A384" s="7"/>
+      <c r="B384" s="8"/>
+      <c r="E384" s="8"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="A385" s="7"/>
+      <c r="B385" s="8"/>
+      <c r="E385" s="8"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="A386" s="7"/>
+      <c r="B386" s="8"/>
+      <c r="E386" s="8"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="A387" s="7"/>
+      <c r="B387" s="8"/>
+      <c r="E387" s="8"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="A388" s="7"/>
+      <c r="B388" s="8"/>
+      <c r="E388" s="8"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="A389" s="7"/>
+      <c r="B389" s="8"/>
+      <c r="E389" s="8"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="A390" s="7"/>
+      <c r="B390" s="8"/>
+      <c r="E390" s="8"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="A391" s="7"/>
+      <c r="B391" s="8"/>
+      <c r="E391" s="8"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="A392" s="7"/>
+      <c r="B392" s="8"/>
+      <c r="E392" s="8"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="A393" s="7"/>
+      <c r="B393" s="8"/>
+      <c r="E393" s="8"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="A394" s="7"/>
+      <c r="B394" s="8"/>
+      <c r="E394" s="8"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="A395" s="7"/>
+      <c r="B395" s="8"/>
+      <c r="E395" s="8"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="A396" s="7"/>
+      <c r="B396" s="8"/>
+      <c r="E396" s="8"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="A397" s="7"/>
+      <c r="B397" s="8"/>
+      <c r="E397" s="8"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="A398" s="7"/>
+      <c r="B398" s="8"/>
+      <c r="E398" s="8"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="A399" s="7"/>
+      <c r="B399" s="8"/>
+      <c r="E399" s="8"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="A400" s="7"/>
+      <c r="B400" s="8"/>
+      <c r="E400" s="8"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="A401" s="7"/>
+      <c r="B401" s="8"/>
+      <c r="E401" s="8"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="A402" s="7"/>
+      <c r="B402" s="8"/>
+      <c r="E402" s="8"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="A403" s="7"/>
+      <c r="B403" s="8"/>
+      <c r="E403" s="8"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="A404" s="7"/>
+      <c r="B404" s="8"/>
+      <c r="E404" s="8"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="A405" s="7"/>
+      <c r="B405" s="8"/>
+      <c r="E405" s="8"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="A406" s="7"/>
+      <c r="B406" s="8"/>
+      <c r="E406" s="8"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="A407" s="7"/>
+      <c r="B407" s="8"/>
+      <c r="E407" s="8"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="A408" s="7"/>
+      <c r="B408" s="8"/>
+      <c r="E408" s="8"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="A409" s="7"/>
+      <c r="B409" s="8"/>
+      <c r="E409" s="8"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="A410" s="7"/>
+      <c r="B410" s="8"/>
+      <c r="E410" s="8"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="A411" s="7"/>
+      <c r="B411" s="8"/>
+      <c r="E411" s="8"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="A412" s="7"/>
+      <c r="B412" s="8"/>
+      <c r="E412" s="8"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="A413" s="7"/>
+      <c r="B413" s="8"/>
+      <c r="E413" s="8"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="A414" s="7"/>
+      <c r="B414" s="8"/>
+      <c r="E414" s="8"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="A415" s="7"/>
+      <c r="B415" s="8"/>
+      <c r="E415" s="8"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="A416" s="7"/>
+      <c r="B416" s="8"/>
+      <c r="E416" s="8"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="A417" s="7"/>
+      <c r="B417" s="8"/>
+      <c r="E417" s="8"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="A418" s="7"/>
+      <c r="B418" s="8"/>
+      <c r="E418" s="8"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="A419" s="7"/>
+      <c r="B419" s="8"/>
+      <c r="E419" s="8"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="A420" s="7"/>
+      <c r="B420" s="8"/>
+      <c r="E420" s="8"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="A421" s="7"/>
+      <c r="B421" s="8"/>
+      <c r="E421" s="8"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="A422" s="7"/>
+      <c r="B422" s="8"/>
+      <c r="E422" s="8"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="A423" s="7"/>
+      <c r="B423" s="8"/>
+      <c r="E423" s="8"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="A424" s="7"/>
+      <c r="B424" s="8"/>
+      <c r="E424" s="8"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="A425" s="7"/>
+      <c r="B425" s="8"/>
+      <c r="E425" s="8"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="A426" s="7"/>
+      <c r="B426" s="8"/>
+      <c r="E426" s="8"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="A427" s="7"/>
+      <c r="B427" s="8"/>
+      <c r="E427" s="8"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="A428" s="7"/>
+      <c r="B428" s="8"/>
+      <c r="E428" s="8"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="A429" s="7"/>
+      <c r="B429" s="8"/>
+      <c r="E429" s="8"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="A430" s="7"/>
+      <c r="B430" s="8"/>
+      <c r="E430" s="8"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="A431" s="7"/>
+      <c r="B431" s="8"/>
+      <c r="E431" s="8"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="A432" s="7"/>
+      <c r="B432" s="8"/>
+      <c r="E432" s="8"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="A433" s="7"/>
+      <c r="B433" s="8"/>
+      <c r="E433" s="8"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="A434" s="7"/>
+      <c r="B434" s="8"/>
+      <c r="E434" s="8"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="A435" s="7"/>
+      <c r="B435" s="8"/>
+      <c r="E435" s="8"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="A436" s="7"/>
+      <c r="B436" s="8"/>
+      <c r="E436" s="8"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="A437" s="7"/>
+      <c r="B437" s="8"/>
+      <c r="E437" s="8"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="A438" s="7"/>
+      <c r="B438" s="8"/>
+      <c r="E438" s="8"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="A439" s="7"/>
+      <c r="B439" s="8"/>
+      <c r="E439" s="8"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="A440" s="7"/>
+      <c r="B440" s="8"/>
+      <c r="E440" s="8"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="A441" s="7"/>
+      <c r="B441" s="8"/>
+      <c r="E441" s="8"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="A442" s="7"/>
+      <c r="B442" s="8"/>
+      <c r="E442" s="8"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="A443" s="7"/>
+      <c r="B443" s="8"/>
+      <c r="E443" s="8"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="A444" s="7"/>
+      <c r="B444" s="8"/>
+      <c r="E444" s="8"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="A445" s="7"/>
+      <c r="B445" s="8"/>
+      <c r="E445" s="8"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="A446" s="7"/>
+      <c r="B446" s="8"/>
+      <c r="E446" s="8"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="A447" s="7"/>
+      <c r="B447" s="8"/>
+      <c r="E447" s="8"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="A448" s="7"/>
+      <c r="B448" s="8"/>
+      <c r="E448" s="8"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="A449" s="7"/>
+      <c r="B449" s="8"/>
+      <c r="E449" s="8"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="A450" s="7"/>
+      <c r="B450" s="8"/>
+      <c r="E450" s="8"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="A451" s="7"/>
+      <c r="B451" s="8"/>
+      <c r="E451" s="8"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="A452" s="7"/>
+      <c r="B452" s="8"/>
+      <c r="E452" s="8"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="A453" s="7"/>
+      <c r="B453" s="8"/>
+      <c r="E453" s="8"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="A454" s="7"/>
+      <c r="B454" s="8"/>
+      <c r="E454" s="8"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="A455" s="7"/>
+      <c r="B455" s="8"/>
+      <c r="E455" s="8"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="A456" s="7"/>
+      <c r="B456" s="8"/>
+      <c r="E456" s="8"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="A457" s="7"/>
+      <c r="B457" s="8"/>
+      <c r="E457" s="8"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="A458" s="7"/>
+      <c r="B458" s="8"/>
+      <c r="E458" s="8"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="A459" s="7"/>
+      <c r="B459" s="8"/>
+      <c r="E459" s="8"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="A460" s="7"/>
+      <c r="B460" s="8"/>
+      <c r="E460" s="8"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="A461" s="7"/>
+      <c r="B461" s="8"/>
+      <c r="E461" s="8"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="A462" s="7"/>
+      <c r="B462" s="8"/>
+      <c r="E462" s="8"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="A463" s="7"/>
+      <c r="B463" s="8"/>
+      <c r="E463" s="8"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="A464" s="7"/>
+      <c r="B464" s="8"/>
+      <c r="E464" s="8"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="A465" s="7"/>
+      <c r="B465" s="8"/>
+      <c r="E465" s="8"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="A466" s="7"/>
+      <c r="B466" s="8"/>
+      <c r="E466" s="8"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="A467" s="7"/>
+      <c r="B467" s="8"/>
+      <c r="E467" s="8"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="A468" s="7"/>
+      <c r="B468" s="8"/>
+      <c r="E468" s="8"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="A469" s="7"/>
+      <c r="B469" s="8"/>
+      <c r="E469" s="8"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="A470" s="7"/>
+      <c r="B470" s="8"/>
+      <c r="E470" s="8"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="A471" s="7"/>
+      <c r="B471" s="8"/>
+      <c r="E471" s="8"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="A472" s="7"/>
+      <c r="B472" s="8"/>
+      <c r="E472" s="8"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="A473" s="7"/>
+      <c r="B473" s="8"/>
+      <c r="E473" s="8"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="A474" s="7"/>
+      <c r="B474" s="8"/>
+      <c r="E474" s="8"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="A475" s="7"/>
+      <c r="B475" s="8"/>
+      <c r="E475" s="8"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="A476" s="7"/>
+      <c r="B476" s="8"/>
+      <c r="E476" s="8"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="A477" s="7"/>
+      <c r="B477" s="8"/>
+      <c r="E477" s="8"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="A478" s="7"/>
+      <c r="B478" s="8"/>
+      <c r="E478" s="8"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="A479" s="7"/>
+      <c r="B479" s="8"/>
+      <c r="E479" s="8"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="A480" s="7"/>
+      <c r="B480" s="8"/>
+      <c r="E480" s="8"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="A481" s="7"/>
+      <c r="B481" s="8"/>
+      <c r="E481" s="8"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="A482" s="7"/>
+      <c r="B482" s="8"/>
+      <c r="E482" s="8"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="A483" s="7"/>
+      <c r="B483" s="8"/>
+      <c r="E483" s="8"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="A484" s="7"/>
+      <c r="B484" s="8"/>
+      <c r="E484" s="8"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="A485" s="7"/>
+      <c r="B485" s="8"/>
+      <c r="E485" s="8"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="A486" s="7"/>
+      <c r="B486" s="8"/>
+      <c r="E486" s="8"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="A487" s="7"/>
+      <c r="B487" s="8"/>
+      <c r="E487" s="8"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="A488" s="7"/>
+      <c r="B488" s="8"/>
+      <c r="E488" s="8"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="A489" s="7"/>
+      <c r="B489" s="8"/>
+      <c r="E489" s="8"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="A490" s="7"/>
+      <c r="B490" s="8"/>
+      <c r="E490" s="8"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="A491" s="7"/>
+      <c r="B491" s="8"/>
+      <c r="E491" s="8"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="A492" s="7"/>
+      <c r="B492" s="8"/>
+      <c r="E492" s="8"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="A493" s="7"/>
+      <c r="B493" s="8"/>
+      <c r="E493" s="8"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="A494" s="7"/>
+      <c r="B494" s="8"/>
+      <c r="E494" s="8"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="A495" s="7"/>
+      <c r="B495" s="8"/>
+      <c r="E495" s="8"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="A496" s="7"/>
+      <c r="B496" s="8"/>
+      <c r="E496" s="8"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="A497" s="7"/>
+      <c r="B497" s="8"/>
+      <c r="E497" s="8"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="A498" s="7"/>
+      <c r="B498" s="8"/>
+      <c r="E498" s="8"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="A499" s="7"/>
+      <c r="B499" s="8"/>
+      <c r="E499" s="8"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="A500" s="7"/>
+      <c r="B500" s="8"/>
+      <c r="E500" s="8"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="A501" s="7"/>
+      <c r="B501" s="8"/>
+      <c r="E501" s="8"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="A502" s="7"/>
+      <c r="B502" s="8"/>
+      <c r="E502" s="8"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="A503" s="7"/>
+      <c r="B503" s="8"/>
+      <c r="E503" s="8"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="A504" s="7"/>
+      <c r="B504" s="8"/>
+      <c r="E504" s="8"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="A505" s="7"/>
+      <c r="B505" s="8"/>
+      <c r="E505" s="8"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="A506" s="7"/>
+      <c r="B506" s="8"/>
+      <c r="E506" s="8"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="A507" s="7"/>
+      <c r="B507" s="8"/>
+      <c r="E507" s="8"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="A508" s="7"/>
+      <c r="B508" s="8"/>
+      <c r="E508" s="8"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="A509" s="7"/>
+      <c r="B509" s="8"/>
+      <c r="E509" s="8"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="A510" s="7"/>
+      <c r="B510" s="8"/>
+      <c r="E510" s="8"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="A511" s="7"/>
+      <c r="B511" s="8"/>
+      <c r="E511" s="8"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="A512" s="7"/>
+      <c r="B512" s="8"/>
+      <c r="E512" s="8"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="A513" s="7"/>
+      <c r="B513" s="8"/>
+      <c r="E513" s="8"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="A514" s="7"/>
+      <c r="B514" s="8"/>
+      <c r="E514" s="8"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="A515" s="7"/>
+      <c r="B515" s="8"/>
+      <c r="E515" s="8"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="A516" s="7"/>
+      <c r="B516" s="8"/>
+      <c r="E516" s="8"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="A517" s="7"/>
+      <c r="B517" s="8"/>
+      <c r="E517" s="8"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="A518" s="7"/>
+      <c r="B518" s="8"/>
+      <c r="E518" s="8"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="A519" s="7"/>
+      <c r="B519" s="8"/>
+      <c r="E519" s="8"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="A520" s="7"/>
+      <c r="B520" s="8"/>
+      <c r="E520" s="8"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="A521" s="7"/>
+      <c r="B521" s="8"/>
+      <c r="E521" s="8"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="A522" s="7"/>
+      <c r="B522" s="8"/>
+      <c r="E522" s="8"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="A523" s="7"/>
+      <c r="B523" s="8"/>
+      <c r="E523" s="8"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="A524" s="7"/>
+      <c r="B524" s="8"/>
+      <c r="E524" s="8"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="A525" s="7"/>
+      <c r="B525" s="8"/>
+      <c r="E525" s="8"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="A526" s="7"/>
+      <c r="B526" s="8"/>
+      <c r="E526" s="8"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="A527" s="7"/>
+      <c r="B527" s="8"/>
+      <c r="E527" s="8"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="A528" s="7"/>
+      <c r="B528" s="8"/>
+      <c r="E528" s="8"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="A529" s="7"/>
+      <c r="B529" s="8"/>
+      <c r="E529" s="8"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="A530" s="7"/>
+      <c r="B530" s="8"/>
+      <c r="E530" s="8"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="A531" s="7"/>
+      <c r="B531" s="8"/>
+      <c r="E531" s="8"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="A532" s="7"/>
+      <c r="B532" s="8"/>
+      <c r="E532" s="8"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="A533" s="7"/>
+      <c r="B533" s="8"/>
+      <c r="E533" s="8"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="A534" s="7"/>
+      <c r="B534" s="8"/>
+      <c r="E534" s="8"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="A535" s="7"/>
+      <c r="B535" s="8"/>
+      <c r="E535" s="8"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="A536" s="7"/>
+      <c r="B536" s="8"/>
+      <c r="E536" s="8"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="A537" s="7"/>
+      <c r="B537" s="8"/>
+      <c r="E537" s="8"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="A538" s="7"/>
+      <c r="B538" s="8"/>
+      <c r="E538" s="8"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="A539" s="7"/>
+      <c r="B539" s="8"/>
+      <c r="E539" s="8"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="A540" s="7"/>
+      <c r="B540" s="8"/>
+      <c r="E540" s="8"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="A541" s="7"/>
+      <c r="B541" s="8"/>
+      <c r="E541" s="8"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="A542" s="7"/>
+      <c r="B542" s="8"/>
+      <c r="E542" s="8"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="A543" s="7"/>
+      <c r="B543" s="8"/>
+      <c r="E543" s="8"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="A544" s="7"/>
+      <c r="B544" s="8"/>
+      <c r="E544" s="8"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="A545" s="7"/>
+      <c r="B545" s="8"/>
+      <c r="E545" s="8"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="A546" s="7"/>
+      <c r="B546" s="8"/>
+      <c r="E546" s="8"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="A547" s="7"/>
+      <c r="B547" s="8"/>
+      <c r="E547" s="8"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="A548" s="7"/>
+      <c r="B548" s="8"/>
+      <c r="E548" s="8"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="A549" s="7"/>
+      <c r="B549" s="8"/>
+      <c r="E549" s="8"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="A550" s="7"/>
+      <c r="B550" s="8"/>
+      <c r="E550" s="8"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="A551" s="7"/>
+      <c r="B551" s="8"/>
+      <c r="E551" s="8"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="A552" s="7"/>
+      <c r="B552" s="8"/>
+      <c r="E552" s="8"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="A553" s="7"/>
+      <c r="B553" s="8"/>
+      <c r="E553" s="8"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="A554" s="7"/>
+      <c r="B554" s="8"/>
+      <c r="E554" s="8"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="A555" s="7"/>
+      <c r="B555" s="8"/>
+      <c r="E555" s="8"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="A556" s="7"/>
+      <c r="B556" s="8"/>
+      <c r="E556" s="8"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="A557" s="7"/>
+      <c r="B557" s="8"/>
+      <c r="E557" s="8"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="A558" s="7"/>
+      <c r="B558" s="8"/>
+      <c r="E558" s="8"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="A559" s="7"/>
+      <c r="B559" s="8"/>
+      <c r="E559" s="8"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="A560" s="7"/>
+      <c r="B560" s="8"/>
+      <c r="E560" s="8"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="A561" s="7"/>
+      <c r="B561" s="8"/>
+      <c r="E561" s="8"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="A562" s="7"/>
+      <c r="B562" s="8"/>
+      <c r="E562" s="8"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="A563" s="7"/>
+      <c r="B563" s="8"/>
+      <c r="E563" s="8"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="A564" s="7"/>
+      <c r="B564" s="8"/>
+      <c r="E564" s="8"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="A565" s="7"/>
+      <c r="B565" s="8"/>
+      <c r="E565" s="8"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="A566" s="7"/>
+      <c r="B566" s="8"/>
+      <c r="E566" s="8"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="A567" s="7"/>
+      <c r="B567" s="8"/>
+      <c r="E567" s="8"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="A568" s="7"/>
+      <c r="B568" s="8"/>
+      <c r="E568" s="8"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="A569" s="7"/>
+      <c r="B569" s="8"/>
+      <c r="E569" s="8"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="A570" s="7"/>
+      <c r="B570" s="8"/>
+      <c r="E570" s="8"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="A571" s="7"/>
+      <c r="B571" s="8"/>
+      <c r="E571" s="8"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="A572" s="7"/>
+      <c r="B572" s="8"/>
+      <c r="E572" s="8"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="A573" s="7"/>
+      <c r="B573" s="8"/>
+      <c r="E573" s="8"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="A574" s="7"/>
+      <c r="B574" s="8"/>
+      <c r="E574" s="8"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="A575" s="7"/>
+      <c r="B575" s="8"/>
+      <c r="E575" s="8"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="A576" s="7"/>
+      <c r="B576" s="8"/>
+      <c r="E576" s="8"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="A577" s="7"/>
+      <c r="B577" s="8"/>
+      <c r="E577" s="8"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="A578" s="7"/>
+      <c r="B578" s="8"/>
+      <c r="E578" s="8"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="A579" s="7"/>
+      <c r="B579" s="8"/>
+      <c r="E579" s="8"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="A580" s="7"/>
+      <c r="B580" s="8"/>
+      <c r="E580" s="8"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="A581" s="7"/>
+      <c r="B581" s="8"/>
+      <c r="E581" s="8"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="A582" s="7"/>
+      <c r="B582" s="8"/>
+      <c r="E582" s="8"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="A583" s="7"/>
+      <c r="B583" s="8"/>
+      <c r="E583" s="8"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="A584" s="7"/>
+      <c r="B584" s="8"/>
+      <c r="E584" s="8"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="A585" s="7"/>
+      <c r="B585" s="8"/>
+      <c r="E585" s="8"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="A586" s="7"/>
+      <c r="B586" s="8"/>
+      <c r="E586" s="8"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="A587" s="7"/>
+      <c r="B587" s="8"/>
+      <c r="E587" s="8"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="A588" s="7"/>
+      <c r="B588" s="8"/>
+      <c r="E588" s="8"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="A589" s="7"/>
+      <c r="B589" s="8"/>
+      <c r="E589" s="8"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="A590" s="7"/>
+      <c r="B590" s="8"/>
+      <c r="E590" s="8"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="A591" s="7"/>
+      <c r="B591" s="8"/>
+      <c r="E591" s="8"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="A592" s="7"/>
+      <c r="B592" s="8"/>
+      <c r="E592" s="8"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="A593" s="7"/>
+      <c r="B593" s="8"/>
+      <c r="E593" s="8"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="A594" s="7"/>
+      <c r="B594" s="8"/>
+      <c r="E594" s="8"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="A595" s="7"/>
+      <c r="B595" s="8"/>
+      <c r="E595" s="8"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="A596" s="7"/>
+      <c r="B596" s="8"/>
+      <c r="E596" s="8"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="A597" s="7"/>
+      <c r="B597" s="8"/>
+      <c r="E597" s="8"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="A598" s="7"/>
+      <c r="B598" s="8"/>
+      <c r="E598" s="8"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="A599" s="7"/>
+      <c r="B599" s="8"/>
+      <c r="E599" s="8"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="A600" s="7"/>
+      <c r="B600" s="8"/>
+      <c r="E600" s="8"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="A601" s="7"/>
+      <c r="B601" s="8"/>
+      <c r="E601" s="8"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="A602" s="7"/>
+      <c r="B602" s="8"/>
+      <c r="E602" s="8"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="A603" s="7"/>
+      <c r="B603" s="8"/>
+      <c r="E603" s="8"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="A604" s="7"/>
+      <c r="B604" s="8"/>
+      <c r="E604" s="8"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="A605" s="7"/>
+      <c r="B605" s="8"/>
+      <c r="E605" s="8"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="A606" s="7"/>
+      <c r="B606" s="8"/>
+      <c r="E606" s="8"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="A607" s="7"/>
+      <c r="B607" s="8"/>
+      <c r="E607" s="8"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="A608" s="7"/>
+      <c r="B608" s="8"/>
+      <c r="E608" s="8"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="A609" s="7"/>
+      <c r="B609" s="8"/>
+      <c r="E609" s="8"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="A610" s="7"/>
+      <c r="B610" s="8"/>
+      <c r="E610" s="8"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="A611" s="7"/>
+      <c r="B611" s="8"/>
+      <c r="E611" s="8"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="A612" s="7"/>
+      <c r="B612" s="8"/>
+      <c r="E612" s="8"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="A613" s="7"/>
+      <c r="B613" s="8"/>
+      <c r="E613" s="8"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="A614" s="7"/>
+      <c r="B614" s="8"/>
+      <c r="E614" s="8"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="A615" s="7"/>
+      <c r="B615" s="8"/>
+      <c r="E615" s="8"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="A616" s="7"/>
+      <c r="B616" s="8"/>
+      <c r="E616" s="8"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="A617" s="7"/>
+      <c r="B617" s="8"/>
+      <c r="E617" s="8"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="A618" s="7"/>
+      <c r="B618" s="8"/>
+      <c r="E618" s="8"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="A619" s="7"/>
+      <c r="B619" s="8"/>
+      <c r="E619" s="8"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="A620" s="7"/>
+      <c r="B620" s="8"/>
+      <c r="E620" s="8"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="A621" s="7"/>
+      <c r="B621" s="8"/>
+      <c r="E621" s="8"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="A622" s="7"/>
+      <c r="B622" s="8"/>
+      <c r="E622" s="8"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="A623" s="7"/>
+      <c r="B623" s="8"/>
+      <c r="E623" s="8"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="A624" s="7"/>
+      <c r="B624" s="8"/>
+      <c r="E624" s="8"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="A625" s="7"/>
+      <c r="B625" s="8"/>
+      <c r="E625" s="8"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="A626" s="7"/>
+      <c r="B626" s="8"/>
+      <c r="E626" s="8"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="A627" s="7"/>
+      <c r="B627" s="8"/>
+      <c r="E627" s="8"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="A628" s="7"/>
+      <c r="B628" s="8"/>
+      <c r="E628" s="8"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="A629" s="7"/>
+      <c r="B629" s="8"/>
+      <c r="E629" s="8"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="A630" s="7"/>
+      <c r="B630" s="8"/>
+      <c r="E630" s="8"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="A631" s="7"/>
+      <c r="B631" s="8"/>
+      <c r="E631" s="8"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="A632" s="7"/>
+      <c r="B632" s="8"/>
+      <c r="E632" s="8"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="A633" s="7"/>
+      <c r="B633" s="8"/>
+      <c r="E633" s="8"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="A634" s="7"/>
+      <c r="B634" s="8"/>
+      <c r="E634" s="8"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="A635" s="7"/>
+      <c r="B635" s="8"/>
+      <c r="E635" s="8"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="A636" s="7"/>
+      <c r="B636" s="8"/>
+      <c r="E636" s="8"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="A637" s="7"/>
+      <c r="B637" s="8"/>
+      <c r="E637" s="8"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="A638" s="7"/>
+      <c r="B638" s="8"/>
+      <c r="E638" s="8"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="A639" s="7"/>
+      <c r="B639" s="8"/>
+      <c r="E639" s="8"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="A640" s="7"/>
+      <c r="B640" s="8"/>
+      <c r="E640" s="8"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="A641" s="7"/>
+      <c r="B641" s="8"/>
+      <c r="E641" s="8"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="A642" s="7"/>
+      <c r="B642" s="8"/>
+      <c r="E642" s="8"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="A643" s="7"/>
+      <c r="B643" s="8"/>
+      <c r="E643" s="8"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="A644" s="7"/>
+      <c r="B644" s="8"/>
+      <c r="E644" s="8"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="A645" s="7"/>
+      <c r="B645" s="8"/>
+      <c r="E645" s="8"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="A646" s="7"/>
+      <c r="B646" s="8"/>
+      <c r="E646" s="8"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="A647" s="7"/>
+      <c r="B647" s="8"/>
+      <c r="E647" s="8"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="A648" s="7"/>
+      <c r="B648" s="8"/>
+      <c r="E648" s="8"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="A649" s="7"/>
+      <c r="B649" s="8"/>
+      <c r="E649" s="8"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="A650" s="7"/>
+      <c r="B650" s="8"/>
+      <c r="E650" s="8"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="A651" s="7"/>
+      <c r="B651" s="8"/>
+      <c r="E651" s="8"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="A652" s="7"/>
+      <c r="B652" s="8"/>
+      <c r="E652" s="8"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="A653" s="7"/>
+      <c r="B653" s="8"/>
+      <c r="E653" s="8"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="A654" s="7"/>
+      <c r="B654" s="8"/>
+      <c r="E654" s="8"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="A655" s="7"/>
+      <c r="B655" s="8"/>
+      <c r="E655" s="8"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="A656" s="7"/>
+      <c r="B656" s="8"/>
+      <c r="E656" s="8"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="A657" s="7"/>
+      <c r="B657" s="8"/>
+      <c r="E657" s="8"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="A658" s="7"/>
+      <c r="B658" s="8"/>
+      <c r="E658" s="8"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="A659" s="7"/>
+      <c r="B659" s="8"/>
+      <c r="E659" s="8"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="A660" s="7"/>
+      <c r="B660" s="8"/>
+      <c r="E660" s="8"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="A661" s="7"/>
+      <c r="B661" s="8"/>
+      <c r="E661" s="8"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="A662" s="7"/>
+      <c r="B662" s="8"/>
+      <c r="E662" s="8"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="A663" s="7"/>
+      <c r="B663" s="8"/>
+      <c r="E663" s="8"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="A664" s="7"/>
+      <c r="B664" s="8"/>
+      <c r="E664" s="8"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="A665" s="7"/>
+      <c r="B665" s="8"/>
+      <c r="E665" s="8"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="A666" s="7"/>
+      <c r="B666" s="8"/>
+      <c r="E666" s="8"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="A667" s="7"/>
+      <c r="B667" s="8"/>
+      <c r="E667" s="8"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="A668" s="7"/>
+      <c r="B668" s="8"/>
+      <c r="E668" s="8"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="A669" s="7"/>
+      <c r="B669" s="8"/>
+      <c r="E669" s="8"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="A670" s="7"/>
+      <c r="B670" s="8"/>
+      <c r="E670" s="8"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="A671" s="7"/>
+      <c r="B671" s="8"/>
+      <c r="E671" s="8"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="A672" s="7"/>
+      <c r="B672" s="8"/>
+      <c r="E672" s="8"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="A673" s="7"/>
+      <c r="B673" s="8"/>
+      <c r="E673" s="8"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="A674" s="7"/>
+      <c r="B674" s="8"/>
+      <c r="E674" s="8"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="A675" s="7"/>
+      <c r="B675" s="8"/>
+      <c r="E675" s="8"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="A676" s="7"/>
+      <c r="B676" s="8"/>
+      <c r="E676" s="8"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="A677" s="7"/>
+      <c r="B677" s="8"/>
+      <c r="E677" s="8"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="A678" s="7"/>
+      <c r="B678" s="8"/>
+      <c r="E678" s="8"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="A679" s="7"/>
+      <c r="B679" s="8"/>
+      <c r="E679" s="8"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="A680" s="7"/>
+      <c r="B680" s="8"/>
+      <c r="E680" s="8"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="A681" s="7"/>
+      <c r="B681" s="8"/>
+      <c r="E681" s="8"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="A682" s="7"/>
+      <c r="B682" s="8"/>
+      <c r="E682" s="8"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="A683" s="7"/>
+      <c r="B683" s="8"/>
+      <c r="E683" s="8"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="A684" s="7"/>
+      <c r="B684" s="8"/>
+      <c r="E684" s="8"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="A685" s="7"/>
+      <c r="B685" s="8"/>
+      <c r="E685" s="8"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="A686" s="7"/>
+      <c r="B686" s="8"/>
+      <c r="E686" s="8"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="A687" s="7"/>
+      <c r="B687" s="8"/>
+      <c r="E687" s="8"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="A688" s="7"/>
+      <c r="B688" s="8"/>
+      <c r="E688" s="8"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="A689" s="7"/>
+      <c r="B689" s="8"/>
+      <c r="E689" s="8"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="A690" s="7"/>
+      <c r="B690" s="8"/>
+      <c r="E690" s="8"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="A691" s="7"/>
+      <c r="B691" s="8"/>
+      <c r="E691" s="8"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="A692" s="7"/>
+      <c r="B692" s="8"/>
+      <c r="E692" s="8"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="A693" s="7"/>
+      <c r="B693" s="8"/>
+      <c r="E693" s="8"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="A694" s="7"/>
+      <c r="B694" s="8"/>
+      <c r="E694" s="8"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="A695" s="7"/>
+      <c r="B695" s="8"/>
+      <c r="E695" s="8"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="A696" s="7"/>
+      <c r="B696" s="8"/>
+      <c r="E696" s="8"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="A697" s="7"/>
+      <c r="B697" s="8"/>
+      <c r="E697" s="8"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="A698" s="7"/>
+      <c r="B698" s="8"/>
+      <c r="E698" s="8"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="A699" s="7"/>
+      <c r="B699" s="8"/>
+      <c r="E699" s="8"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="A700" s="7"/>
+      <c r="B700" s="8"/>
+      <c r="E700" s="8"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="A701" s="7"/>
+      <c r="B701" s="8"/>
+      <c r="E701" s="8"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="A702" s="7"/>
+      <c r="B702" s="8"/>
+      <c r="E702" s="8"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="A703" s="7"/>
+      <c r="B703" s="8"/>
+      <c r="E703" s="8"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="A704" s="7"/>
+      <c r="B704" s="8"/>
+      <c r="E704" s="8"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="A705" s="7"/>
+      <c r="B705" s="8"/>
+      <c r="E705" s="8"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="A706" s="7"/>
+      <c r="B706" s="8"/>
+      <c r="E706" s="8"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="A707" s="7"/>
+      <c r="B707" s="8"/>
+      <c r="E707" s="8"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="A708" s="7"/>
+      <c r="B708" s="8"/>
+      <c r="E708" s="8"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="A709" s="7"/>
+      <c r="B709" s="8"/>
+      <c r="E709" s="8"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="A710" s="7"/>
+      <c r="B710" s="8"/>
+      <c r="E710" s="8"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="A711" s="7"/>
+      <c r="B711" s="8"/>
+      <c r="E711" s="8"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="A712" s="7"/>
+      <c r="B712" s="8"/>
+      <c r="E712" s="8"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="A713" s="7"/>
+      <c r="B713" s="8"/>
+      <c r="E713" s="8"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="A714" s="7"/>
+      <c r="B714" s="8"/>
+      <c r="E714" s="8"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="A715" s="7"/>
+      <c r="B715" s="8"/>
+      <c r="E715" s="8"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="A716" s="7"/>
+      <c r="B716" s="8"/>
+      <c r="E716" s="8"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="A717" s="7"/>
+      <c r="B717" s="8"/>
+      <c r="E717" s="8"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="A718" s="7"/>
+      <c r="B718" s="8"/>
+      <c r="E718" s="8"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="A719" s="7"/>
+      <c r="B719" s="8"/>
+      <c r="E719" s="8"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="A720" s="7"/>
+      <c r="B720" s="8"/>
+      <c r="E720" s="8"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="A721" s="7"/>
+      <c r="B721" s="8"/>
+      <c r="E721" s="8"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="A722" s="7"/>
+      <c r="B722" s="8"/>
+      <c r="E722" s="8"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="A723" s="7"/>
+      <c r="B723" s="8"/>
+      <c r="E723" s="8"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="A724" s="7"/>
+      <c r="B724" s="8"/>
+      <c r="E724" s="8"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="A725" s="7"/>
+      <c r="B725" s="8"/>
+      <c r="E725" s="8"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="A726" s="7"/>
+      <c r="B726" s="8"/>
+      <c r="E726" s="8"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="A727" s="7"/>
+      <c r="B727" s="8"/>
+      <c r="E727" s="8"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="A728" s="7"/>
+      <c r="B728" s="8"/>
+      <c r="E728" s="8"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="A729" s="7"/>
+      <c r="B729" s="8"/>
+      <c r="E729" s="8"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="A730" s="7"/>
+      <c r="B730" s="8"/>
+      <c r="E730" s="8"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="A731" s="7"/>
+      <c r="B731" s="8"/>
+      <c r="E731" s="8"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="A732" s="7"/>
+      <c r="B732" s="8"/>
+      <c r="E732" s="8"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="A733" s="7"/>
+      <c r="B733" s="8"/>
+      <c r="E733" s="8"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="A734" s="7"/>
+      <c r="B734" s="8"/>
+      <c r="E734" s="8"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="A735" s="7"/>
+      <c r="B735" s="8"/>
+      <c r="E735" s="8"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="A736" s="7"/>
+      <c r="B736" s="8"/>
+      <c r="E736" s="8"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="A737" s="7"/>
+      <c r="B737" s="8"/>
+      <c r="E737" s="8"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="A738" s="7"/>
+      <c r="B738" s="8"/>
+      <c r="E738" s="8"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="A739" s="7"/>
+      <c r="B739" s="8"/>
+      <c r="E739" s="8"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="A740" s="7"/>
+      <c r="B740" s="8"/>
+      <c r="E740" s="8"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="A741" s="7"/>
+      <c r="B741" s="8"/>
+      <c r="E741" s="8"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="A742" s="7"/>
+      <c r="B742" s="8"/>
+      <c r="E742" s="8"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="A743" s="7"/>
+      <c r="B743" s="8"/>
+      <c r="E743" s="8"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="A744" s="7"/>
+      <c r="B744" s="8"/>
+      <c r="E744" s="8"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="A745" s="7"/>
+      <c r="B745" s="8"/>
+      <c r="E745" s="8"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="A746" s="7"/>
+      <c r="B746" s="8"/>
+      <c r="E746" s="8"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="A747" s="7"/>
+      <c r="B747" s="8"/>
+      <c r="E747" s="8"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="A748" s="7"/>
+      <c r="B748" s="8"/>
+      <c r="E748" s="8"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="A749" s="7"/>
+      <c r="B749" s="8"/>
+      <c r="E749" s="8"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="A750" s="7"/>
+      <c r="B750" s="8"/>
+      <c r="E750" s="8"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="A751" s="7"/>
+      <c r="B751" s="8"/>
+      <c r="E751" s="8"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="A752" s="7"/>
+      <c r="B752" s="8"/>
+      <c r="E752" s="8"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="A753" s="7"/>
+      <c r="B753" s="8"/>
+      <c r="E753" s="8"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="A754" s="7"/>
+      <c r="B754" s="8"/>
+      <c r="E754" s="8"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="A755" s="7"/>
+      <c r="B755" s="8"/>
+      <c r="E755" s="8"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="A756" s="7"/>
+      <c r="B756" s="8"/>
+      <c r="E756" s="8"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="A757" s="7"/>
+      <c r="B757" s="8"/>
+      <c r="E757" s="8"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="A758" s="7"/>
+      <c r="B758" s="8"/>
+      <c r="E758" s="8"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="A759" s="7"/>
+      <c r="B759" s="8"/>
+      <c r="E759" s="8"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="A760" s="7"/>
+      <c r="B760" s="8"/>
+      <c r="E760" s="8"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="A761" s="7"/>
+      <c r="B761" s="8"/>
+      <c r="E761" s="8"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="A762" s="7"/>
+      <c r="B762" s="8"/>
+      <c r="E762" s="8"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="A763" s="7"/>
+      <c r="B763" s="8"/>
+      <c r="E763" s="8"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="A764" s="7"/>
+      <c r="B764" s="8"/>
+      <c r="E764" s="8"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="A765" s="7"/>
+      <c r="B765" s="8"/>
+      <c r="E765" s="8"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="A766" s="7"/>
+      <c r="B766" s="8"/>
+      <c r="E766" s="8"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="A767" s="7"/>
+      <c r="B767" s="8"/>
+      <c r="E767" s="8"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="A768" s="7"/>
+      <c r="B768" s="8"/>
+      <c r="E768" s="8"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="A769" s="7"/>
+      <c r="B769" s="8"/>
+      <c r="E769" s="8"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="A770" s="7"/>
+      <c r="B770" s="8"/>
+      <c r="E770" s="8"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="A771" s="7"/>
+      <c r="B771" s="8"/>
+      <c r="E771" s="8"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="A772" s="7"/>
+      <c r="B772" s="8"/>
+      <c r="E772" s="8"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="A773" s="7"/>
+      <c r="B773" s="8"/>
+      <c r="E773" s="8"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="A774" s="7"/>
+      <c r="B774" s="8"/>
+      <c r="E774" s="8"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="A775" s="7"/>
+      <c r="B775" s="8"/>
+      <c r="E775" s="8"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="A776" s="7"/>
+      <c r="B776" s="8"/>
+      <c r="E776" s="8"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="A777" s="7"/>
+      <c r="B777" s="8"/>
+      <c r="E777" s="8"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="A778" s="7"/>
+      <c r="B778" s="8"/>
+      <c r="E778" s="8"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="A779" s="7"/>
+      <c r="B779" s="8"/>
+      <c r="E779" s="8"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="A780" s="7"/>
+      <c r="B780" s="8"/>
+      <c r="E780" s="8"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="A781" s="7"/>
+      <c r="B781" s="8"/>
+      <c r="E781" s="8"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="A782" s="7"/>
+      <c r="B782" s="8"/>
+      <c r="E782" s="8"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="A783" s="7"/>
+      <c r="B783" s="8"/>
+      <c r="E783" s="8"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="A784" s="7"/>
+      <c r="B784" s="8"/>
+      <c r="E784" s="8"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="A785" s="7"/>
+      <c r="B785" s="8"/>
+      <c r="E785" s="8"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="A786" s="7"/>
+      <c r="B786" s="8"/>
+      <c r="E786" s="8"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="A787" s="7"/>
+      <c r="B787" s="8"/>
+      <c r="E787" s="8"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="A788" s="7"/>
+      <c r="B788" s="8"/>
+      <c r="E788" s="8"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="A789" s="7"/>
+      <c r="B789" s="8"/>
+      <c r="E789" s="8"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="A790" s="7"/>
+      <c r="B790" s="8"/>
+      <c r="E790" s="8"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="A791" s="7"/>
+      <c r="B791" s="8"/>
+      <c r="E791" s="8"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="A792" s="7"/>
+      <c r="B792" s="8"/>
+      <c r="E792" s="8"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="A793" s="7"/>
+      <c r="B793" s="8"/>
+      <c r="E793" s="8"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="A794" s="7"/>
+      <c r="B794" s="8"/>
+      <c r="E794" s="8"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="A795" s="7"/>
+      <c r="B795" s="8"/>
+      <c r="E795" s="8"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="A796" s="7"/>
+      <c r="B796" s="8"/>
+      <c r="E796" s="8"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="A797" s="7"/>
+      <c r="B797" s="8"/>
+      <c r="E797" s="8"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="A798" s="7"/>
+      <c r="B798" s="8"/>
+      <c r="E798" s="8"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="A799" s="7"/>
+      <c r="B799" s="8"/>
+      <c r="E799" s="8"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="A800" s="7"/>
+      <c r="B800" s="8"/>
+      <c r="E800" s="8"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="A801" s="7"/>
+      <c r="B801" s="8"/>
+      <c r="E801" s="8"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="A802" s="7"/>
+      <c r="B802" s="8"/>
+      <c r="E802" s="8"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="A803" s="7"/>
+      <c r="B803" s="8"/>
+      <c r="E803" s="8"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="A804" s="7"/>
+      <c r="B804" s="8"/>
+      <c r="E804" s="8"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="A805" s="7"/>
+      <c r="B805" s="8"/>
+      <c r="E805" s="8"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="A806" s="7"/>
+      <c r="B806" s="8"/>
+      <c r="E806" s="8"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="A807" s="7"/>
+      <c r="B807" s="8"/>
+      <c r="E807" s="8"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="A808" s="7"/>
+      <c r="B808" s="8"/>
+      <c r="E808" s="8"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="A809" s="7"/>
+      <c r="B809" s="8"/>
+      <c r="E809" s="8"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="A810" s="7"/>
+      <c r="B810" s="8"/>
+      <c r="E810" s="8"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="A811" s="7"/>
+      <c r="B811" s="8"/>
+      <c r="E811" s="8"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="A812" s="7"/>
+      <c r="B812" s="8"/>
+      <c r="E812" s="8"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="A813" s="7"/>
+      <c r="B813" s="8"/>
+      <c r="E813" s="8"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="A814" s="7"/>
+      <c r="B814" s="8"/>
+      <c r="E814" s="8"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="A815" s="7"/>
+      <c r="B815" s="8"/>
+      <c r="E815" s="8"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="A816" s="7"/>
+      <c r="B816" s="8"/>
+      <c r="E816" s="8"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="A817" s="7"/>
+      <c r="B817" s="8"/>
+      <c r="E817" s="8"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="A818" s="7"/>
+      <c r="B818" s="8"/>
+      <c r="E818" s="8"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="A819" s="7"/>
+      <c r="B819" s="8"/>
+      <c r="E819" s="8"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="A820" s="7"/>
+      <c r="B820" s="8"/>
+      <c r="E820" s="8"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="A821" s="7"/>
+      <c r="B821" s="8"/>
+      <c r="E821" s="8"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="A822" s="7"/>
+      <c r="B822" s="8"/>
+      <c r="E822" s="8"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="A823" s="7"/>
+      <c r="B823" s="8"/>
+      <c r="E823" s="8"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="A824" s="7"/>
+      <c r="B824" s="8"/>
+      <c r="E824" s="8"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="A825" s="7"/>
+      <c r="B825" s="8"/>
+      <c r="E825" s="8"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="A826" s="7"/>
+      <c r="B826" s="8"/>
+      <c r="E826" s="8"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="A827" s="7"/>
+      <c r="B827" s="8"/>
+      <c r="E827" s="8"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="A828" s="7"/>
+      <c r="B828" s="8"/>
+      <c r="E828" s="8"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="A829" s="7"/>
+      <c r="B829" s="8"/>
+      <c r="E829" s="8"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="A830" s="7"/>
+      <c r="B830" s="8"/>
+      <c r="E830" s="8"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="A831" s="7"/>
+      <c r="B831" s="8"/>
+      <c r="E831" s="8"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="A832" s="7"/>
+      <c r="B832" s="8"/>
+      <c r="E832" s="8"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="A833" s="7"/>
+      <c r="B833" s="8"/>
+      <c r="E833" s="8"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="A834" s="7"/>
+      <c r="B834" s="8"/>
+      <c r="E834" s="8"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="A835" s="7"/>
+      <c r="B835" s="8"/>
+      <c r="E835" s="8"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="A836" s="7"/>
+      <c r="B836" s="8"/>
+      <c r="E836" s="8"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="A837" s="7"/>
+      <c r="B837" s="8"/>
+      <c r="E837" s="8"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="A838" s="7"/>
+      <c r="B838" s="8"/>
+      <c r="E838" s="8"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="A839" s="7"/>
+      <c r="B839" s="8"/>
+      <c r="E839" s="8"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="A840" s="7"/>
+      <c r="B840" s="8"/>
+      <c r="E840" s="8"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="A841" s="7"/>
+      <c r="B841" s="8"/>
+      <c r="E841" s="8"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="A842" s="7"/>
+      <c r="B842" s="8"/>
+      <c r="E842" s="8"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="A843" s="7"/>
+      <c r="B843" s="8"/>
+      <c r="E843" s="8"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="A844" s="7"/>
+      <c r="B844" s="8"/>
+      <c r="E844" s="8"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="A845" s="7"/>
+      <c r="B845" s="8"/>
+      <c r="E845" s="8"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="A846" s="7"/>
+      <c r="B846" s="8"/>
+      <c r="E846" s="8"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="A847" s="7"/>
+      <c r="B847" s="8"/>
+      <c r="E847" s="8"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="A848" s="7"/>
+      <c r="B848" s="8"/>
+      <c r="E848" s="8"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="A849" s="7"/>
+      <c r="B849" s="8"/>
+      <c r="E849" s="8"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="A850" s="7"/>
+      <c r="B850" s="8"/>
+      <c r="E850" s="8"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="A851" s="7"/>
+      <c r="B851" s="8"/>
+      <c r="E851" s="8"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="A852" s="7"/>
+      <c r="B852" s="8"/>
+      <c r="E852" s="8"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="A853" s="7"/>
+      <c r="B853" s="8"/>
+      <c r="E853" s="8"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="A854" s="7"/>
+      <c r="B854" s="8"/>
+      <c r="E854" s="8"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="A855" s="7"/>
+      <c r="B855" s="8"/>
+      <c r="E855" s="8"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="A856" s="7"/>
+      <c r="B856" s="8"/>
+      <c r="E856" s="8"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="A857" s="7"/>
+      <c r="B857" s="8"/>
+      <c r="E857" s="8"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="A858" s="7"/>
+      <c r="B858" s="8"/>
+      <c r="E858" s="8"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="A859" s="7"/>
+      <c r="B859" s="8"/>
+      <c r="E859" s="8"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="A860" s="7"/>
+      <c r="B860" s="8"/>
+      <c r="E860" s="8"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="A861" s="7"/>
+      <c r="B861" s="8"/>
+      <c r="E861" s="8"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="A862" s="7"/>
+      <c r="B862" s="8"/>
+      <c r="E862" s="8"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="A863" s="7"/>
+      <c r="B863" s="8"/>
+      <c r="E863" s="8"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="A864" s="7"/>
+      <c r="B864" s="8"/>
+      <c r="E864" s="8"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="A865" s="7"/>
+      <c r="B865" s="8"/>
+      <c r="E865" s="8"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="A866" s="7"/>
+      <c r="B866" s="8"/>
+      <c r="E866" s="8"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="A867" s="7"/>
+      <c r="B867" s="8"/>
+      <c r="E867" s="8"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="A868" s="7"/>
+      <c r="B868" s="8"/>
+      <c r="E868" s="8"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="A869" s="7"/>
+      <c r="B869" s="8"/>
+      <c r="E869" s="8"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="A870" s="7"/>
+      <c r="B870" s="8"/>
+      <c r="E870" s="8"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="A871" s="7"/>
+      <c r="B871" s="8"/>
+      <c r="E871" s="8"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="A872" s="7"/>
+      <c r="B872" s="8"/>
+      <c r="E872" s="8"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="A873" s="7"/>
+      <c r="B873" s="8"/>
+      <c r="E873" s="8"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="A874" s="7"/>
+      <c r="B874" s="8"/>
+      <c r="E874" s="8"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="A875" s="7"/>
+      <c r="B875" s="8"/>
+      <c r="E875" s="8"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="A876" s="7"/>
+      <c r="B876" s="8"/>
+      <c r="E876" s="8"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="A877" s="7"/>
+      <c r="B877" s="8"/>
+      <c r="E877" s="8"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="A878" s="7"/>
+      <c r="B878" s="8"/>
+      <c r="E878" s="8"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="A879" s="7"/>
+      <c r="B879" s="8"/>
+      <c r="E879" s="8"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="A880" s="7"/>
+      <c r="B880" s="8"/>
+      <c r="E880" s="8"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="A881" s="7"/>
+      <c r="B881" s="8"/>
+      <c r="E881" s="8"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="A882" s="7"/>
+      <c r="B882" s="8"/>
+      <c r="E882" s="8"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="A883" s="7"/>
+      <c r="B883" s="8"/>
+      <c r="E883" s="8"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="A884" s="7"/>
+      <c r="B884" s="8"/>
+      <c r="E884" s="8"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="A885" s="7"/>
+      <c r="B885" s="8"/>
+      <c r="E885" s="8"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="A886" s="7"/>
+      <c r="B886" s="8"/>
+      <c r="E886" s="8"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="A887" s="7"/>
+      <c r="B887" s="8"/>
+      <c r="E887" s="8"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="A888" s="7"/>
+      <c r="B888" s="8"/>
+      <c r="E888" s="8"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="A889" s="7"/>
+      <c r="B889" s="8"/>
+      <c r="E889" s="8"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="A890" s="7"/>
+      <c r="B890" s="8"/>
+      <c r="E890" s="8"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="A891" s="7"/>
+      <c r="B891" s="8"/>
+      <c r="E891" s="8"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="A892" s="7"/>
+      <c r="B892" s="8"/>
+      <c r="E892" s="8"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="A893" s="7"/>
+      <c r="B893" s="8"/>
+      <c r="E893" s="8"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="A894" s="7"/>
+      <c r="B894" s="8"/>
+      <c r="E894" s="8"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="A895" s="7"/>
+      <c r="B895" s="8"/>
+      <c r="E895" s="8"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="A896" s="7"/>
+      <c r="B896" s="8"/>
+      <c r="E896" s="8"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="A897" s="7"/>
+      <c r="B897" s="8"/>
+      <c r="E897" s="8"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="A898" s="7"/>
+      <c r="B898" s="8"/>
+      <c r="E898" s="8"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="A899" s="7"/>
+      <c r="B899" s="8"/>
+      <c r="E899" s="8"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="A900" s="7"/>
+      <c r="B900" s="8"/>
+      <c r="E900" s="8"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="A901" s="7"/>
+      <c r="B901" s="8"/>
+      <c r="E901" s="8"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="A902" s="7"/>
+      <c r="B902" s="8"/>
+      <c r="E902" s="8"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="A903" s="7"/>
+      <c r="B903" s="8"/>
+      <c r="E903" s="8"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="A904" s="7"/>
+      <c r="B904" s="8"/>
+      <c r="E904" s="8"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="A905" s="7"/>
+      <c r="B905" s="8"/>
+      <c r="E905" s="8"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="A906" s="7"/>
+      <c r="B906" s="8"/>
+      <c r="E906" s="8"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="A907" s="7"/>
+      <c r="B907" s="8"/>
+      <c r="E907" s="8"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="A908" s="7"/>
+      <c r="B908" s="8"/>
+      <c r="E908" s="8"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="A909" s="7"/>
+      <c r="B909" s="8"/>
+      <c r="E909" s="8"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="A910" s="7"/>
+      <c r="B910" s="8"/>
+      <c r="E910" s="8"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="A911" s="7"/>
+      <c r="B911" s="8"/>
+      <c r="E911" s="8"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="A912" s="7"/>
+      <c r="B912" s="8"/>
+      <c r="E912" s="8"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="A913" s="7"/>
+      <c r="B913" s="8"/>
+      <c r="E913" s="8"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="A914" s="7"/>
+      <c r="B914" s="8"/>
+      <c r="E914" s="8"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="A915" s="7"/>
+      <c r="B915" s="8"/>
+      <c r="E915" s="8"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="A916" s="7"/>
+      <c r="B916" s="8"/>
+      <c r="E916" s="8"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="A917" s="7"/>
+      <c r="B917" s="8"/>
+      <c r="E917" s="8"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="A918" s="7"/>
+      <c r="B918" s="8"/>
+      <c r="E918" s="8"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="A919" s="7"/>
+      <c r="B919" s="8"/>
+      <c r="E919" s="8"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="A920" s="7"/>
+      <c r="B920" s="8"/>
+      <c r="E920" s="8"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="A921" s="7"/>
+      <c r="B921" s="8"/>
+      <c r="E921" s="8"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="A922" s="7"/>
+      <c r="B922" s="8"/>
+      <c r="E922" s="8"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="A923" s="7"/>
+      <c r="B923" s="8"/>
+      <c r="E923" s="8"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="A924" s="7"/>
+      <c r="B924" s="8"/>
+      <c r="E924" s="8"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="A925" s="7"/>
+      <c r="B925" s="8"/>
+      <c r="E925" s="8"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="A926" s="7"/>
+      <c r="B926" s="8"/>
+      <c r="E926" s="8"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="A927" s="7"/>
+      <c r="B927" s="8"/>
+      <c r="E927" s="8"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="A928" s="7"/>
+      <c r="B928" s="8"/>
+      <c r="E928" s="8"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="A929" s="7"/>
+      <c r="B929" s="8"/>
+      <c r="E929" s="8"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="A930" s="7"/>
+      <c r="B930" s="8"/>
+      <c r="E930" s="8"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="A931" s="7"/>
+      <c r="B931" s="8"/>
+      <c r="E931" s="8"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="A932" s="7"/>
+      <c r="B932" s="8"/>
+      <c r="E932" s="8"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="A933" s="7"/>
+      <c r="B933" s="8"/>
+      <c r="E933" s="8"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="A934" s="7"/>
+      <c r="B934" s="8"/>
+      <c r="E934" s="8"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="A935" s="7"/>
+      <c r="B935" s="8"/>
+      <c r="E935" s="8"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="A936" s="7"/>
+      <c r="B936" s="8"/>
+      <c r="E936" s="8"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="A937" s="7"/>
+      <c r="B937" s="8"/>
+      <c r="E937" s="8"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="A938" s="7"/>
+      <c r="B938" s="8"/>
+      <c r="E938" s="8"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="A939" s="7"/>
+      <c r="B939" s="8"/>
+      <c r="E939" s="8"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="A940" s="7"/>
+      <c r="B940" s="8"/>
+      <c r="E940" s="8"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="A941" s="7"/>
+      <c r="B941" s="8"/>
+      <c r="E941" s="8"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="A942" s="7"/>
+      <c r="B942" s="8"/>
+      <c r="E942" s="8"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="A943" s="7"/>
+      <c r="B943" s="8"/>
+      <c r="E943" s="8"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="A944" s="7"/>
+      <c r="B944" s="8"/>
+      <c r="E944" s="8"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="A945" s="7"/>
+      <c r="B945" s="8"/>
+      <c r="E945" s="8"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="A946" s="7"/>
+      <c r="B946" s="8"/>
+      <c r="E946" s="8"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="A947" s="7"/>
+      <c r="B947" s="8"/>
+      <c r="E947" s="8"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="A948" s="7"/>
+      <c r="B948" s="8"/>
+      <c r="E948" s="8"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="A949" s="7"/>
+      <c r="B949" s="8"/>
+      <c r="E949" s="8"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="A950" s="7"/>
+      <c r="B950" s="8"/>
+      <c r="E950" s="8"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="A951" s="7"/>
+      <c r="B951" s="8"/>
+      <c r="E951" s="8"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="A952" s="7"/>
+      <c r="B952" s="8"/>
+      <c r="E952" s="8"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="A953" s="7"/>
+      <c r="B953" s="8"/>
+      <c r="E953" s="8"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="A954" s="7"/>
+      <c r="B954" s="8"/>
+      <c r="E954" s="8"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="A955" s="7"/>
+      <c r="B955" s="8"/>
+      <c r="E955" s="8"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="A956" s="7"/>
+      <c r="B956" s="8"/>
+      <c r="E956" s="8"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="A957" s="7"/>
+      <c r="B957" s="8"/>
+      <c r="E957" s="8"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="A958" s="7"/>
+      <c r="B958" s="8"/>
+      <c r="E958" s="8"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="A959" s="7"/>
+      <c r="B959" s="8"/>
+      <c r="E959" s="8"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="A960" s="7"/>
+      <c r="B960" s="8"/>
+      <c r="E960" s="8"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="A961" s="7"/>
+      <c r="B961" s="8"/>
+      <c r="E961" s="8"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="A962" s="7"/>
+      <c r="B962" s="8"/>
+      <c r="E962" s="8"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="A963" s="7"/>
+      <c r="B963" s="8"/>
+      <c r="E963" s="8"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="A964" s="7"/>
+      <c r="B964" s="8"/>
+      <c r="E964" s="8"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="A965" s="7"/>
+      <c r="B965" s="8"/>
+      <c r="E965" s="8"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="A966" s="7"/>
+      <c r="B966" s="8"/>
+      <c r="E966" s="8"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="A967" s="7"/>
+      <c r="B967" s="8"/>
+      <c r="E967" s="8"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="A968" s="7"/>
+      <c r="B968" s="8"/>
+      <c r="E968" s="8"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="A969" s="7"/>
+      <c r="B969" s="8"/>
+      <c r="E969" s="8"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="A970" s="7"/>
+      <c r="B970" s="8"/>
+      <c r="E970" s="8"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="A971" s="7"/>
+      <c r="B971" s="8"/>
+      <c r="E971" s="8"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="A972" s="7"/>
+      <c r="B972" s="8"/>
+      <c r="E972" s="8"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="A973" s="7"/>
+      <c r="B973" s="8"/>
+      <c r="E973" s="8"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="A974" s="7"/>
+      <c r="B974" s="8"/>
+      <c r="E974" s="8"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="A975" s="7"/>
+      <c r="B975" s="8"/>
+      <c r="E975" s="8"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="A976" s="7"/>
+      <c r="B976" s="8"/>
+      <c r="E976" s="8"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="A977" s="7"/>
+      <c r="B977" s="8"/>
+      <c r="E977" s="8"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="A978" s="7"/>
+      <c r="B978" s="8"/>
+      <c r="E978" s="8"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="A979" s="7"/>
+      <c r="B979" s="8"/>
+      <c r="E979" s="8"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="A980" s="7"/>
+      <c r="B980" s="8"/>
+      <c r="E980" s="8"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="A981" s="7"/>
+      <c r="B981" s="8"/>
+      <c r="E981" s="8"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="A982" s="7"/>
+      <c r="B982" s="8"/>
+      <c r="E982" s="8"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="A983" s="7"/>
+      <c r="B983" s="8"/>
+      <c r="E983" s="8"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="A984" s="7"/>
+      <c r="B984" s="8"/>
+      <c r="E984" s="8"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="A985" s="7"/>
+      <c r="B985" s="8"/>
+      <c r="E985" s="8"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="A986" s="7"/>
+      <c r="B986" s="8"/>
+      <c r="E986" s="8"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="A987" s="7"/>
+      <c r="B987" s="8"/>
+      <c r="E987" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="71">
+    <mergeCell ref="AM2:AM4"/>
+    <mergeCell ref="AN2:AN4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AQ4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="AL2:AL4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="BA2:BA4"/>
+    <mergeCell ref="AO6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="AX6:BA6"/>
+    <mergeCell ref="BB6:BE6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="F6:J6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F10:BE10 F13:BE13">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND($B10="Maximum",F10&gt;=F11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:BE10 F13:BE13">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND($B10="Minimum",50%&gt;F12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:BE10 F13:BE13">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(F10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B10 B13">
+      <formula1>"Maximum,Minimum"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B11 B14">
+      <formula1>"Long-Term,Short-Term"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/templates/management/Balance Scorecard (BSC).xlsx
+++ b/templates/management/Balance Scorecard (BSC).xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="BERvaqtXSPBSGqlfiskO/Ggi+SOyyx2+IACiiYtFpsU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="GWug7MWjzAta6UaDoivwDwpRKu51o5XpQ53swl4d3UE="/>
     </ext>
   </extLst>
 </workbook>
@@ -82,33 +82,15 @@
 ======</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A32">
-      <text>
-        <t xml:space="preserve">The number of new customers successfully registered for Telkomsel's services.
-======</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B33">
       <text>
         <t xml:space="preserve">Weight
 ======</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A35">
-      <text>
-        <t xml:space="preserve">The number of new customers successfully registered for Telkomsel's services.
-======</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B36">
       <text>
         <t xml:space="preserve">Weight
-======</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A38">
-      <text>
-        <t xml:space="preserve">The number of new customers successfully registered for Telkomsel's services.
 ======</t>
       </text>
     </comment>
@@ -146,12 +128,18 @@
 ======</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B20">
+      <text>
+        <t xml:space="preserve">Weight
+======</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="40">
   <si>
     <t>PT. Telkom Indonesia (Persero) Tbk., atau Telkom, adalah Badan Usaha Milik Negara (BUMN) yang bergerak di bidang jasa layanan teknologi informasi dan komunikasi (TIK) dan jaringan telekomunikasi di Indonesia.</t>
   </si>
@@ -210,7 +198,7 @@
     <t>Telkomsel - Pasca Bayar</t>
   </si>
   <si>
-    <t>Maximum</t>
+    <t>Minimum</t>
   </si>
   <si>
     <t>Actual</t>
@@ -228,10 +216,10 @@
     <t>% Target</t>
   </si>
   <si>
-    <t>Minimum</t>
+    <t>Customer Retention (Churn Rate)</t>
   </si>
   <si>
-    <t>Customer Retention (Churn Rate)</t>
+    <t>Maximum</t>
   </si>
   <si>
     <t>Total Revenue</t>
@@ -268,6 +256,9 @@
   </si>
   <si>
     <t>Research Contributions</t>
+  </si>
+  <si>
+    <t>Agung Sundoro</t>
   </si>
 </sst>
 </file>
@@ -441,8 +432,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
       <border/>
@@ -451,8 +442,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
       <border/>
@@ -760,211 +751,211 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4">
         <f t="shared" ref="F1:BE1" si="1">AVERAGEIFS(F9:F1013,$E9:$E1013,"% Target")</f>
-        <v>0.4638648736</v>
+        <v>0.5476855879</v>
       </c>
       <c r="G1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4212501978</v>
+        <v>0.4958593407</v>
       </c>
       <c r="H1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4243593571</v>
+        <v>0.3818893571</v>
       </c>
       <c r="I1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5773431319</v>
+        <v>0.575169989</v>
       </c>
       <c r="J1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5991617418</v>
+        <v>0.5814697418</v>
       </c>
       <c r="K1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5606149231</v>
+        <v>0.4971453516</v>
       </c>
       <c r="L1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4173091044</v>
+        <v>0.572833533</v>
       </c>
       <c r="M1" s="4">
         <f t="shared" si="1"/>
-        <v>0.497349</v>
+        <v>0.5798191429</v>
       </c>
       <c r="N1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4693921813</v>
+        <v>0.5578983242</v>
       </c>
       <c r="O1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5918385055</v>
+        <v>0.5489223626</v>
       </c>
       <c r="P1" s="4">
         <f t="shared" si="1"/>
-        <v>0.598028544</v>
+        <v>0.6871329725</v>
       </c>
       <c r="Q1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5604934396</v>
+        <v>0.6182335824</v>
       </c>
       <c r="R1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6210129066</v>
+        <v>0.4932197637</v>
       </c>
       <c r="S1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5318173736</v>
+        <v>0.4935375165</v>
       </c>
       <c r="T1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5642386978</v>
+        <v>0.6285525549</v>
       </c>
       <c r="U1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6157094505</v>
+        <v>0.6043277363</v>
       </c>
       <c r="V1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6886800604</v>
+        <v>0.5898452033</v>
       </c>
       <c r="W1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6462400989</v>
+        <v>0.7299640989</v>
       </c>
       <c r="X1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5834614231</v>
+        <v>0.5666115659</v>
       </c>
       <c r="Y1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5786341758</v>
+        <v>0.606244033</v>
       </c>
       <c r="Z1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7124637857</v>
+        <v>0.6258436429</v>
       </c>
       <c r="AA1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6957811099</v>
+        <v>0.7588926813</v>
       </c>
       <c r="AB1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6757025769</v>
+        <v>0.7149505769</v>
       </c>
       <c r="AC1" s="4">
         <f t="shared" si="1"/>
-        <v>0.717163044</v>
+        <v>0.809738044</v>
       </c>
       <c r="AD1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6517257967</v>
+        <v>0.7316729396</v>
       </c>
       <c r="AE1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7998044066</v>
+        <v>0.7580118352</v>
       </c>
       <c r="AF1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8329143022</v>
+        <v>0.7018445879</v>
       </c>
       <c r="AG1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7211344835</v>
+        <v>0.7790114835</v>
       </c>
       <c r="AH1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8532269505</v>
+        <v>0.7715890934</v>
       </c>
       <c r="AI1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8721604176</v>
+        <v>0.7752677033</v>
       </c>
       <c r="AJ1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8413643132</v>
+        <v>0.7765193132</v>
       </c>
       <c r="AK1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6858274945</v>
+        <v>0.7806887802</v>
       </c>
       <c r="AL1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8837183901</v>
+        <v>0.8285609615</v>
       </c>
       <c r="AM1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8655228571</v>
+        <v>0.8736687143</v>
       </c>
       <c r="AN1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9152473242</v>
+        <v>0.8941190385</v>
       </c>
       <c r="AO1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8816346484</v>
+        <v>0.8578730769</v>
       </c>
       <c r="AP1" s="4">
         <f t="shared" si="1"/>
-        <v>0.914159544</v>
+        <v>0.9002958297</v>
       </c>
       <c r="AQ1" s="4">
         <f t="shared" si="1"/>
-        <v>0.817694011</v>
+        <v>0.8326777253</v>
       </c>
       <c r="AR1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9022257637</v>
+        <v>0.8648131923</v>
       </c>
       <c r="AS1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9331478022</v>
+        <v>0.9090312308</v>
       </c>
       <c r="AT1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9258779835</v>
+        <v>0.9869829835</v>
       </c>
       <c r="AU1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9565327363</v>
+        <v>0.926104022</v>
       </c>
       <c r="AV1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9854900604</v>
+        <v>0.9530286319</v>
       </c>
       <c r="AW1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9118253846</v>
+        <v>0.9556492418</v>
       </c>
       <c r="AX1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8783738516</v>
+        <v>0.9719321374</v>
       </c>
       <c r="AY1" s="4">
         <f t="shared" si="1"/>
-        <v>0.988050033</v>
+        <v>1.07047889</v>
       </c>
       <c r="AZ1" s="4">
         <f t="shared" si="1"/>
-        <v>1.109258357</v>
+        <v>1.112661643</v>
       </c>
       <c r="BA1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9573701099</v>
+        <v>1.071864396</v>
       </c>
       <c r="BB1" s="4">
         <f t="shared" si="1"/>
-        <v>1.048797005</v>
+        <v>1.027063577</v>
       </c>
       <c r="BC1" s="4">
         <f t="shared" si="1"/>
-        <v>1.078631901</v>
+        <v>1.062574187</v>
       </c>
       <c r="BD1" s="4">
         <f t="shared" si="1"/>
-        <v>1.044837082</v>
+        <v>1.063307797</v>
       </c>
       <c r="BE1" s="4">
         <f t="shared" si="1"/>
-        <v>1.079387407</v>
+        <v>1.102497264</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -1420,7 +1411,7 @@
       <c r="B9" s="19"/>
       <c r="C9" s="20">
         <f>SUMIFS(C10:C1013,A10:A1013,A10)</f>
-        <v>0.8890123978</v>
+        <v>0.9026899011</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
@@ -1486,7 +1477,7 @@
       </c>
       <c r="C10" s="25">
         <f t="array" ref="C10">IF( B11="Short-Term", AVERAGE(F12:BE12)*B12, INDEX(F12:BE12, 1, COUNTA(F12:BE12))*B12 )</f>
-        <v>0.2994678923</v>
+        <v>0.3030948462</v>
       </c>
       <c r="D10" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B11=""Short-Term"", SPARKLINE(F12:BE12,IF(B10=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F12:BE12, 1, COUNTA(F12:BE12)) ,IF(B10=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -1497,211 +1488,211 @@
       </c>
       <c r="F10" s="26">
         <f t="shared" ref="F10:BE10" si="2">RANDBETWEEN(100000,150000)</f>
-        <v>148176</v>
+        <v>131164</v>
       </c>
       <c r="G10" s="26">
         <f t="shared" si="2"/>
-        <v>100948</v>
+        <v>131550</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="2"/>
-        <v>100404</v>
+        <v>145441</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="2"/>
-        <v>147475</v>
+        <v>122341</v>
       </c>
       <c r="J10" s="26">
         <f t="shared" si="2"/>
-        <v>127591</v>
+        <v>147101</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="2"/>
-        <v>129538</v>
+        <v>130253</v>
       </c>
       <c r="L10" s="26">
         <f t="shared" si="2"/>
-        <v>105976</v>
+        <v>106321</v>
       </c>
       <c r="M10" s="26">
         <f t="shared" si="2"/>
-        <v>149974</v>
+        <v>103413</v>
       </c>
       <c r="N10" s="26">
         <f t="shared" si="2"/>
-        <v>119761</v>
+        <v>112715</v>
       </c>
       <c r="O10" s="26">
         <f t="shared" si="2"/>
-        <v>113969</v>
+        <v>105340</v>
       </c>
       <c r="P10" s="26">
         <f t="shared" si="2"/>
-        <v>134260</v>
+        <v>107207</v>
       </c>
       <c r="Q10" s="26">
         <f t="shared" si="2"/>
-        <v>113433</v>
+        <v>110184</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="2"/>
-        <v>139107</v>
+        <v>128704</v>
       </c>
       <c r="S10" s="26">
         <f t="shared" si="2"/>
-        <v>113941</v>
+        <v>116321</v>
       </c>
       <c r="T10" s="26">
         <f t="shared" si="2"/>
-        <v>121249</v>
+        <v>141955</v>
       </c>
       <c r="U10" s="26">
         <f t="shared" si="2"/>
-        <v>121410</v>
+        <v>119061</v>
       </c>
       <c r="V10" s="26">
         <f t="shared" si="2"/>
-        <v>143553</v>
+        <v>140264</v>
       </c>
       <c r="W10" s="26">
         <f t="shared" si="2"/>
-        <v>145589</v>
+        <v>116562</v>
       </c>
       <c r="X10" s="26">
         <f t="shared" si="2"/>
-        <v>115822</v>
+        <v>123635</v>
       </c>
       <c r="Y10" s="26">
         <f t="shared" si="2"/>
-        <v>124810</v>
+        <v>121473</v>
       </c>
       <c r="Z10" s="26">
         <f t="shared" si="2"/>
-        <v>141062</v>
+        <v>112076</v>
       </c>
       <c r="AA10" s="26">
         <f t="shared" si="2"/>
-        <v>115516</v>
+        <v>123301</v>
       </c>
       <c r="AB10" s="26">
         <f t="shared" si="2"/>
-        <v>119842</v>
+        <v>138785</v>
       </c>
       <c r="AC10" s="26">
         <f t="shared" si="2"/>
-        <v>100207</v>
+        <v>134218</v>
       </c>
       <c r="AD10" s="26">
         <f t="shared" si="2"/>
-        <v>110085</v>
+        <v>115450</v>
       </c>
       <c r="AE10" s="26">
         <f t="shared" si="2"/>
-        <v>145711</v>
+        <v>139403</v>
       </c>
       <c r="AF10" s="26">
         <f t="shared" si="2"/>
-        <v>132779</v>
+        <v>134505</v>
       </c>
       <c r="AG10" s="26">
         <f t="shared" si="2"/>
-        <v>127243</v>
+        <v>104880</v>
       </c>
       <c r="AH10" s="26">
         <f t="shared" si="2"/>
-        <v>116740</v>
+        <v>121755</v>
       </c>
       <c r="AI10" s="26">
         <f t="shared" si="2"/>
-        <v>122453</v>
+        <v>133154</v>
       </c>
       <c r="AJ10" s="26">
         <f t="shared" si="2"/>
-        <v>147240</v>
+        <v>128855</v>
       </c>
       <c r="AK10" s="26">
         <f t="shared" si="2"/>
-        <v>108572</v>
+        <v>144031</v>
       </c>
       <c r="AL10" s="26">
         <f t="shared" si="2"/>
-        <v>125046</v>
+        <v>123665</v>
       </c>
       <c r="AM10" s="26">
         <f t="shared" si="2"/>
-        <v>147505</v>
+        <v>133617</v>
       </c>
       <c r="AN10" s="26">
         <f t="shared" si="2"/>
-        <v>109259</v>
+        <v>138155</v>
       </c>
       <c r="AO10" s="26">
         <f t="shared" si="2"/>
-        <v>111158</v>
+        <v>124175</v>
       </c>
       <c r="AP10" s="26">
         <f t="shared" si="2"/>
-        <v>130391</v>
+        <v>147187</v>
       </c>
       <c r="AQ10" s="26">
         <f t="shared" si="2"/>
-        <v>147830</v>
+        <v>126847</v>
       </c>
       <c r="AR10" s="26">
         <f t="shared" si="2"/>
-        <v>119927</v>
+        <v>107057</v>
       </c>
       <c r="AS10" s="26">
         <f t="shared" si="2"/>
-        <v>120825</v>
+        <v>145238</v>
       </c>
       <c r="AT10" s="26">
         <f t="shared" si="2"/>
-        <v>100549</v>
+        <v>122971</v>
       </c>
       <c r="AU10" s="26">
         <f t="shared" si="2"/>
-        <v>110894</v>
+        <v>142624</v>
       </c>
       <c r="AV10" s="26">
         <f t="shared" si="2"/>
-        <v>112988</v>
+        <v>108527</v>
       </c>
       <c r="AW10" s="26">
         <f t="shared" si="2"/>
-        <v>122960</v>
+        <v>127734</v>
       </c>
       <c r="AX10" s="26">
         <f t="shared" si="2"/>
-        <v>133038</v>
+        <v>104993</v>
       </c>
       <c r="AY10" s="26">
         <f t="shared" si="2"/>
-        <v>106208</v>
+        <v>102256</v>
       </c>
       <c r="AZ10" s="26">
         <f t="shared" si="2"/>
-        <v>146428</v>
+        <v>101258</v>
       </c>
       <c r="BA10" s="26">
         <f t="shared" si="2"/>
-        <v>100980</v>
+        <v>107740</v>
       </c>
       <c r="BB10" s="26">
         <f t="shared" si="2"/>
-        <v>132365</v>
+        <v>108297</v>
       </c>
       <c r="BC10" s="26">
         <f t="shared" si="2"/>
-        <v>130158</v>
+        <v>105489</v>
       </c>
       <c r="BD10" s="26">
         <f t="shared" si="2"/>
-        <v>144732</v>
+        <v>141458</v>
       </c>
       <c r="BE10" s="26">
         <f t="shared" si="2"/>
-        <v>130794</v>
+        <v>122239</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1880,211 +1871,211 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ref="F12:BE12" si="3">IF( $B10="Maximum", F10/F11 , IF( 100%-(F10-F11)/F11 &gt; 0, 100%-(F10-F11)/F11, 0) )</f>
-        <v>1.185408</v>
+        <v>0.950688</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="3"/>
-        <v>0.807584</v>
+        <v>0.9476</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" si="3"/>
-        <v>0.803232</v>
+        <v>0.836472</v>
       </c>
       <c r="I12" s="29">
         <f t="shared" si="3"/>
-        <v>1.1798</v>
+        <v>1.021272</v>
       </c>
       <c r="J12" s="29">
         <f t="shared" si="3"/>
-        <v>1.020728</v>
+        <v>0.823192</v>
       </c>
       <c r="K12" s="29">
         <f t="shared" si="3"/>
-        <v>1.036304</v>
+        <v>0.957976</v>
       </c>
       <c r="L12" s="29">
         <f t="shared" si="3"/>
-        <v>0.847808</v>
+        <v>1.149432</v>
       </c>
       <c r="M12" s="29">
         <f t="shared" si="3"/>
-        <v>1.199792</v>
+        <v>1.172696</v>
       </c>
       <c r="N12" s="29">
         <f t="shared" si="3"/>
-        <v>0.958088</v>
+        <v>1.09828</v>
       </c>
       <c r="O12" s="29">
         <f t="shared" si="3"/>
-        <v>0.911752</v>
+        <v>1.15728</v>
       </c>
       <c r="P12" s="29">
         <f t="shared" si="3"/>
-        <v>1.07408</v>
+        <v>1.142344</v>
       </c>
       <c r="Q12" s="29">
         <f t="shared" si="3"/>
-        <v>0.907464</v>
+        <v>1.118528</v>
       </c>
       <c r="R12" s="29">
         <f t="shared" si="3"/>
-        <v>1.112856</v>
+        <v>0.970368</v>
       </c>
       <c r="S12" s="29">
         <f t="shared" si="3"/>
-        <v>0.911528</v>
+        <v>1.069432</v>
       </c>
       <c r="T12" s="29">
         <f t="shared" si="3"/>
-        <v>0.969992</v>
+        <v>0.86436</v>
       </c>
       <c r="U12" s="29">
         <f t="shared" si="3"/>
-        <v>0.97128</v>
+        <v>1.047512</v>
       </c>
       <c r="V12" s="29">
         <f t="shared" si="3"/>
-        <v>1.148424</v>
+        <v>0.877888</v>
       </c>
       <c r="W12" s="29">
         <f t="shared" si="3"/>
-        <v>1.164712</v>
+        <v>1.067504</v>
       </c>
       <c r="X12" s="29">
         <f t="shared" si="3"/>
-        <v>0.926576</v>
+        <v>1.01092</v>
       </c>
       <c r="Y12" s="29">
         <f t="shared" si="3"/>
-        <v>0.99848</v>
+        <v>1.028216</v>
       </c>
       <c r="Z12" s="29">
         <f t="shared" si="3"/>
-        <v>1.128496</v>
+        <v>1.103392</v>
       </c>
       <c r="AA12" s="29">
         <f t="shared" si="3"/>
-        <v>0.924128</v>
+        <v>1.013592</v>
       </c>
       <c r="AB12" s="29">
         <f t="shared" si="3"/>
-        <v>0.958736</v>
+        <v>0.88972</v>
       </c>
       <c r="AC12" s="29">
         <f t="shared" si="3"/>
-        <v>0.801656</v>
+        <v>0.926256</v>
       </c>
       <c r="AD12" s="29">
         <f t="shared" si="3"/>
-        <v>0.88068</v>
+        <v>1.0764</v>
       </c>
       <c r="AE12" s="29">
         <f t="shared" si="3"/>
-        <v>1.165688</v>
+        <v>0.884776</v>
       </c>
       <c r="AF12" s="29">
         <f t="shared" si="3"/>
-        <v>1.062232</v>
+        <v>0.92396</v>
       </c>
       <c r="AG12" s="29">
         <f t="shared" si="3"/>
-        <v>1.017944</v>
+        <v>1.16096</v>
       </c>
       <c r="AH12" s="29">
         <f t="shared" si="3"/>
-        <v>0.93392</v>
+        <v>1.02596</v>
       </c>
       <c r="AI12" s="29">
         <f t="shared" si="3"/>
-        <v>0.979624</v>
+        <v>0.934768</v>
       </c>
       <c r="AJ12" s="29">
         <f t="shared" si="3"/>
-        <v>1.17792</v>
+        <v>0.96916</v>
       </c>
       <c r="AK12" s="29">
         <f t="shared" si="3"/>
-        <v>0.868576</v>
+        <v>0.847752</v>
       </c>
       <c r="AL12" s="29">
         <f t="shared" si="3"/>
-        <v>1.000368</v>
+        <v>1.01068</v>
       </c>
       <c r="AM12" s="29">
         <f t="shared" si="3"/>
-        <v>1.18004</v>
+        <v>0.931064</v>
       </c>
       <c r="AN12" s="29">
         <f t="shared" si="3"/>
-        <v>0.874072</v>
+        <v>0.89476</v>
       </c>
       <c r="AO12" s="29">
         <f t="shared" si="3"/>
-        <v>0.889264</v>
+        <v>1.0066</v>
       </c>
       <c r="AP12" s="29">
         <f t="shared" si="3"/>
-        <v>1.043128</v>
+        <v>0.822504</v>
       </c>
       <c r="AQ12" s="29">
         <f t="shared" si="3"/>
-        <v>1.18264</v>
+        <v>0.985224</v>
       </c>
       <c r="AR12" s="29">
         <f t="shared" si="3"/>
-        <v>0.959416</v>
+        <v>1.143544</v>
       </c>
       <c r="AS12" s="29">
         <f t="shared" si="3"/>
-        <v>0.9666</v>
+        <v>0.838096</v>
       </c>
       <c r="AT12" s="29">
         <f t="shared" si="3"/>
-        <v>0.804392</v>
+        <v>1.016232</v>
       </c>
       <c r="AU12" s="29">
         <f t="shared" si="3"/>
-        <v>0.887152</v>
+        <v>0.859008</v>
       </c>
       <c r="AV12" s="29">
         <f t="shared" si="3"/>
-        <v>0.903904</v>
+        <v>1.131784</v>
       </c>
       <c r="AW12" s="29">
         <f t="shared" si="3"/>
-        <v>0.98368</v>
+        <v>0.978128</v>
       </c>
       <c r="AX12" s="29">
         <f t="shared" si="3"/>
-        <v>1.064304</v>
+        <v>1.160056</v>
       </c>
       <c r="AY12" s="29">
         <f t="shared" si="3"/>
-        <v>0.849664</v>
+        <v>1.181952</v>
       </c>
       <c r="AZ12" s="29">
         <f t="shared" si="3"/>
-        <v>1.171424</v>
+        <v>1.189936</v>
       </c>
       <c r="BA12" s="29">
         <f t="shared" si="3"/>
-        <v>0.80784</v>
+        <v>1.13808</v>
       </c>
       <c r="BB12" s="29">
         <f t="shared" si="3"/>
-        <v>1.05892</v>
+        <v>1.133624</v>
       </c>
       <c r="BC12" s="29">
         <f t="shared" si="3"/>
-        <v>1.041264</v>
+        <v>1.156088</v>
       </c>
       <c r="BD12" s="29">
         <f t="shared" si="3"/>
-        <v>1.157856</v>
+        <v>0.868336</v>
       </c>
       <c r="BE12" s="29">
         <f t="shared" si="3"/>
-        <v>1.046352</v>
+        <v>1.022088</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -2092,11 +2083,11 @@
         <v>18</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" s="25">
         <f t="array" ref="C13">IF( B14="Short-Term", AVERAGE(F15:BE15)*B15, INDEX(F15:BE15, 1, COUNTA(F15:BE15))*B15 )</f>
-        <v>0.1796983516</v>
+        <v>0.1897489011</v>
       </c>
       <c r="D13" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B14=""Short-Term"", SPARKLINE(F15:BE15,IF(B13=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F15:BE15, 1, COUNTA(F15:BE15)) ,IF(B13=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -2107,216 +2098,216 @@
       </c>
       <c r="F13" s="26">
         <f t="shared" ref="F13:BE13" si="4">RANDBETWEEN(5000,10000)</f>
-        <v>7582</v>
+        <v>8525</v>
       </c>
       <c r="G13" s="26">
         <f t="shared" si="4"/>
-        <v>7045</v>
+        <v>6857</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="4"/>
-        <v>7251</v>
+        <v>9442</v>
       </c>
       <c r="I13" s="26">
         <f t="shared" si="4"/>
-        <v>9382</v>
+        <v>8954</v>
       </c>
       <c r="J13" s="26">
         <f t="shared" si="4"/>
-        <v>7188</v>
+        <v>7146</v>
       </c>
       <c r="K13" s="26">
         <f t="shared" si="4"/>
-        <v>7847</v>
+        <v>8613</v>
       </c>
       <c r="L13" s="26">
         <f t="shared" si="4"/>
-        <v>5944</v>
+        <v>7886</v>
       </c>
       <c r="M13" s="26">
         <f t="shared" si="4"/>
-        <v>8337</v>
+        <v>5699</v>
       </c>
       <c r="N13" s="26">
         <f t="shared" si="4"/>
-        <v>7092</v>
+        <v>5847</v>
       </c>
       <c r="O13" s="26">
         <f t="shared" si="4"/>
-        <v>6282</v>
+        <v>7674</v>
       </c>
       <c r="P13" s="26">
         <f t="shared" si="4"/>
-        <v>8123</v>
+        <v>5361</v>
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="4"/>
-        <v>8920</v>
+        <v>5764</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="4"/>
-        <v>6410</v>
+        <v>8999</v>
       </c>
       <c r="S13" s="26">
         <f t="shared" si="4"/>
-        <v>7477</v>
+        <v>8556</v>
       </c>
       <c r="T13" s="26">
         <f t="shared" si="4"/>
-        <v>8102</v>
+        <v>7191</v>
       </c>
       <c r="U13" s="26">
         <f t="shared" si="4"/>
-        <v>6280</v>
+        <v>8781</v>
       </c>
       <c r="V13" s="26">
         <f t="shared" si="4"/>
-        <v>5255</v>
+        <v>8266</v>
       </c>
       <c r="W13" s="26">
         <f t="shared" si="4"/>
-        <v>9707</v>
+        <v>5808</v>
       </c>
       <c r="X13" s="26">
         <f t="shared" si="4"/>
-        <v>9107</v>
+        <v>8331</v>
       </c>
       <c r="Y13" s="26">
         <f t="shared" si="4"/>
-        <v>9182</v>
+        <v>9034</v>
       </c>
       <c r="Z13" s="26">
         <f t="shared" si="4"/>
-        <v>8549</v>
+        <v>9024</v>
       </c>
       <c r="AA13" s="26">
         <f t="shared" si="4"/>
-        <v>7074</v>
+        <v>6546</v>
       </c>
       <c r="AB13" s="26">
         <f t="shared" si="4"/>
-        <v>8512</v>
+        <v>5691</v>
       </c>
       <c r="AC13" s="26">
         <f t="shared" si="4"/>
-        <v>9502</v>
+        <v>5190</v>
       </c>
       <c r="AD13" s="26">
         <f t="shared" si="4"/>
-        <v>5321</v>
+        <v>6204</v>
       </c>
       <c r="AE13" s="26">
         <f t="shared" si="4"/>
-        <v>5045</v>
+        <v>5559</v>
       </c>
       <c r="AF13" s="26">
         <f t="shared" si="4"/>
-        <v>5758</v>
+        <v>8280</v>
       </c>
       <c r="AG13" s="26">
         <f t="shared" si="4"/>
-        <v>9119</v>
+        <v>9819</v>
       </c>
       <c r="AH13" s="26">
         <f t="shared" si="4"/>
-        <v>7785</v>
+        <v>9291</v>
       </c>
       <c r="AI13" s="26">
         <f t="shared" si="4"/>
-        <v>6836</v>
+        <v>7398</v>
       </c>
       <c r="AJ13" s="26">
         <f t="shared" si="4"/>
-        <v>8690</v>
+        <v>7990</v>
       </c>
       <c r="AK13" s="26">
         <f t="shared" si="4"/>
-        <v>9356</v>
+        <v>9778</v>
       </c>
       <c r="AL13" s="26">
         <f t="shared" si="4"/>
-        <v>7248</v>
+        <v>7189</v>
       </c>
       <c r="AM13" s="26">
         <f t="shared" si="4"/>
-        <v>5746</v>
+        <v>9497</v>
       </c>
       <c r="AN13" s="26">
         <f t="shared" si="4"/>
-        <v>9711</v>
+        <v>5019</v>
       </c>
       <c r="AO13" s="26">
         <f t="shared" si="4"/>
-        <v>8901</v>
+        <v>6433</v>
       </c>
       <c r="AP13" s="26">
         <f t="shared" si="4"/>
-        <v>8718</v>
+        <v>6130</v>
       </c>
       <c r="AQ13" s="26">
         <f t="shared" si="4"/>
-        <v>9078</v>
+        <v>7697</v>
       </c>
       <c r="AR13" s="26">
         <f t="shared" si="4"/>
-        <v>8313</v>
+        <v>6867</v>
       </c>
       <c r="AS13" s="26">
         <f t="shared" si="4"/>
-        <v>7543</v>
+        <v>7644</v>
       </c>
       <c r="AT13" s="26">
         <f t="shared" si="4"/>
-        <v>7866</v>
+        <v>7607</v>
       </c>
       <c r="AU13" s="26">
         <f t="shared" si="4"/>
-        <v>7920</v>
+        <v>5507</v>
       </c>
       <c r="AV13" s="26">
         <f t="shared" si="4"/>
-        <v>6277</v>
+        <v>8780</v>
       </c>
       <c r="AW13" s="26">
         <f t="shared" si="4"/>
-        <v>5362</v>
+        <v>6649</v>
       </c>
       <c r="AX13" s="26">
         <f t="shared" si="4"/>
-        <v>7871</v>
+        <v>8552</v>
       </c>
       <c r="AY13" s="26">
         <f t="shared" si="4"/>
-        <v>9188</v>
+        <v>6058</v>
       </c>
       <c r="AZ13" s="26">
         <f t="shared" si="4"/>
-        <v>6054</v>
+        <v>6343</v>
       </c>
       <c r="BA13" s="26">
         <f t="shared" si="4"/>
-        <v>9986</v>
+        <v>6306</v>
       </c>
       <c r="BB13" s="26">
         <f t="shared" si="4"/>
-        <v>9565</v>
+        <v>7665</v>
       </c>
       <c r="BC13" s="26">
         <f t="shared" si="4"/>
-        <v>6512</v>
+        <v>5975</v>
       </c>
       <c r="BD13" s="26">
         <f t="shared" si="4"/>
-        <v>6632</v>
+        <v>7631</v>
       </c>
       <c r="BE13" s="26">
         <f t="shared" si="4"/>
-        <v>8398</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>22</v>
@@ -2490,211 +2481,211 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ref="F15:BE15" si="5">IF( $B13="Maximum", F13/F14 , IF( 100%-(F13-F14)/F14 &gt; 0, 100%-(F13-F14)/F14, 0) )</f>
-        <v>0.9168571429</v>
+        <v>0.7821428571</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9935714286</v>
+        <v>1.020428571</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9641428571</v>
+        <v>0.6511428571</v>
       </c>
       <c r="I15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6597142857</v>
+        <v>0.7208571429</v>
       </c>
       <c r="J15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9731428571</v>
+        <v>0.9791428571</v>
       </c>
       <c r="K15" s="29">
         <f t="shared" si="5"/>
-        <v>0.879</v>
+        <v>0.7695714286</v>
       </c>
       <c r="L15" s="29">
         <f t="shared" si="5"/>
-        <v>1.150857143</v>
+        <v>0.8734285714</v>
       </c>
       <c r="M15" s="29">
         <f t="shared" si="5"/>
-        <v>0.809</v>
+        <v>1.185857143</v>
       </c>
       <c r="N15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9868571429</v>
+        <v>1.164714286</v>
       </c>
       <c r="O15" s="29">
         <f t="shared" si="5"/>
-        <v>1.102571429</v>
+        <v>0.9037142857</v>
       </c>
       <c r="P15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8395714286</v>
+        <v>1.234142857</v>
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7257142857</v>
+        <v>1.176571429</v>
       </c>
       <c r="R15" s="29">
         <f t="shared" si="5"/>
-        <v>1.084285714</v>
+        <v>0.7144285714</v>
       </c>
       <c r="S15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9318571429</v>
+        <v>0.7777142857</v>
       </c>
       <c r="T15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8425714286</v>
+        <v>0.9727142857</v>
       </c>
       <c r="U15" s="29">
         <f t="shared" si="5"/>
-        <v>1.102857143</v>
+        <v>0.7455714286</v>
       </c>
       <c r="V15" s="29">
         <f t="shared" si="5"/>
-        <v>1.249285714</v>
+        <v>0.8191428571</v>
       </c>
       <c r="W15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6132857143</v>
+        <v>1.170285714</v>
       </c>
       <c r="X15" s="29">
         <f t="shared" si="5"/>
-        <v>0.699</v>
+        <v>0.8098571429</v>
       </c>
       <c r="Y15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6882857143</v>
+        <v>0.7094285714</v>
       </c>
       <c r="Z15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7787142857</v>
+        <v>0.7108571429</v>
       </c>
       <c r="AA15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9894285714</v>
+        <v>1.064857143</v>
       </c>
       <c r="AB15" s="29">
         <f t="shared" si="5"/>
-        <v>0.784</v>
+        <v>1.187</v>
       </c>
       <c r="AC15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6425714286</v>
+        <v>1.258571429</v>
       </c>
       <c r="AD15" s="29">
         <f t="shared" si="5"/>
-        <v>1.239857143</v>
+        <v>1.113714286</v>
       </c>
       <c r="AE15" s="29">
         <f t="shared" si="5"/>
-        <v>1.279285714</v>
+        <v>1.205857143</v>
       </c>
       <c r="AF15" s="29">
         <f t="shared" si="5"/>
-        <v>1.177428571</v>
+        <v>0.8171428571</v>
       </c>
       <c r="AG15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6972857143</v>
+        <v>0.5972857143</v>
       </c>
       <c r="AH15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8878571429</v>
+        <v>0.6727142857</v>
       </c>
       <c r="AI15" s="29">
         <f t="shared" si="5"/>
-        <v>1.023428571</v>
+        <v>0.9431428571</v>
       </c>
       <c r="AJ15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7585714286</v>
+        <v>0.8585714286</v>
       </c>
       <c r="AK15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6634285714</v>
+        <v>0.6031428571</v>
       </c>
       <c r="AL15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9645714286</v>
+        <v>0.973</v>
       </c>
       <c r="AM15" s="29">
         <f t="shared" si="5"/>
-        <v>1.179142857</v>
+        <v>0.6432857143</v>
       </c>
       <c r="AN15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6127142857</v>
+        <v>1.283</v>
       </c>
       <c r="AO15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7284285714</v>
+        <v>1.081</v>
       </c>
       <c r="AP15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7545714286</v>
+        <v>1.124285714</v>
       </c>
       <c r="AQ15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7031428571</v>
+        <v>0.9004285714</v>
       </c>
       <c r="AR15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8124285714</v>
+        <v>1.019</v>
       </c>
       <c r="AS15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9224285714</v>
+        <v>0.908</v>
       </c>
       <c r="AT15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8762857143</v>
+        <v>0.9132857143</v>
       </c>
       <c r="AU15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8685714286</v>
+        <v>1.213285714</v>
       </c>
       <c r="AV15" s="29">
         <f t="shared" si="5"/>
-        <v>1.103285714</v>
+        <v>0.7457142857</v>
       </c>
       <c r="AW15" s="29">
         <f t="shared" si="5"/>
-        <v>1.234</v>
+        <v>1.050142857</v>
       </c>
       <c r="AX15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8755714286</v>
+        <v>0.7782857143</v>
       </c>
       <c r="AY15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6874285714</v>
+        <v>1.134571429</v>
       </c>
       <c r="AZ15" s="29">
         <f t="shared" si="5"/>
-        <v>1.135142857</v>
+        <v>1.093857143</v>
       </c>
       <c r="BA15" s="29">
         <f t="shared" si="5"/>
-        <v>0.5734285714</v>
+        <v>1.099142857</v>
       </c>
       <c r="BB15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6335714286</v>
+        <v>0.905</v>
       </c>
       <c r="BC15" s="29">
         <f t="shared" si="5"/>
-        <v>1.069714286</v>
+        <v>1.146428571</v>
       </c>
       <c r="BD15" s="29">
         <f t="shared" si="5"/>
-        <v>1.052571429</v>
+        <v>0.9098571429</v>
       </c>
       <c r="BE15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8002857143</v>
+        <v>1.199428571</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2702,7 +2693,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C16" s="25">
         <f t="array" ref="C16">IF( B17="Short-Term", AVERAGE(F18:BE18)*B18, INDEX(F18:BE18, 1, COUNTA(F18:BE18))*B18 )</f>
@@ -3260,7 +3251,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C19" s="25">
         <f t="array" ref="C19">IF( B20="Short-Term", AVERAGE(F21:BE21)*B21, INDEX(F21:BE21, 1, COUNTA(F21:BE21))*B21 )</f>
@@ -3896,7 +3887,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C25" s="25">
         <f t="array" ref="C25">IF( B26="Short-Term", AVERAGE(F27:BE27)*B27, INDEX(F27:BE27, 1, COUNTA(F27:BE27))*B27 )</f>
@@ -4470,7 +4461,7 @@
       <c r="B30" s="19"/>
       <c r="C30" s="20">
         <f>SUMIFS(C31:C1013,A31:A1013,A31)</f>
-        <v>0.7252884615</v>
+        <v>0.7341730769</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="22"/>
@@ -4532,11 +4523,11 @@
         <v>32</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C31" s="25">
         <f t="array" ref="C31">IF( B32="Short-Term", AVERAGE(F33:BE33)*B33, INDEX(F33:BE33, 1, COUNTA(F33:BE33))*B33 )</f>
-        <v>0.3661538462</v>
+        <v>0.3755769231</v>
       </c>
       <c r="D31" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B32=""Short-Term"", SPARKLINE(F33:BE33,IF(B31=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F33:BE33, 1, COUNTA(F33:BE33)) ,IF(B31=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -4547,47 +4538,47 @@
       </c>
       <c r="F31" s="26">
         <f t="shared" ref="F31:BE31" si="9">RANDBETWEEN(1,50)</f>
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G31" s="26">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H31" s="26">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J31" s="26">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K31" s="26">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L31" s="26">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="M31" s="26">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N31" s="26">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O31" s="26">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P31" s="26">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="26">
         <f t="shared" si="9"/>
@@ -4595,43 +4586,43 @@
       </c>
       <c r="R31" s="26">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="S31" s="26">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="T31" s="26">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="U31" s="26">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V31" s="26">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W31" s="26">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="X31" s="26">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y31" s="26">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="Z31" s="26">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="AA31" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AB31" s="26">
         <f t="shared" si="9"/>
@@ -4643,7 +4634,7 @@
       </c>
       <c r="AD31" s="26">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AE31" s="26">
         <f t="shared" si="9"/>
@@ -4651,107 +4642,107 @@
       </c>
       <c r="AF31" s="26">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="AG31" s="26">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AH31" s="26">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AI31" s="26">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AJ31" s="26">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AK31" s="26">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="AL31" s="26">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AM31" s="26">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="AN31" s="26">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="AO31" s="26">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="AP31" s="26">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AQ31" s="26">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AR31" s="26">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AS31" s="26">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AT31" s="26">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AU31" s="26">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="AV31" s="26">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AW31" s="26">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AX31" s="26">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AY31" s="26">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ31" s="26">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="BA31" s="26">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="BB31" s="26">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BC31" s="26">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="BD31" s="26">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="BE31" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -4930,47 +4921,47 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ref="F33:BE33" si="10">IF( $B31="Maximum", F31/F32 , IF( 100%-(F31-F32)/F32 &gt; 0, 100%-(F31-F32)/F32, 0) )</f>
-        <v>0.24</v>
+        <v>0.96</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" si="10"/>
-        <v>0.06</v>
+        <v>0.68</v>
       </c>
       <c r="H33" s="29">
         <f t="shared" si="10"/>
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="I33" s="29">
         <f t="shared" si="10"/>
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="J33" s="29">
         <f t="shared" si="10"/>
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="K33" s="29">
         <f t="shared" si="10"/>
-        <v>0.74</v>
+        <v>0.52</v>
       </c>
       <c r="L33" s="29">
         <f t="shared" si="10"/>
-        <v>0.04</v>
+        <v>0.96</v>
       </c>
       <c r="M33" s="29">
         <f t="shared" si="10"/>
-        <v>0.56</v>
+        <v>0.64</v>
       </c>
       <c r="N33" s="29">
         <f t="shared" si="10"/>
-        <v>0.44</v>
+        <v>0.56</v>
       </c>
       <c r="O33" s="29">
         <f t="shared" si="10"/>
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="P33" s="29">
         <f t="shared" si="10"/>
-        <v>0.56</v>
+        <v>0.78</v>
       </c>
       <c r="Q33" s="29">
         <f t="shared" si="10"/>
@@ -4978,43 +4969,43 @@
       </c>
       <c r="R33" s="29">
         <f t="shared" si="10"/>
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
       <c r="S33" s="29">
         <f t="shared" si="10"/>
-        <v>0.64</v>
+        <v>0.26</v>
       </c>
       <c r="T33" s="29">
         <f t="shared" si="10"/>
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="U33" s="29">
         <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="V33" s="29">
         <f t="shared" si="10"/>
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="W33" s="29">
         <f t="shared" si="10"/>
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="X33" s="29">
         <f t="shared" si="10"/>
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="Y33" s="29">
         <f t="shared" si="10"/>
-        <v>0.16</v>
+        <v>0.66</v>
       </c>
       <c r="Z33" s="29">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="AA33" s="29">
         <f t="shared" si="10"/>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AB33" s="29">
         <f t="shared" si="10"/>
@@ -5026,7 +5017,7 @@
       </c>
       <c r="AD33" s="29">
         <f t="shared" si="10"/>
-        <v>0.02</v>
+        <v>0.52</v>
       </c>
       <c r="AE33" s="29">
         <f t="shared" si="10"/>
@@ -5034,107 +5025,107 @@
       </c>
       <c r="AF33" s="29">
         <f t="shared" si="10"/>
-        <v>0.92</v>
+        <v>0.38</v>
       </c>
       <c r="AG33" s="29">
         <f t="shared" si="10"/>
-        <v>0.24</v>
+        <v>0.68</v>
       </c>
       <c r="AH33" s="29">
         <f t="shared" si="10"/>
-        <v>0.8</v>
+        <v>0.28</v>
       </c>
       <c r="AI33" s="29">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.56</v>
       </c>
       <c r="AJ33" s="29">
         <f t="shared" si="10"/>
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="AK33" s="29">
         <f t="shared" si="10"/>
-        <v>0.08</v>
+        <v>0.9</v>
       </c>
       <c r="AL33" s="29">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AM33" s="29">
         <f t="shared" si="10"/>
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="AN33" s="29">
         <f t="shared" si="10"/>
-        <v>0.88</v>
+        <v>0.22</v>
       </c>
       <c r="AO33" s="29">
         <f t="shared" si="10"/>
-        <v>0.98</v>
+        <v>0.46</v>
       </c>
       <c r="AP33" s="29">
         <f t="shared" si="10"/>
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="AQ33" s="29">
         <f t="shared" si="10"/>
-        <v>0.14</v>
+        <v>0.46</v>
       </c>
       <c r="AR33" s="29">
         <f t="shared" si="10"/>
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
       <c r="AS33" s="29">
         <f t="shared" si="10"/>
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="AT33" s="29">
         <f t="shared" si="10"/>
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="AU33" s="29">
         <f t="shared" si="10"/>
-        <v>0.62</v>
+        <v>0.08</v>
       </c>
       <c r="AV33" s="29">
         <f t="shared" si="10"/>
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AW33" s="29">
         <f t="shared" si="10"/>
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AX33" s="29">
         <f t="shared" si="10"/>
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="AY33" s="29">
         <f t="shared" si="10"/>
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AZ33" s="29">
         <f t="shared" si="10"/>
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
       <c r="BA33" s="29">
         <f t="shared" si="10"/>
-        <v>0.42</v>
+        <v>0.7</v>
       </c>
       <c r="BB33" s="29">
         <f t="shared" si="10"/>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="BC33" s="29">
         <f t="shared" si="10"/>
-        <v>0.78</v>
+        <v>0.56</v>
       </c>
       <c r="BD33" s="29">
         <f t="shared" si="10"/>
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="BE33" s="29">
         <f t="shared" si="10"/>
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -5142,11 +5133,11 @@
         <v>32</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C34" s="25">
         <f t="array" ref="C34">IF( B35="Short-Term", AVERAGE(F36:BE36)*B36, INDEX(F36:BE36, 1, COUNTA(F36:BE36))*B36 )</f>
-        <v>0.02798076923</v>
+        <v>0.02744230769</v>
       </c>
       <c r="D34" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B35=""Short-Term"", SPARKLINE(F36:BE36,IF(B34=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F36:BE36, 1, COUNTA(F36:BE36)) ,IF(B34=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -5157,95 +5148,95 @@
       </c>
       <c r="F34" s="26">
         <f t="shared" ref="F34:BE34" si="11">RANDBETWEEN(1,50)</f>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G34" s="26">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H34" s="26">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J34" s="26">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K34" s="26">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L34" s="26">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="M34" s="26">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N34" s="26">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="O34" s="26">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="P34" s="26">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q34" s="26">
         <f t="shared" si="11"/>
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="R34" s="26">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S34" s="26">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T34" s="26">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="U34" s="26">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="V34" s="26">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="W34" s="26">
         <f t="shared" si="11"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="X34" s="26">
         <f t="shared" si="11"/>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="Y34" s="26">
         <f t="shared" si="11"/>
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="Z34" s="26">
         <f t="shared" si="11"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AA34" s="26">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB34" s="26">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC34" s="26">
         <f t="shared" si="11"/>
@@ -5253,115 +5244,115 @@
       </c>
       <c r="AD34" s="26">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE34" s="26">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF34" s="26">
         <f t="shared" si="11"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG34" s="26">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH34" s="26">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI34" s="26">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="AJ34" s="26">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AK34" s="26">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL34" s="26">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AM34" s="26">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="AN34" s="26">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AO34" s="26">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AP34" s="26">
         <f t="shared" si="11"/>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AQ34" s="26">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="AR34" s="26">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="AS34" s="26">
         <f t="shared" si="11"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="AT34" s="26">
         <f t="shared" si="11"/>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AU34" s="26">
         <f t="shared" si="11"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AV34" s="26">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AW34" s="26">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="AX34" s="26">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AY34" s="26">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AZ34" s="26">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="BA34" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="BB34" s="26">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="BC34" s="26">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BD34" s="26">
         <f t="shared" si="11"/>
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="BE34" s="26">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -5540,95 +5531,95 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ref="F36:BE36" si="12">IF( $B34="Maximum", F34/F35 , IF( 100%-(F34-F35)/F35 &gt; 0, 100%-(F34-F35)/F35, 0) )</f>
-        <v>0.16</v>
+        <v>0.48</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" si="12"/>
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="H36" s="29">
         <f t="shared" si="12"/>
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="I36" s="29">
         <f t="shared" si="12"/>
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="J36" s="29">
         <f t="shared" si="12"/>
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="K36" s="29">
         <f t="shared" si="12"/>
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="L36" s="29">
         <f t="shared" si="12"/>
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="M36" s="29">
         <f t="shared" si="12"/>
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
       <c r="N36" s="29">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
       <c r="O36" s="29">
         <f t="shared" si="12"/>
-        <v>0.44</v>
+        <v>0.13</v>
       </c>
       <c r="P36" s="29">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="Q36" s="29">
         <f t="shared" si="12"/>
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="R36" s="29">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="S36" s="29">
         <f t="shared" si="12"/>
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="T36" s="29">
         <f t="shared" si="12"/>
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="U36" s="29">
         <f t="shared" si="12"/>
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="V36" s="29">
         <f t="shared" si="12"/>
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="W36" s="29">
         <f t="shared" si="12"/>
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="X36" s="29">
         <f t="shared" si="12"/>
-        <v>0.43</v>
+        <v>0.18</v>
       </c>
       <c r="Y36" s="29">
         <f t="shared" si="12"/>
-        <v>0.48</v>
+        <v>0.15</v>
       </c>
       <c r="Z36" s="29">
         <f t="shared" si="12"/>
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="AA36" s="29">
         <f t="shared" si="12"/>
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="AB36" s="29">
         <f t="shared" si="12"/>
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="AC36" s="29">
         <f t="shared" si="12"/>
@@ -5636,115 +5627,115 @@
       </c>
       <c r="AD36" s="29">
         <f t="shared" si="12"/>
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="AE36" s="29">
         <f t="shared" si="12"/>
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="AF36" s="29">
         <f t="shared" si="12"/>
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="AG36" s="29">
         <f t="shared" si="12"/>
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AH36" s="29">
         <f t="shared" si="12"/>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AI36" s="29">
         <f t="shared" si="12"/>
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
       <c r="AJ36" s="29">
         <f t="shared" si="12"/>
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="AK36" s="29">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="AL36" s="29">
         <f t="shared" si="12"/>
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="AM36" s="29">
         <f t="shared" si="12"/>
-        <v>0.06</v>
+        <v>0.37</v>
       </c>
       <c r="AN36" s="29">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AO36" s="29">
         <f t="shared" si="12"/>
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="AP36" s="29">
         <f t="shared" si="12"/>
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="AQ36" s="29">
         <f t="shared" si="12"/>
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="AR36" s="29">
         <f t="shared" si="12"/>
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="AS36" s="29">
         <f t="shared" si="12"/>
-        <v>0.35</v>
+        <v>0.48</v>
       </c>
       <c r="AT36" s="29">
         <f t="shared" si="12"/>
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="AU36" s="29">
         <f t="shared" si="12"/>
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AV36" s="29">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="AW36" s="29">
         <f t="shared" si="12"/>
-        <v>0.11</v>
+        <v>0.43</v>
       </c>
       <c r="AX36" s="29">
         <f t="shared" si="12"/>
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="AY36" s="29">
         <f t="shared" si="12"/>
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="AZ36" s="29">
         <f t="shared" si="12"/>
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="BA36" s="29">
         <f t="shared" si="12"/>
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
       <c r="BB36" s="29">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="BC36" s="29">
         <f t="shared" si="12"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="BD36" s="29">
         <f t="shared" si="12"/>
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="BE36" s="29">
         <f t="shared" si="12"/>
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -5752,7 +5743,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C37" s="25">
         <f t="array" ref="C37">IF( B38="Short-Term", AVERAGE(F39:BE39)*B39, INDEX(F39:BE39, 1, COUNTA(F39:BE39))*B39 )</f>
@@ -11272,23 +11263,18 @@
     <mergeCell ref="AB6:AE6"/>
     <mergeCell ref="AF6:AI6"/>
   </mergeCells>
-  <conditionalFormatting sqref="F13:BE13 F16:BE16 F19:BE19 F37:BE37">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
-      <formula>F14</formula>
+  <conditionalFormatting sqref="F10:BE10 F13:BE13 F16:BE16 F19:BE19 F25:BE25 F31:BE31 F34:BE34 F37:BE37">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($B10="Maximum",F10&gt;=F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:BE10 F13:BE13 F16:BE16 F19:BE19 F25:BE25 F31:BE31 F34:BE34 F37:BE37">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND($B10="Maximum",F10&gt;=F11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:BE10 F13:BE13 F16:BE16 F19:BE19 F25:BE25 F31:BE31 F34:BE34 F37:BE37">
-    <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND($B10="Minimum",50%&gt;F12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:BE10 F13:BE13 F16:BE16 F19:BE19 F25:BE25 F31:BE31 F34:BE34 F37:BE37">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(F10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11336,423 +11322,423 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4">
-        <f t="shared" ref="F1:BE1" si="1">AVERAGEIFS(F9:F987,$E9:$E987,"% Target")</f>
-        <v>0.65</v>
+        <f t="shared" ref="F1:BE1" si="1">AVERAGEIFS(F9:F984,$E9:$E984,"% Target")</f>
+        <v>0.8333333333</v>
       </c>
       <c r="G1" s="4">
         <f t="shared" si="1"/>
-        <v>0.63</v>
+        <v>0.8033333333</v>
       </c>
       <c r="H1" s="4">
         <f t="shared" si="1"/>
-        <v>0.61</v>
+        <v>0.7733333333</v>
       </c>
       <c r="I1" s="4">
         <f t="shared" si="1"/>
-        <v>0.44</v>
+        <v>0.5433333333</v>
       </c>
       <c r="J1" s="4">
         <f t="shared" si="1"/>
-        <v>0.42</v>
+        <v>0.5133333333</v>
       </c>
       <c r="K1" s="4">
         <f t="shared" si="1"/>
-        <v>0.525</v>
+        <v>0.65</v>
       </c>
       <c r="L1" s="4">
         <f t="shared" si="1"/>
-        <v>0.68</v>
+        <v>0.8533333333</v>
       </c>
       <c r="M1" s="4">
         <f t="shared" si="1"/>
-        <v>0.66</v>
+        <v>0.8233333333</v>
       </c>
       <c r="N1" s="4">
         <f t="shared" si="1"/>
-        <v>0.64</v>
+        <v>0.7933333333</v>
       </c>
       <c r="O1" s="4">
         <f t="shared" si="1"/>
-        <v>0.47</v>
+        <v>0.5633333333</v>
       </c>
       <c r="P1" s="4">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5333333333</v>
       </c>
       <c r="Q1" s="4">
         <f t="shared" si="1"/>
-        <v>0.555</v>
+        <v>0.67</v>
       </c>
       <c r="R1" s="4">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>0.8733333333</v>
       </c>
       <c r="S1" s="4">
         <f t="shared" si="1"/>
-        <v>0.69</v>
+        <v>0.8433333333</v>
       </c>
       <c r="T1" s="4">
         <f t="shared" si="1"/>
-        <v>0.67</v>
+        <v>0.8133333333</v>
       </c>
       <c r="U1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.5833333333</v>
       </c>
       <c r="V1" s="4">
         <f t="shared" si="1"/>
-        <v>0.48</v>
+        <v>0.5533333333</v>
       </c>
       <c r="W1" s="4">
         <f t="shared" si="1"/>
-        <v>0.585</v>
+        <v>0.69</v>
       </c>
       <c r="X1" s="4">
         <f t="shared" si="1"/>
-        <v>0.74</v>
+        <v>0.8933333333</v>
       </c>
       <c r="Y1" s="4">
         <f t="shared" si="1"/>
-        <v>0.72</v>
+        <v>0.8633333333</v>
       </c>
       <c r="Z1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.8333333333</v>
       </c>
       <c r="AA1" s="4">
         <f t="shared" si="1"/>
-        <v>0.53</v>
+        <v>0.6033333333</v>
       </c>
       <c r="AB1" s="4">
         <f t="shared" si="1"/>
-        <v>0.51</v>
+        <v>0.5733333333</v>
       </c>
       <c r="AC1" s="4">
         <f t="shared" si="1"/>
-        <v>0.615</v>
+        <v>0.71</v>
       </c>
       <c r="AD1" s="4">
         <f t="shared" si="1"/>
-        <v>0.77</v>
+        <v>0.9133333333</v>
       </c>
       <c r="AE1" s="4">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.8833333333</v>
       </c>
       <c r="AF1" s="4">
         <f t="shared" si="1"/>
-        <v>0.73</v>
+        <v>0.8533333333</v>
       </c>
       <c r="AG1" s="4">
         <f t="shared" si="1"/>
-        <v>0.56</v>
+        <v>0.6233333333</v>
       </c>
       <c r="AH1" s="4">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.5933333333</v>
       </c>
       <c r="AI1" s="4">
         <f t="shared" si="1"/>
-        <v>0.645</v>
+        <v>0.73</v>
       </c>
       <c r="AJ1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.9333333333</v>
       </c>
       <c r="AK1" s="4">
         <f t="shared" si="1"/>
-        <v>0.78</v>
+        <v>0.9033333333</v>
       </c>
       <c r="AL1" s="4">
         <f t="shared" si="1"/>
-        <v>0.76</v>
+        <v>0.8733333333</v>
       </c>
       <c r="AM1" s="4">
         <f t="shared" si="1"/>
-        <v>0.59</v>
+        <v>0.6433333333</v>
       </c>
       <c r="AN1" s="4">
         <f t="shared" si="1"/>
-        <v>0.57</v>
+        <v>0.6133333333</v>
       </c>
       <c r="AO1" s="4">
         <f t="shared" si="1"/>
-        <v>0.675</v>
+        <v>0.75</v>
       </c>
       <c r="AP1" s="4">
         <f t="shared" si="1"/>
-        <v>0.83</v>
+        <v>0.9533333333</v>
       </c>
       <c r="AQ1" s="4">
         <f t="shared" si="1"/>
-        <v>0.81</v>
+        <v>0.9233333333</v>
       </c>
       <c r="AR1" s="4">
         <f t="shared" si="1"/>
-        <v>0.79</v>
+        <v>0.8933333333</v>
       </c>
       <c r="AS1" s="4">
         <f t="shared" si="1"/>
-        <v>0.62</v>
+        <v>0.6633333333</v>
       </c>
       <c r="AT1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.6333333333</v>
       </c>
       <c r="AU1" s="4">
         <f t="shared" si="1"/>
-        <v>0.705</v>
+        <v>0.77</v>
       </c>
       <c r="AV1" s="4">
         <f t="shared" si="1"/>
-        <v>0.86</v>
+        <v>0.9733333333</v>
       </c>
       <c r="AW1" s="4">
         <f t="shared" si="1"/>
-        <v>0.84</v>
+        <v>0.9433333333</v>
       </c>
       <c r="AX1" s="4">
         <f t="shared" si="1"/>
-        <v>0.82</v>
+        <v>0.9133333333</v>
       </c>
       <c r="AY1" s="4">
         <f t="shared" si="1"/>
-        <v>0.65</v>
+        <v>0.6833333333</v>
       </c>
       <c r="AZ1" s="4">
         <f t="shared" si="1"/>
-        <v>0.63</v>
+        <v>0.6533333333</v>
       </c>
       <c r="BA1" s="4">
         <f t="shared" si="1"/>
-        <v>0.735</v>
+        <v>0.79</v>
       </c>
       <c r="BB1" s="4">
         <f t="shared" si="1"/>
-        <v>0.89</v>
+        <v>0.9933333333</v>
       </c>
       <c r="BC1" s="4">
         <f t="shared" si="1"/>
-        <v>0.87</v>
+        <v>0.9633333333</v>
       </c>
       <c r="BD1" s="4">
         <f t="shared" si="1"/>
-        <v>0.85</v>
+        <v>0.9333333333</v>
       </c>
       <c r="BE1" s="4">
         <f t="shared" si="1"/>
-        <v>0.68</v>
+        <v>0.7033333333</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(F9:F987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(F9:F984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="G2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(G9:G987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(G9:G984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="H2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(H9:H987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(H9:H984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="I2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(I9:I987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(I9:I984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="J2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(J9:J987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(J9:J984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="K2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(K9:K987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(K9:K984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="L2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(L9:L987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(L9:L984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="M2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(M9:M987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(M9:M984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="N2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(N9:N987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(N9:N984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="O2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(O9:O987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(O9:O984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="P2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(P9:P987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(P9:P984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="Q2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(Q9:Q987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(Q9:Q984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="R2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(R9:R987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(R9:R984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="S2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(S9:S987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(S9:S984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="T2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(T9:T987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(T9:T984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="U2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(U9:U987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(U9:U984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="V2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(V9:V987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(V9:V984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="W2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(W9:W987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(W9:W984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="X2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(X9:X987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(X9:X984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="Y2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(Y9:Y987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(Y9:Y984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="Z2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(Z9:Z987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(Z9:Z984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AA2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AA9:AA987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AA9:AA984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AB2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AB9:AB987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AB9:AB984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AC2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AC9:AC987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AC9:AC984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AD2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AD9:AD987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AD9:AD984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AE2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AE9:AE987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AE9:AE984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AF2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AF9:AF987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AF9:AF984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AG2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AG9:AG987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AG9:AG984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AH2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AH9:AH987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AH9:AH984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AI2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AI9:AI987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AI9:AI984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AJ2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AJ9:AJ987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AJ9:AJ984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AK2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AK9:AK987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AK9:AK984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AL2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AL9:AL987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AL9:AL984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AM2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AM9:AM987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AM9:AM984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AN2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AN9:AN987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AN9:AN984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AO2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AO9:AO987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AO9:AO984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AP2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AP9:AP987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AP9:AP984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AQ2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AQ9:AQ987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AQ9:AQ984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AR2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AR9:AR987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AR9:AR984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AS2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AS9:AS987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AS9:AS984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AT2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AT9:AT987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AT9:AT984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AU2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AU9:AU987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AU9:AU984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AV2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AV9:AV987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AV9:AV984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AW2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AW9:AW987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AW9:AW984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AX2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AX9:AX987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AX9:AX984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AY2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AY9:AY987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AY9:AY984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="AZ2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AZ9:AZ987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(AZ9:AZ984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="BA2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BA9:BA987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BA9:BA984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="BB2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BB9:BB987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BB9:BB984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="BC2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BC9:BC987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BC9:BC984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="BD2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BD9:BD987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BD9:BD984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
       <c r="BE2" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BE9:BE987,$E9:$E987,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(AVERAGEIFS(BE9:BE984,$E9:$E984,""% Target""), {""charttype"",""column"";""ymin"",0%;""ymax"",100%;""color"",""green""})"),"")</f>
         <v/>
       </c>
     </row>
@@ -11996,7 +11982,7 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="20">
-        <f>SUMIFS(C10:C987,A10:A987,A10)</f>
+        <f>SUMIFS(C10:C984,A10:A984,A10)</f>
         <v>0.9112692308</v>
       </c>
       <c r="D9" s="21"/>
@@ -12059,7 +12045,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" s="25">
         <f t="array" ref="C10">IF( B11="Short-Term", AVERAGE(F12:BE12)*B12, INDEX(F12:BE12, 1, COUNTA(F12:BE12))*B12 )</f>
@@ -12617,7 +12603,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C13" s="25">
         <f t="array" ref="C13">IF( B14="Short-Term", AVERAGE(F15:BE15)*B15, INDEX(F15:BE15, 1, COUNTA(F15:BE15))*B15 )</f>
@@ -13178,27 +13164,626 @@
       <c r="E16" s="8"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20">
+        <f>SUMIFS(C18:C984,A18:A984,A18)</f>
+        <v>0.4865384615</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="21"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="21"/>
+      <c r="AT17" s="21"/>
+      <c r="AU17" s="21"/>
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="21"/>
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BE17" s="21"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="25">
+        <f t="array" ref="C18">IF( B19="Short-Term", AVERAGE(F20:BE20)*B20, INDEX(F20:BE20, 1, COUNTA(F20:BE20))*B20 )</f>
+        <v>0.4865384615</v>
+      </c>
+      <c r="D18" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B19=""Short-Term"", SPARKLINE(F20:BE20,IF(B18=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F20:BE20, 1, COUNTA(F20:BE20)) ,IF(B18=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
+        <v/>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="H18" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="I18" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="J18" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="K18" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="L18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="M18" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="N18" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="O18" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="P18" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="Q18" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="R18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="S18" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="T18" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="U18" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="V18" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="W18" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="X18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="Y18" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="Z18" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="AA18" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="AB18" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="AC18" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="AD18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AE18" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="AF18" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="AG18" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="AH18" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="AI18" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="AJ18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AK18" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="AL18" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="AM18" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="AN18" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="AO18" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="AP18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ18" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="AR18" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="AS18" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="AT18" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="AU18" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="AV18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AW18" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="AX18" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="AY18" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="AZ18" s="33">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="BA18" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="BB18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="BC18" s="33">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="BD18" s="33">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="BE18" s="33">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="G19" s="35"/>
+      <c r="A19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="K19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="N19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="O19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="P19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="Q19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="R19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="T19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="U19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="V19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="W19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="X19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="Y19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="Z19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AA19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AB19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AC19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AD19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AE19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AF19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AG19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AH19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AI19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AJ19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AK19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AL19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AM19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AN19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AO19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AP19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AQ19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AR19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AS19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AT19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AU19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AV19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AW19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AX19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AY19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AZ19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="BA19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="BB19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="BC19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="BD19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="BE19" s="34">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="29">
+        <f t="shared" ref="F20:BE20" si="4">IF( $B18="Maximum", F18/F19 , IF( 100%-(F18-F19)/F19 &gt; 0, 100%-(F18-F19)/F19, 0) )</f>
+        <v>1.2</v>
+      </c>
+      <c r="G20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.15</v>
+      </c>
+      <c r="H20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.1</v>
+      </c>
+      <c r="I20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="J20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="K20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="L20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="M20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.15</v>
+      </c>
+      <c r="N20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.1</v>
+      </c>
+      <c r="O20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="P20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="R20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="S20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.15</v>
+      </c>
+      <c r="T20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.1</v>
+      </c>
+      <c r="U20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="V20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="W20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="X20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="Y20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.15</v>
+      </c>
+      <c r="Z20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.1</v>
+      </c>
+      <c r="AA20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AB20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="AC20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="AD20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="AE20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.15</v>
+      </c>
+      <c r="AF20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.1</v>
+      </c>
+      <c r="AG20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AH20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="AI20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="AJ20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="AK20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.15</v>
+      </c>
+      <c r="AL20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.1</v>
+      </c>
+      <c r="AM20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AN20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="AO20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="AP20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="AQ20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.15</v>
+      </c>
+      <c r="AR20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.1</v>
+      </c>
+      <c r="AS20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AT20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="AU20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="AV20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="AW20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.15</v>
+      </c>
+      <c r="AX20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.1</v>
+      </c>
+      <c r="AY20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AZ20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="BA20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="BB20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="BC20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.15</v>
+      </c>
+      <c r="BD20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.1</v>
+      </c>
+      <c r="BE20" s="29">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
@@ -18020,38 +18605,31 @@
       <c r="B984" s="8"/>
       <c r="E984" s="8"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="7"/>
-      <c r="B985" s="8"/>
-      <c r="E985" s="8"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="7"/>
-      <c r="B986" s="8"/>
-      <c r="E986" s="8"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="7"/>
-      <c r="B987" s="8"/>
-      <c r="E987" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="AM2:AM4"/>
-    <mergeCell ref="AN2:AN4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AQ4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AS2:AS4"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AG2:AG4"/>
-    <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="AI2:AI4"/>
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="AL2:AL4"/>
+  <mergeCells count="74">
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="R2:R4"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
     <mergeCell ref="S2:S4"/>
     <mergeCell ref="T2:T4"/>
     <mergeCell ref="U2:U4"/>
@@ -18065,10 +18643,20 @@
     <mergeCell ref="AC2:AC4"/>
     <mergeCell ref="AD2:AD4"/>
     <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="AL2:AL4"/>
+    <mergeCell ref="AM2:AM4"/>
+    <mergeCell ref="AN2:AN4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AQ4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AS4"/>
     <mergeCell ref="AT2:AT4"/>
     <mergeCell ref="BB2:BB4"/>
     <mergeCell ref="BC2:BC4"/>
@@ -18076,59 +18664,44 @@
     <mergeCell ref="BE2:BE4"/>
     <mergeCell ref="AU2:AU4"/>
     <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
     <mergeCell ref="BA2:BA4"/>
+    <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AR6"/>
     <mergeCell ref="AS6:AW6"/>
     <mergeCell ref="AX6:BA6"/>
     <mergeCell ref="BB6:BE6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="W6:AA6"/>
     <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="F6:J6"/>
   </mergeCells>
-  <conditionalFormatting sqref="F10:BE10 F13:BE13">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="F10:BE10 F13:BE13 F18:BE18">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($B10="Maximum",F10&gt;=F11)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:BE10 F13:BE13">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="F10:BE10 F13:BE13 F18:BE18">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND($B10="Minimum",50%&gt;F12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:BE10 F13:BE13">
+  <conditionalFormatting sqref="F10:BE10 F13:BE13 F18:BE18">
     <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(F10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B10 B13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B10 B13 B18">
       <formula1>"Maximum,Minimum"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B11 B14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B11 B14 B19">
       <formula1>"Long-Term,Short-Term"</formula1>
     </dataValidation>
   </dataValidations>

--- a/templates/management/Balance Scorecard (BSC).xlsx
+++ b/templates/management/Balance Scorecard (BSC).xlsx
@@ -427,7 +427,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font/>
       <fill>
@@ -454,6 +454,36 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
         </patternFill>
       </fill>
       <border/>
@@ -751,211 +781,211 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4">
         <f t="shared" ref="F1:BE1" si="1">AVERAGEIFS(F9:F1013,$E9:$E1013,"% Target")</f>
-        <v>0.5476855879</v>
+        <v>0.5123800165</v>
       </c>
       <c r="G1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4958593407</v>
+        <v>0.5176367692</v>
       </c>
       <c r="H1" s="4">
         <f t="shared" si="1"/>
-        <v>0.3818893571</v>
+        <v>0.4607013571</v>
       </c>
       <c r="I1" s="4">
         <f t="shared" si="1"/>
-        <v>0.575169989</v>
+        <v>0.5576107033</v>
       </c>
       <c r="J1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5814697418</v>
+        <v>0.6340390275</v>
       </c>
       <c r="K1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4971453516</v>
+        <v>0.5459087802</v>
       </c>
       <c r="L1" s="4">
         <f t="shared" si="1"/>
-        <v>0.572833533</v>
+        <v>0.4412653901</v>
       </c>
       <c r="M1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5798191429</v>
+        <v>0.5587292857</v>
       </c>
       <c r="N1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5578983242</v>
+        <v>0.5151501813</v>
       </c>
       <c r="O1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5489223626</v>
+        <v>0.5058896484</v>
       </c>
       <c r="P1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6871329725</v>
+        <v>0.5449571154</v>
       </c>
       <c r="Q1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6182335824</v>
+        <v>0.508231011</v>
       </c>
       <c r="R1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4932197637</v>
+        <v>0.5315597637</v>
       </c>
       <c r="S1" s="4">
         <f t="shared" si="1"/>
-        <v>0.4935375165</v>
+        <v>0.6444495165</v>
       </c>
       <c r="T1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6285525549</v>
+        <v>0.5985019835</v>
       </c>
       <c r="U1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6043277363</v>
+        <v>0.6556178791</v>
       </c>
       <c r="V1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5898452033</v>
+        <v>0.625416489</v>
       </c>
       <c r="W1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7299640989</v>
+        <v>0.5915535275</v>
       </c>
       <c r="X1" s="4">
         <f t="shared" si="1"/>
-        <v>0.5666115659</v>
+        <v>0.6402661374</v>
       </c>
       <c r="Y1" s="4">
         <f t="shared" si="1"/>
-        <v>0.606244033</v>
+        <v>0.6167071758</v>
       </c>
       <c r="Z1" s="4">
         <f t="shared" si="1"/>
-        <v>0.6258436429</v>
+        <v>0.5973662143</v>
       </c>
       <c r="AA1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7588926813</v>
+        <v>0.7528155385</v>
       </c>
       <c r="AB1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7149505769</v>
+        <v>0.7932020055</v>
       </c>
       <c r="AC1" s="4">
         <f t="shared" si="1"/>
-        <v>0.809738044</v>
+        <v>0.6804049011</v>
       </c>
       <c r="AD1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7316729396</v>
+        <v>0.7140917967</v>
       </c>
       <c r="AE1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7580118352</v>
+        <v>0.7005654066</v>
       </c>
       <c r="AF1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7018445879</v>
+        <v>0.6387427308</v>
       </c>
       <c r="AG1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7790114835</v>
+        <v>0.7078747692</v>
       </c>
       <c r="AH1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7715890934</v>
+        <v>0.7918943791</v>
       </c>
       <c r="AI1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7752677033</v>
+        <v>0.7775055604</v>
       </c>
       <c r="AJ1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7765193132</v>
+        <v>0.7727668846</v>
       </c>
       <c r="AK1" s="4">
         <f t="shared" si="1"/>
-        <v>0.7806887802</v>
+        <v>0.7668852088</v>
       </c>
       <c r="AL1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8285609615</v>
+        <v>0.8124896758</v>
       </c>
       <c r="AM1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8736687143</v>
+        <v>0.8761102857</v>
       </c>
       <c r="AN1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8941190385</v>
+        <v>0.7823236099</v>
       </c>
       <c r="AO1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8578730769</v>
+        <v>0.8267819341</v>
       </c>
       <c r="AP1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9002958297</v>
+        <v>0.868796544</v>
       </c>
       <c r="AQ1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8326777253</v>
+        <v>0.8915434396</v>
       </c>
       <c r="AR1" s="4">
         <f t="shared" si="1"/>
-        <v>0.8648131923</v>
+        <v>0.826209478</v>
       </c>
       <c r="AS1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9090312308</v>
+        <v>0.9499948022</v>
       </c>
       <c r="AT1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9869829835</v>
+        <v>0.9284955549</v>
       </c>
       <c r="AU1" s="4">
         <f t="shared" si="1"/>
-        <v>0.926104022</v>
+        <v>0.9715573077</v>
       </c>
       <c r="AV1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9530286319</v>
+        <v>0.9195082033</v>
       </c>
       <c r="AW1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9556492418</v>
+        <v>0.9499325275</v>
       </c>
       <c r="AX1" s="4">
         <f t="shared" si="1"/>
-        <v>0.9719321374</v>
+        <v>0.9156012802</v>
       </c>
       <c r="AY1" s="4">
         <f t="shared" si="1"/>
-        <v>1.07047889</v>
+        <v>1.125087604</v>
       </c>
       <c r="AZ1" s="4">
         <f t="shared" si="1"/>
-        <v>1.112661643</v>
+        <v>1.030659357</v>
       </c>
       <c r="BA1" s="4">
         <f t="shared" si="1"/>
-        <v>1.071864396</v>
+        <v>1.071155253</v>
       </c>
       <c r="BB1" s="4">
         <f t="shared" si="1"/>
-        <v>1.027063577</v>
+        <v>1.089324863</v>
       </c>
       <c r="BC1" s="4">
         <f t="shared" si="1"/>
-        <v>1.062574187</v>
+        <v>0.963132044</v>
       </c>
       <c r="BD1" s="4">
         <f t="shared" si="1"/>
-        <v>1.063307797</v>
+        <v>0.9902587967</v>
       </c>
       <c r="BE1" s="4">
         <f t="shared" si="1"/>
-        <v>1.102497264</v>
+        <v>1.172712549</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -1411,7 +1441,7 @@
       <c r="B9" s="19"/>
       <c r="C9" s="20">
         <f>SUMIFS(C10:C1013,A10:A1013,A10)</f>
-        <v>0.9026899011</v>
+        <v>0.902465156</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
@@ -1477,7 +1507,7 @@
       </c>
       <c r="C10" s="25">
         <f t="array" ref="C10">IF( B11="Short-Term", AVERAGE(F12:BE12)*B12, INDEX(F12:BE12, 1, COUNTA(F12:BE12))*B12 )</f>
-        <v>0.3030948462</v>
+        <v>0.3081404308</v>
       </c>
       <c r="D10" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B11=""Short-Term"", SPARKLINE(F12:BE12,IF(B10=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F12:BE12, 1, COUNTA(F12:BE12)) ,IF(B10=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -1488,211 +1518,211 @@
       </c>
       <c r="F10" s="26">
         <f t="shared" ref="F10:BE10" si="2">RANDBETWEEN(100000,150000)</f>
-        <v>131164</v>
+        <v>135416</v>
       </c>
       <c r="G10" s="26">
         <f t="shared" si="2"/>
-        <v>131550</v>
+        <v>116094</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="2"/>
-        <v>145441</v>
+        <v>112629</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="2"/>
-        <v>122341</v>
+        <v>119311</v>
       </c>
       <c r="J10" s="26">
         <f t="shared" si="2"/>
-        <v>147101</v>
+        <v>104996</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="2"/>
-        <v>130253</v>
+        <v>111186</v>
       </c>
       <c r="L10" s="26">
         <f t="shared" si="2"/>
-        <v>106321</v>
+        <v>133532</v>
       </c>
       <c r="M10" s="26">
         <f t="shared" si="2"/>
-        <v>103413</v>
+        <v>100985</v>
       </c>
       <c r="N10" s="26">
         <f t="shared" si="2"/>
-        <v>112715</v>
+        <v>140481</v>
       </c>
       <c r="O10" s="26">
         <f t="shared" si="2"/>
-        <v>105340</v>
+        <v>116587</v>
       </c>
       <c r="P10" s="26">
         <f t="shared" si="2"/>
-        <v>107207</v>
+        <v>118240</v>
       </c>
       <c r="Q10" s="26">
         <f t="shared" si="2"/>
-        <v>110184</v>
+        <v>120633</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="2"/>
-        <v>128704</v>
+        <v>117739</v>
       </c>
       <c r="S10" s="26">
         <f t="shared" si="2"/>
-        <v>116321</v>
+        <v>102284</v>
       </c>
       <c r="T10" s="26">
         <f t="shared" si="2"/>
-        <v>141955</v>
+        <v>130827</v>
       </c>
       <c r="U10" s="26">
         <f t="shared" si="2"/>
-        <v>119061</v>
+        <v>118003</v>
       </c>
       <c r="V10" s="26">
         <f t="shared" si="2"/>
-        <v>140264</v>
+        <v>119907</v>
       </c>
       <c r="W10" s="26">
         <f t="shared" si="2"/>
-        <v>116562</v>
+        <v>148419</v>
       </c>
       <c r="X10" s="26">
         <f t="shared" si="2"/>
-        <v>123635</v>
+        <v>120784</v>
       </c>
       <c r="Y10" s="26">
         <f t="shared" si="2"/>
-        <v>121473</v>
+        <v>117367</v>
       </c>
       <c r="Z10" s="26">
         <f t="shared" si="2"/>
-        <v>112076</v>
+        <v>147482</v>
       </c>
       <c r="AA10" s="26">
         <f t="shared" si="2"/>
-        <v>123301</v>
+        <v>111771</v>
       </c>
       <c r="AB10" s="26">
         <f t="shared" si="2"/>
-        <v>138785</v>
+        <v>114105</v>
       </c>
       <c r="AC10" s="26">
         <f t="shared" si="2"/>
-        <v>134218</v>
+        <v>113694</v>
       </c>
       <c r="AD10" s="26">
         <f t="shared" si="2"/>
-        <v>115450</v>
+        <v>111299</v>
       </c>
       <c r="AE10" s="26">
         <f t="shared" si="2"/>
-        <v>139403</v>
+        <v>125778</v>
       </c>
       <c r="AF10" s="26">
         <f t="shared" si="2"/>
-        <v>134505</v>
+        <v>118339</v>
       </c>
       <c r="AG10" s="26">
         <f t="shared" si="2"/>
-        <v>104880</v>
+        <v>118981</v>
       </c>
       <c r="AH10" s="26">
         <f t="shared" si="2"/>
-        <v>121755</v>
+        <v>125789</v>
       </c>
       <c r="AI10" s="26">
         <f t="shared" si="2"/>
-        <v>133154</v>
+        <v>113309</v>
       </c>
       <c r="AJ10" s="26">
         <f t="shared" si="2"/>
-        <v>128855</v>
+        <v>124286</v>
       </c>
       <c r="AK10" s="26">
         <f t="shared" si="2"/>
-        <v>144031</v>
+        <v>112656</v>
       </c>
       <c r="AL10" s="26">
         <f t="shared" si="2"/>
-        <v>123665</v>
+        <v>138272</v>
       </c>
       <c r="AM10" s="26">
         <f t="shared" si="2"/>
-        <v>133617</v>
+        <v>149354</v>
       </c>
       <c r="AN10" s="26">
         <f t="shared" si="2"/>
-        <v>138155</v>
+        <v>137379</v>
       </c>
       <c r="AO10" s="26">
         <f t="shared" si="2"/>
-        <v>124175</v>
+        <v>111159</v>
       </c>
       <c r="AP10" s="26">
         <f t="shared" si="2"/>
-        <v>147187</v>
+        <v>125097</v>
       </c>
       <c r="AQ10" s="26">
         <f t="shared" si="2"/>
-        <v>126847</v>
+        <v>107642</v>
       </c>
       <c r="AR10" s="26">
         <f t="shared" si="2"/>
-        <v>107057</v>
+        <v>123875</v>
       </c>
       <c r="AS10" s="26">
         <f t="shared" si="2"/>
-        <v>145238</v>
+        <v>106953</v>
       </c>
       <c r="AT10" s="26">
         <f t="shared" si="2"/>
-        <v>122971</v>
+        <v>106887</v>
       </c>
       <c r="AU10" s="26">
         <f t="shared" si="2"/>
-        <v>142624</v>
+        <v>111260</v>
       </c>
       <c r="AV10" s="26">
         <f t="shared" si="2"/>
-        <v>108527</v>
+        <v>110476</v>
       </c>
       <c r="AW10" s="26">
         <f t="shared" si="2"/>
-        <v>127734</v>
+        <v>126540</v>
       </c>
       <c r="AX10" s="26">
         <f t="shared" si="2"/>
-        <v>104993</v>
+        <v>133306</v>
       </c>
       <c r="AY10" s="26">
         <f t="shared" si="2"/>
-        <v>102256</v>
+        <v>132308</v>
       </c>
       <c r="AZ10" s="26">
         <f t="shared" si="2"/>
-        <v>101258</v>
+        <v>131171</v>
       </c>
       <c r="BA10" s="26">
         <f t="shared" si="2"/>
-        <v>107740</v>
+        <v>120342</v>
       </c>
       <c r="BB10" s="26">
         <f t="shared" si="2"/>
-        <v>108297</v>
+        <v>112375</v>
       </c>
       <c r="BC10" s="26">
         <f t="shared" si="2"/>
-        <v>105489</v>
+        <v>149824</v>
       </c>
       <c r="BD10" s="26">
         <f t="shared" si="2"/>
-        <v>141458</v>
+        <v>121757</v>
       </c>
       <c r="BE10" s="26">
         <f t="shared" si="2"/>
-        <v>122239</v>
+        <v>124738</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1871,211 +1901,211 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ref="F12:BE12" si="3">IF( $B10="Maximum", F10/F11 , IF( 100%-(F10-F11)/F11 &gt; 0, 100%-(F10-F11)/F11, 0) )</f>
-        <v>0.950688</v>
+        <v>0.916672</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="3"/>
-        <v>0.9476</v>
+        <v>1.071248</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" si="3"/>
-        <v>0.836472</v>
+        <v>1.098968</v>
       </c>
       <c r="I12" s="29">
         <f t="shared" si="3"/>
-        <v>1.021272</v>
+        <v>1.045512</v>
       </c>
       <c r="J12" s="29">
         <f t="shared" si="3"/>
-        <v>0.823192</v>
+        <v>1.160032</v>
       </c>
       <c r="K12" s="29">
         <f t="shared" si="3"/>
-        <v>0.957976</v>
+        <v>1.110512</v>
       </c>
       <c r="L12" s="29">
         <f t="shared" si="3"/>
-        <v>1.149432</v>
+        <v>0.931744</v>
       </c>
       <c r="M12" s="29">
         <f t="shared" si="3"/>
-        <v>1.172696</v>
+        <v>1.19212</v>
       </c>
       <c r="N12" s="29">
         <f t="shared" si="3"/>
-        <v>1.09828</v>
+        <v>0.876152</v>
       </c>
       <c r="O12" s="29">
         <f t="shared" si="3"/>
-        <v>1.15728</v>
+        <v>1.067304</v>
       </c>
       <c r="P12" s="29">
         <f t="shared" si="3"/>
-        <v>1.142344</v>
+        <v>1.05408</v>
       </c>
       <c r="Q12" s="29">
         <f t="shared" si="3"/>
-        <v>1.118528</v>
+        <v>1.034936</v>
       </c>
       <c r="R12" s="29">
         <f t="shared" si="3"/>
-        <v>0.970368</v>
+        <v>1.058088</v>
       </c>
       <c r="S12" s="29">
         <f t="shared" si="3"/>
-        <v>1.069432</v>
+        <v>1.181728</v>
       </c>
       <c r="T12" s="29">
         <f t="shared" si="3"/>
-        <v>0.86436</v>
+        <v>0.953384</v>
       </c>
       <c r="U12" s="29">
         <f t="shared" si="3"/>
-        <v>1.047512</v>
+        <v>1.055976</v>
       </c>
       <c r="V12" s="29">
         <f t="shared" si="3"/>
-        <v>0.877888</v>
+        <v>1.040744</v>
       </c>
       <c r="W12" s="29">
         <f t="shared" si="3"/>
-        <v>1.067504</v>
+        <v>0.812648</v>
       </c>
       <c r="X12" s="29">
         <f t="shared" si="3"/>
-        <v>1.01092</v>
+        <v>1.033728</v>
       </c>
       <c r="Y12" s="29">
         <f t="shared" si="3"/>
-        <v>1.028216</v>
+        <v>1.061064</v>
       </c>
       <c r="Z12" s="29">
         <f t="shared" si="3"/>
-        <v>1.103392</v>
+        <v>0.820144</v>
       </c>
       <c r="AA12" s="29">
         <f t="shared" si="3"/>
-        <v>1.013592</v>
+        <v>1.105832</v>
       </c>
       <c r="AB12" s="29">
         <f t="shared" si="3"/>
-        <v>0.88972</v>
+        <v>1.08716</v>
       </c>
       <c r="AC12" s="29">
         <f t="shared" si="3"/>
-        <v>0.926256</v>
+        <v>1.090448</v>
       </c>
       <c r="AD12" s="29">
         <f t="shared" si="3"/>
-        <v>1.0764</v>
+        <v>1.109608</v>
       </c>
       <c r="AE12" s="29">
         <f t="shared" si="3"/>
-        <v>0.884776</v>
+        <v>0.993776</v>
       </c>
       <c r="AF12" s="29">
         <f t="shared" si="3"/>
-        <v>0.92396</v>
+        <v>1.053288</v>
       </c>
       <c r="AG12" s="29">
         <f t="shared" si="3"/>
-        <v>1.16096</v>
+        <v>1.048152</v>
       </c>
       <c r="AH12" s="29">
         <f t="shared" si="3"/>
-        <v>1.02596</v>
+        <v>0.993688</v>
       </c>
       <c r="AI12" s="29">
         <f t="shared" si="3"/>
-        <v>0.934768</v>
+        <v>1.093528</v>
       </c>
       <c r="AJ12" s="29">
         <f t="shared" si="3"/>
-        <v>0.96916</v>
+        <v>1.005712</v>
       </c>
       <c r="AK12" s="29">
         <f t="shared" si="3"/>
-        <v>0.847752</v>
+        <v>1.098752</v>
       </c>
       <c r="AL12" s="29">
         <f t="shared" si="3"/>
-        <v>1.01068</v>
+        <v>0.893824</v>
       </c>
       <c r="AM12" s="29">
         <f t="shared" si="3"/>
-        <v>0.931064</v>
+        <v>0.805168</v>
       </c>
       <c r="AN12" s="29">
         <f t="shared" si="3"/>
-        <v>0.89476</v>
+        <v>0.900968</v>
       </c>
       <c r="AO12" s="29">
         <f t="shared" si="3"/>
-        <v>1.0066</v>
+        <v>1.110728</v>
       </c>
       <c r="AP12" s="29">
         <f t="shared" si="3"/>
-        <v>0.822504</v>
+        <v>0.999224</v>
       </c>
       <c r="AQ12" s="29">
         <f t="shared" si="3"/>
-        <v>0.985224</v>
+        <v>1.138864</v>
       </c>
       <c r="AR12" s="29">
         <f t="shared" si="3"/>
-        <v>1.143544</v>
+        <v>1.009</v>
       </c>
       <c r="AS12" s="29">
         <f t="shared" si="3"/>
-        <v>0.838096</v>
+        <v>1.144376</v>
       </c>
       <c r="AT12" s="29">
         <f t="shared" si="3"/>
-        <v>1.016232</v>
+        <v>1.144904</v>
       </c>
       <c r="AU12" s="29">
         <f t="shared" si="3"/>
-        <v>0.859008</v>
+        <v>1.10992</v>
       </c>
       <c r="AV12" s="29">
         <f t="shared" si="3"/>
-        <v>1.131784</v>
+        <v>1.116192</v>
       </c>
       <c r="AW12" s="29">
         <f t="shared" si="3"/>
-        <v>0.978128</v>
+        <v>0.98768</v>
       </c>
       <c r="AX12" s="29">
         <f t="shared" si="3"/>
-        <v>1.160056</v>
+        <v>0.933552</v>
       </c>
       <c r="AY12" s="29">
         <f t="shared" si="3"/>
-        <v>1.181952</v>
+        <v>0.941536</v>
       </c>
       <c r="AZ12" s="29">
         <f t="shared" si="3"/>
-        <v>1.189936</v>
+        <v>0.950632</v>
       </c>
       <c r="BA12" s="29">
         <f t="shared" si="3"/>
-        <v>1.13808</v>
+        <v>1.037264</v>
       </c>
       <c r="BB12" s="29">
         <f t="shared" si="3"/>
-        <v>1.133624</v>
+        <v>1.101</v>
       </c>
       <c r="BC12" s="29">
         <f t="shared" si="3"/>
-        <v>1.156088</v>
+        <v>0.801408</v>
       </c>
       <c r="BD12" s="29">
         <f t="shared" si="3"/>
-        <v>0.868336</v>
+        <v>1.025944</v>
       </c>
       <c r="BE12" s="29">
         <f t="shared" si="3"/>
-        <v>1.022088</v>
+        <v>1.002096</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -2087,7 +2117,7 @@
       </c>
       <c r="C13" s="25">
         <f t="array" ref="C13">IF( B14="Short-Term", AVERAGE(F15:BE15)*B15, INDEX(F15:BE15, 1, COUNTA(F15:BE15))*B15 )</f>
-        <v>0.1897489011</v>
+        <v>0.1844785714</v>
       </c>
       <c r="D13" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B14=""Short-Term"", SPARKLINE(F15:BE15,IF(B13=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F15:BE15, 1, COUNTA(F15:BE15)) ,IF(B13=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -2098,211 +2128,211 @@
       </c>
       <c r="F13" s="26">
         <f t="shared" ref="F13:BE13" si="4">RANDBETWEEN(5000,10000)</f>
-        <v>8525</v>
+        <v>6064</v>
       </c>
       <c r="G13" s="26">
         <f t="shared" si="4"/>
-        <v>6857</v>
+        <v>7833</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="4"/>
-        <v>9442</v>
+        <v>7076</v>
       </c>
       <c r="I13" s="26">
         <f t="shared" si="4"/>
-        <v>8954</v>
+        <v>7797</v>
       </c>
       <c r="J13" s="26">
         <f t="shared" si="4"/>
-        <v>7146</v>
+        <v>7820</v>
       </c>
       <c r="K13" s="26">
         <f t="shared" si="4"/>
-        <v>8613</v>
+        <v>7160</v>
       </c>
       <c r="L13" s="26">
         <f t="shared" si="4"/>
-        <v>7886</v>
+        <v>9530</v>
       </c>
       <c r="M13" s="26">
         <f t="shared" si="4"/>
-        <v>5699</v>
+        <v>7716</v>
       </c>
       <c r="N13" s="26">
         <f t="shared" si="4"/>
-        <v>5847</v>
+        <v>5706</v>
       </c>
       <c r="O13" s="26">
         <f t="shared" si="4"/>
-        <v>7674</v>
+        <v>8754</v>
       </c>
       <c r="P13" s="26">
         <f t="shared" si="4"/>
-        <v>5361</v>
+        <v>7175</v>
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="4"/>
-        <v>5764</v>
+        <v>8329</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="4"/>
-        <v>8999</v>
+        <v>6206</v>
       </c>
       <c r="S13" s="26">
         <f t="shared" si="4"/>
-        <v>8556</v>
+        <v>7051</v>
       </c>
       <c r="T13" s="26">
         <f t="shared" si="4"/>
-        <v>7191</v>
+        <v>6417</v>
       </c>
       <c r="U13" s="26">
         <f t="shared" si="4"/>
-        <v>8781</v>
+        <v>6458</v>
       </c>
       <c r="V13" s="26">
         <f t="shared" si="4"/>
-        <v>8266</v>
+        <v>8114</v>
       </c>
       <c r="W13" s="26">
         <f t="shared" si="4"/>
-        <v>5808</v>
+        <v>6665</v>
       </c>
       <c r="X13" s="26">
         <f t="shared" si="4"/>
-        <v>8331</v>
+        <v>5766</v>
       </c>
       <c r="Y13" s="26">
         <f t="shared" si="4"/>
-        <v>9034</v>
+        <v>6648</v>
       </c>
       <c r="Z13" s="26">
         <f t="shared" si="4"/>
-        <v>9024</v>
+        <v>7586</v>
       </c>
       <c r="AA13" s="26">
         <f t="shared" si="4"/>
-        <v>6546</v>
+        <v>8652</v>
       </c>
       <c r="AB13" s="26">
         <f t="shared" si="4"/>
-        <v>5691</v>
+        <v>7031</v>
       </c>
       <c r="AC13" s="26">
         <f t="shared" si="4"/>
-        <v>5190</v>
+        <v>5812</v>
       </c>
       <c r="AD13" s="26">
         <f t="shared" si="4"/>
-        <v>6204</v>
+        <v>7351</v>
       </c>
       <c r="AE13" s="26">
         <f t="shared" si="4"/>
-        <v>5559</v>
+        <v>6669</v>
       </c>
       <c r="AF13" s="26">
         <f t="shared" si="4"/>
-        <v>8280</v>
+        <v>8449</v>
       </c>
       <c r="AG13" s="26">
         <f t="shared" si="4"/>
-        <v>9819</v>
+        <v>8113</v>
       </c>
       <c r="AH13" s="26">
         <f t="shared" si="4"/>
-        <v>9291</v>
+        <v>7928</v>
       </c>
       <c r="AI13" s="26">
         <f t="shared" si="4"/>
-        <v>7398</v>
+        <v>5864</v>
       </c>
       <c r="AJ13" s="26">
         <f t="shared" si="4"/>
-        <v>7990</v>
+        <v>5796</v>
       </c>
       <c r="AK13" s="26">
         <f t="shared" si="4"/>
-        <v>9778</v>
+        <v>6638</v>
       </c>
       <c r="AL13" s="26">
         <f t="shared" si="4"/>
-        <v>7189</v>
+        <v>5101</v>
       </c>
       <c r="AM13" s="26">
         <f t="shared" si="4"/>
-        <v>9497</v>
+        <v>8899</v>
       </c>
       <c r="AN13" s="26">
         <f t="shared" si="4"/>
-        <v>5019</v>
+        <v>9573</v>
       </c>
       <c r="AO13" s="26">
         <f t="shared" si="4"/>
-        <v>6433</v>
+        <v>8833</v>
       </c>
       <c r="AP13" s="26">
         <f t="shared" si="4"/>
-        <v>6130</v>
+        <v>6891</v>
       </c>
       <c r="AQ13" s="26">
         <f t="shared" si="4"/>
-        <v>7697</v>
+        <v>8976</v>
       </c>
       <c r="AR13" s="26">
         <f t="shared" si="4"/>
-        <v>6867</v>
+        <v>8577</v>
       </c>
       <c r="AS13" s="26">
         <f t="shared" si="4"/>
-        <v>7644</v>
+        <v>9454</v>
       </c>
       <c r="AT13" s="26">
         <f t="shared" si="4"/>
-        <v>7607</v>
+        <v>9963</v>
       </c>
       <c r="AU13" s="26">
         <f t="shared" si="4"/>
-        <v>5507</v>
+        <v>9128</v>
       </c>
       <c r="AV13" s="26">
         <f t="shared" si="4"/>
-        <v>8780</v>
+        <v>7608</v>
       </c>
       <c r="AW13" s="26">
         <f t="shared" si="4"/>
-        <v>6649</v>
+        <v>8016</v>
       </c>
       <c r="AX13" s="26">
         <f t="shared" si="4"/>
-        <v>8552</v>
+        <v>9771</v>
       </c>
       <c r="AY13" s="26">
         <f t="shared" si="4"/>
-        <v>6058</v>
+        <v>5307</v>
       </c>
       <c r="AZ13" s="26">
         <f t="shared" si="4"/>
-        <v>6343</v>
+        <v>9540</v>
       </c>
       <c r="BA13" s="26">
         <f t="shared" si="4"/>
-        <v>6306</v>
+        <v>7320</v>
       </c>
       <c r="BB13" s="26">
         <f t="shared" si="4"/>
-        <v>7665</v>
+        <v>5700</v>
       </c>
       <c r="BC13" s="26">
         <f t="shared" si="4"/>
-        <v>5975</v>
+        <v>8011</v>
       </c>
       <c r="BD13" s="26">
         <f t="shared" si="4"/>
-        <v>7631</v>
+        <v>9745</v>
       </c>
       <c r="BE13" s="26">
         <f t="shared" si="4"/>
-        <v>5604</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -2481,211 +2511,211 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ref="F15:BE15" si="5">IF( $B13="Maximum", F13/F14 , IF( 100%-(F13-F14)/F14 &gt; 0, 100%-(F13-F14)/F14, 0) )</f>
-        <v>0.7821428571</v>
+        <v>1.133714286</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="5"/>
-        <v>1.020428571</v>
+        <v>0.881</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6511428571</v>
+        <v>0.9891428571</v>
       </c>
       <c r="I15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7208571429</v>
+        <v>0.8861428571</v>
       </c>
       <c r="J15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9791428571</v>
+        <v>0.8828571429</v>
       </c>
       <c r="K15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7695714286</v>
+        <v>0.9771428571</v>
       </c>
       <c r="L15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8734285714</v>
+        <v>0.6385714286</v>
       </c>
       <c r="M15" s="29">
         <f t="shared" si="5"/>
-        <v>1.185857143</v>
+        <v>0.8977142857</v>
       </c>
       <c r="N15" s="29">
         <f t="shared" si="5"/>
-        <v>1.164714286</v>
+        <v>1.184857143</v>
       </c>
       <c r="O15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9037142857</v>
+        <v>0.7494285714</v>
       </c>
       <c r="P15" s="29">
         <f t="shared" si="5"/>
-        <v>1.234142857</v>
+        <v>0.975</v>
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="5"/>
-        <v>1.176571429</v>
+        <v>0.8101428571</v>
       </c>
       <c r="R15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7144285714</v>
+        <v>1.113428571</v>
       </c>
       <c r="S15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7777142857</v>
+        <v>0.9927142857</v>
       </c>
       <c r="T15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9727142857</v>
+        <v>1.083285714</v>
       </c>
       <c r="U15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7455714286</v>
+        <v>1.077428571</v>
       </c>
       <c r="V15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8191428571</v>
+        <v>0.8408571429</v>
       </c>
       <c r="W15" s="29">
         <f t="shared" si="5"/>
-        <v>1.170285714</v>
+        <v>1.047857143</v>
       </c>
       <c r="X15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8098571429</v>
+        <v>1.176285714</v>
       </c>
       <c r="Y15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7094285714</v>
+        <v>1.050285714</v>
       </c>
       <c r="Z15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7108571429</v>
+        <v>0.9162857143</v>
       </c>
       <c r="AA15" s="29">
         <f t="shared" si="5"/>
-        <v>1.064857143</v>
+        <v>0.764</v>
       </c>
       <c r="AB15" s="29">
         <f t="shared" si="5"/>
-        <v>1.187</v>
+        <v>0.9955714286</v>
       </c>
       <c r="AC15" s="29">
         <f t="shared" si="5"/>
-        <v>1.258571429</v>
+        <v>1.169714286</v>
       </c>
       <c r="AD15" s="29">
         <f t="shared" si="5"/>
-        <v>1.113714286</v>
+        <v>0.9498571429</v>
       </c>
       <c r="AE15" s="29">
         <f t="shared" si="5"/>
-        <v>1.205857143</v>
+        <v>1.047285714</v>
       </c>
       <c r="AF15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8171428571</v>
+        <v>0.793</v>
       </c>
       <c r="AG15" s="29">
         <f t="shared" si="5"/>
-        <v>0.5972857143</v>
+        <v>0.841</v>
       </c>
       <c r="AH15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6727142857</v>
+        <v>0.8674285714</v>
       </c>
       <c r="AI15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9431428571</v>
+        <v>1.162285714</v>
       </c>
       <c r="AJ15" s="29">
         <f t="shared" si="5"/>
-        <v>0.8585714286</v>
+        <v>1.172</v>
       </c>
       <c r="AK15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6031428571</v>
+        <v>1.051714286</v>
       </c>
       <c r="AL15" s="29">
         <f t="shared" si="5"/>
-        <v>0.973</v>
+        <v>1.271285714</v>
       </c>
       <c r="AM15" s="29">
         <f t="shared" si="5"/>
-        <v>0.6432857143</v>
+        <v>0.7287142857</v>
       </c>
       <c r="AN15" s="29">
         <f t="shared" si="5"/>
-        <v>1.283</v>
+        <v>0.6324285714</v>
       </c>
       <c r="AO15" s="29">
         <f t="shared" si="5"/>
-        <v>1.081</v>
+        <v>0.7381428571</v>
       </c>
       <c r="AP15" s="29">
         <f t="shared" si="5"/>
-        <v>1.124285714</v>
+        <v>1.015571429</v>
       </c>
       <c r="AQ15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9004285714</v>
+        <v>0.7177142857</v>
       </c>
       <c r="AR15" s="29">
         <f t="shared" si="5"/>
-        <v>1.019</v>
+        <v>0.7747142857</v>
       </c>
       <c r="AS15" s="29">
         <f t="shared" si="5"/>
-        <v>0.908</v>
+        <v>0.6494285714</v>
       </c>
       <c r="AT15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9132857143</v>
+        <v>0.5767142857</v>
       </c>
       <c r="AU15" s="29">
         <f t="shared" si="5"/>
-        <v>1.213285714</v>
+        <v>0.696</v>
       </c>
       <c r="AV15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7457142857</v>
+        <v>0.9131428571</v>
       </c>
       <c r="AW15" s="29">
         <f t="shared" si="5"/>
-        <v>1.050142857</v>
+        <v>0.8548571429</v>
       </c>
       <c r="AX15" s="29">
         <f t="shared" si="5"/>
-        <v>0.7782857143</v>
+        <v>0.6041428571</v>
       </c>
       <c r="AY15" s="29">
         <f t="shared" si="5"/>
-        <v>1.134571429</v>
+        <v>1.241857143</v>
       </c>
       <c r="AZ15" s="29">
         <f t="shared" si="5"/>
-        <v>1.093857143</v>
+        <v>0.6371428571</v>
       </c>
       <c r="BA15" s="29">
         <f t="shared" si="5"/>
-        <v>1.099142857</v>
+        <v>0.9542857143</v>
       </c>
       <c r="BB15" s="29">
         <f t="shared" si="5"/>
-        <v>0.905</v>
+        <v>1.185714286</v>
       </c>
       <c r="BC15" s="29">
         <f t="shared" si="5"/>
-        <v>1.146428571</v>
+        <v>0.8555714286</v>
       </c>
       <c r="BD15" s="29">
         <f t="shared" si="5"/>
-        <v>0.9098571429</v>
+        <v>0.6078571429</v>
       </c>
       <c r="BE15" s="29">
         <f t="shared" si="5"/>
-        <v>1.199428571</v>
+        <v>1.191142857</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -4461,7 +4491,7 @@
       <c r="B30" s="19"/>
       <c r="C30" s="20">
         <f>SUMIFS(C31:C1013,A31:A1013,A31)</f>
-        <v>0.7341730769</v>
+        <v>0.6650769231</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="22"/>
@@ -4527,7 +4557,7 @@
       </c>
       <c r="C31" s="25">
         <f t="array" ref="C31">IF( B32="Short-Term", AVERAGE(F33:BE33)*B33, INDEX(F33:BE33, 1, COUNTA(F33:BE33))*B33 )</f>
-        <v>0.3755769231</v>
+        <v>0.3071923077</v>
       </c>
       <c r="D31" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B32=""Short-Term"", SPARKLINE(F33:BE33,IF(B31=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F33:BE33, 1, COUNTA(F33:BE33)) ,IF(B31=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -4538,211 +4568,211 @@
       </c>
       <c r="F31" s="26">
         <f t="shared" ref="F31:BE31" si="9">RANDBETWEEN(1,50)</f>
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G31" s="26">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31" s="26">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J31" s="26">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K31" s="26">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L31" s="26">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="M31" s="26">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N31" s="26">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O31" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P31" s="26">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q31" s="26">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="R31" s="26">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S31" s="26">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="T31" s="26">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="U31" s="26">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="V31" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="W31" s="26">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="X31" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y31" s="26">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="Z31" s="26">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA31" s="26">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB31" s="26">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="AC31" s="26">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="AD31" s="26">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AE31" s="26">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="AF31" s="26">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AG31" s="26">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="AH31" s="26">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AI31" s="26">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AJ31" s="26">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AK31" s="26">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="AL31" s="26">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AM31" s="26">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="AN31" s="26">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AO31" s="26">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AP31" s="26">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="AQ31" s="26">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AR31" s="26">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AS31" s="26">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="AT31" s="26">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AU31" s="26">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="AV31" s="26">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AW31" s="26">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="AX31" s="26">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AY31" s="26">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AZ31" s="26">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="BA31" s="26">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BB31" s="26">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="BC31" s="26">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="BD31" s="26">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="BE31" s="26">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -4921,211 +4951,211 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ref="F33:BE33" si="10">IF( $B31="Maximum", F31/F32 , IF( 100%-(F31-F32)/F32 &gt; 0, 100%-(F31-F32)/F32, 0) )</f>
-        <v>0.96</v>
+        <v>0.44</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" si="10"/>
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="H33" s="29">
         <f t="shared" si="10"/>
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="I33" s="29">
         <f t="shared" si="10"/>
-        <v>0.82</v>
+        <v>0.56</v>
       </c>
       <c r="J33" s="29">
         <f t="shared" si="10"/>
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="K33" s="29">
         <f t="shared" si="10"/>
-        <v>0.52</v>
+        <v>0.78</v>
       </c>
       <c r="L33" s="29">
         <f t="shared" si="10"/>
-        <v>0.96</v>
+        <v>0.28</v>
       </c>
       <c r="M33" s="29">
         <f t="shared" si="10"/>
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="N33" s="29">
         <f t="shared" si="10"/>
-        <v>0.56</v>
+        <v>0.66</v>
       </c>
       <c r="O33" s="29">
         <f t="shared" si="10"/>
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="P33" s="29">
         <f t="shared" si="10"/>
-        <v>0.78</v>
+        <v>0.26</v>
       </c>
       <c r="Q33" s="29">
         <f t="shared" si="10"/>
-        <v>0.76</v>
+        <v>0.42</v>
       </c>
       <c r="R33" s="29">
         <f t="shared" si="10"/>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="S33" s="29">
         <f t="shared" si="10"/>
-        <v>0.26</v>
+        <v>0.96</v>
       </c>
       <c r="T33" s="29">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U33" s="29">
         <f t="shared" si="10"/>
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="V33" s="29">
         <f t="shared" si="10"/>
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="W33" s="29">
         <f t="shared" si="10"/>
-        <v>0.9</v>
+        <v>0.28</v>
       </c>
       <c r="X33" s="29">
         <f t="shared" si="10"/>
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="Y33" s="29">
         <f t="shared" si="10"/>
-        <v>0.66</v>
+        <v>0.24</v>
       </c>
       <c r="Z33" s="29">
         <f t="shared" si="10"/>
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="AA33" s="29">
         <f t="shared" si="10"/>
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="AB33" s="29">
         <f t="shared" si="10"/>
-        <v>0.06</v>
+        <v>0.74</v>
       </c>
       <c r="AC33" s="29">
         <f t="shared" si="10"/>
-        <v>0.88</v>
+        <v>0.06</v>
       </c>
       <c r="AD33" s="29">
         <f t="shared" si="10"/>
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
       <c r="AE33" s="29">
         <f t="shared" si="10"/>
-        <v>0.62</v>
+        <v>0.28</v>
       </c>
       <c r="AF33" s="29">
         <f t="shared" si="10"/>
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="AG33" s="29">
         <f t="shared" si="10"/>
-        <v>0.68</v>
+        <v>0.02</v>
       </c>
       <c r="AH33" s="29">
         <f t="shared" si="10"/>
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="AI33" s="29">
         <f t="shared" si="10"/>
-        <v>0.56</v>
+        <v>0.22</v>
       </c>
       <c r="AJ33" s="29">
         <f t="shared" si="10"/>
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="AK33" s="29">
         <f t="shared" si="10"/>
-        <v>0.9</v>
+        <v>0.26</v>
       </c>
       <c r="AL33" s="29">
         <f t="shared" si="10"/>
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AM33" s="29">
         <f t="shared" si="10"/>
-        <v>0.7</v>
+        <v>0.98</v>
       </c>
       <c r="AN33" s="29">
         <f t="shared" si="10"/>
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="AO33" s="29">
         <f t="shared" si="10"/>
-        <v>0.46</v>
+        <v>0.14</v>
       </c>
       <c r="AP33" s="29">
         <f t="shared" si="10"/>
-        <v>0.86</v>
+        <v>0.26</v>
       </c>
       <c r="AQ33" s="29">
         <f t="shared" si="10"/>
-        <v>0.46</v>
+        <v>0.84</v>
       </c>
       <c r="AR33" s="29">
         <f t="shared" si="10"/>
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
       <c r="AS33" s="29">
         <f t="shared" si="10"/>
-        <v>0.04</v>
+        <v>0.76</v>
       </c>
       <c r="AT33" s="29">
         <f t="shared" si="10"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AU33" s="29">
         <f t="shared" si="10"/>
-        <v>0.08</v>
+        <v>0.96</v>
       </c>
       <c r="AV33" s="29">
         <f t="shared" si="10"/>
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
       <c r="AW33" s="29">
         <f t="shared" si="10"/>
-        <v>0.24</v>
+        <v>0.78</v>
       </c>
       <c r="AX33" s="29">
         <f t="shared" si="10"/>
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="AY33" s="29">
         <f t="shared" si="10"/>
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="AZ33" s="29">
         <f t="shared" si="10"/>
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="BA33" s="29">
         <f t="shared" si="10"/>
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="BB33" s="29">
         <f t="shared" si="10"/>
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="BC33" s="29">
         <f t="shared" si="10"/>
-        <v>0.56</v>
+        <v>0.14</v>
       </c>
       <c r="BD33" s="29">
         <f t="shared" si="10"/>
-        <v>0.82</v>
+        <v>0.36</v>
       </c>
       <c r="BE33" s="29">
         <f t="shared" si="10"/>
-        <v>0.06</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -5137,7 +5167,7 @@
       </c>
       <c r="C34" s="25">
         <f t="array" ref="C34">IF( B35="Short-Term", AVERAGE(F36:BE36)*B36, INDEX(F36:BE36, 1, COUNTA(F36:BE36))*B36 )</f>
-        <v>0.02744230769</v>
+        <v>0.02673076923</v>
       </c>
       <c r="D34" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(B35=""Short-Term"", SPARKLINE(F36:BE36,IF(B34=""Maximum"", {""charttype"",""column"";""color"",""green""}, {""charttype"",""column"";""color"",""purple""})), SPARKLINE(INDEX(F36:BE36, 1, COUNTA(F36:BE36)) ,IF(B34=""Maximum"", {""charttype"",""bar"";""m"&amp;"ax"",100%;""color1"",""green""}, {""charttype"",""bar"";""max"",100%;""color1"",""purple""})) ) "),"")</f>
@@ -5148,211 +5178,211 @@
       </c>
       <c r="F34" s="26">
         <f t="shared" ref="F34:BE34" si="11">RANDBETWEEN(1,50)</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G34" s="26">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H34" s="26">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J34" s="26">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="K34" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="L34" s="26">
         <f t="shared" si="11"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M34" s="26">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N34" s="26">
         <f t="shared" si="11"/>
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="O34" s="26">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="P34" s="26">
         <f t="shared" si="11"/>
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="Q34" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="R34" s="26">
         <f t="shared" si="11"/>
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="S34" s="26">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="T34" s="26">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="U34" s="26">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="V34" s="26">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="W34" s="26">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="X34" s="26">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="Y34" s="26">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Z34" s="26">
         <f t="shared" si="11"/>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AA34" s="26">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AB34" s="26">
         <f t="shared" si="11"/>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AC34" s="26">
         <f t="shared" si="11"/>
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="AD34" s="26">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AE34" s="26">
         <f t="shared" si="11"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AF34" s="26">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="AG34" s="26">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AH34" s="26">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AI34" s="26">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ34" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AK34" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AL34" s="26">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="AM34" s="26">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="AN34" s="26">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AO34" s="26">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="AP34" s="26">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AQ34" s="26">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AR34" s="26">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="AS34" s="26">
         <f t="shared" si="11"/>
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="AT34" s="26">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AU34" s="26">
         <f t="shared" si="11"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="AV34" s="26">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="AW34" s="26">
         <f t="shared" si="11"/>
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="AX34" s="26">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AY34" s="26">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AZ34" s="26">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BA34" s="26">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="BB34" s="26">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC34" s="26">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="BD34" s="26">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BE34" s="26">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -5531,211 +5561,211 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ref="F36:BE36" si="12">IF( $B34="Maximum", F34/F35 , IF( 100%-(F34-F35)/F35 &gt; 0, 100%-(F34-F35)/F35, 0) )</f>
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" si="12"/>
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="H36" s="29">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="I36" s="29">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="J36" s="29">
         <f t="shared" si="12"/>
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="K36" s="29">
         <f t="shared" si="12"/>
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="L36" s="29">
         <f t="shared" si="12"/>
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="M36" s="29">
         <f t="shared" si="12"/>
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="N36" s="29">
         <f t="shared" si="12"/>
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="O36" s="29">
         <f t="shared" si="12"/>
-        <v>0.13</v>
+        <v>0.37</v>
       </c>
       <c r="P36" s="29">
         <f t="shared" si="12"/>
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
       <c r="Q36" s="29">
         <f t="shared" si="12"/>
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="R36" s="29">
         <f t="shared" si="12"/>
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
       <c r="S36" s="29">
         <f t="shared" si="12"/>
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="T36" s="29">
         <f t="shared" si="12"/>
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="U36" s="29">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="V36" s="29">
         <f t="shared" si="12"/>
-        <v>0.11</v>
+        <v>0.49</v>
       </c>
       <c r="W36" s="29">
         <f t="shared" si="12"/>
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="X36" s="29">
         <f t="shared" si="12"/>
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="Y36" s="29">
         <f t="shared" si="12"/>
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="Z36" s="29">
         <f t="shared" si="12"/>
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="AA36" s="29">
         <f t="shared" si="12"/>
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
       <c r="AB36" s="29">
         <f t="shared" si="12"/>
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="AC36" s="29">
         <f t="shared" si="12"/>
-        <v>0.47</v>
+        <v>0.18</v>
       </c>
       <c r="AD36" s="29">
         <f t="shared" si="12"/>
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AE36" s="29">
         <f t="shared" si="12"/>
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="AF36" s="29">
         <f t="shared" si="12"/>
-        <v>0.42</v>
+        <v>0.07</v>
       </c>
       <c r="AG36" s="29">
         <f t="shared" si="12"/>
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="AH36" s="29">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="AI36" s="29">
         <f t="shared" si="12"/>
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AJ36" s="29">
         <f t="shared" si="12"/>
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="AK36" s="29">
         <f t="shared" si="12"/>
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="AL36" s="29">
         <f t="shared" si="12"/>
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="AM36" s="29">
         <f t="shared" si="12"/>
-        <v>0.37</v>
+        <v>0.15</v>
       </c>
       <c r="AN36" s="29">
         <f t="shared" si="12"/>
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="AO36" s="29">
         <f t="shared" si="12"/>
-        <v>0.05</v>
+        <v>0.36</v>
       </c>
       <c r="AP36" s="29">
         <f t="shared" si="12"/>
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AQ36" s="29">
         <f t="shared" si="12"/>
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="AR36" s="29">
         <f t="shared" si="12"/>
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="AS36" s="29">
         <f t="shared" si="12"/>
-        <v>0.48</v>
+        <v>0.04</v>
       </c>
       <c r="AT36" s="29">
         <f t="shared" si="12"/>
-        <v>0.45</v>
+        <v>0.29</v>
       </c>
       <c r="AU36" s="29">
         <f t="shared" si="12"/>
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="AV36" s="29">
         <f t="shared" si="12"/>
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="AW36" s="29">
         <f t="shared" si="12"/>
-        <v>0.43</v>
+        <v>0.03</v>
       </c>
       <c r="AX36" s="29">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="AY36" s="29">
         <f t="shared" si="12"/>
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AZ36" s="29">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="BA36" s="29">
         <f t="shared" si="12"/>
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="BB36" s="29">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="BC36" s="29">
         <f t="shared" si="12"/>
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="BD36" s="29">
         <f t="shared" si="12"/>
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="BE36" s="29">
         <f t="shared" si="12"/>
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -11278,12 +11308,35 @@
       <formula>LEN(TRIM(F10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B10 B13 B19 B25 B31 B34 B37">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"Minimum"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10 B13 B19 B25 B31 B34 B37">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Maximum"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11 B14 B17 B20 B32 B35 B38">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Short-Term"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11 B14 B17 B20 B32 B35 B38">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Long-Term"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B10 B13 B16 B19 B25 B31 B34 B37">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B10 B13 B19 B25 B31 B34 B37">
       <formula1>"Maximum,Minimum"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B11 B14 B17 B20 B26 B32 B35 B38">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B11 B14 B17 B20 B26 B32 B35 B38">
       <formula1>"Long-Term,Short-Term"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B16">
+      <formula1>"Maximum,Minimum"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -18682,26 +18735,46 @@
     <mergeCell ref="AB6:AE6"/>
     <mergeCell ref="AF6:AI6"/>
   </mergeCells>
+  <conditionalFormatting sqref="B11 B14 B19">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Short-Term"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11 B14 B19">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"Long-Term"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10 B13 B18">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Minimum"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10 B13 B18">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Maximum"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F10:BE10 F13:BE13 F18:BE18">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>AND($B10="Maximum",F10&gt;=F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:BE10 F13:BE13 F18:BE18">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>AND($B10="Minimum",50%&gt;F12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:BE10 F13:BE13 F18:BE18">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="7">
       <formula>LEN(TRIM(F10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B10 B13 B18">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B10 B13 B18">
       <formula1>"Maximum,Minimum"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B11 B14 B19">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B11 B14 B19">
       <formula1>"Long-Term,Short-Term"</formula1>
     </dataValidation>
   </dataValidations>
